--- a/inputs/es/demo_national_input.xlsx
+++ b/inputs/es/demo_national_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\es\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2547FE-DCC2-49CE-B637-2FE1444E6069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012586E3-0DE9-4F7B-9A64-13A9364AE4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas de población-año base" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Causas de muerte" sheetId="4" r:id="rId3"/>
     <sheet name="Distribución estado nutricional" sheetId="5" r:id="rId4"/>
     <sheet name="Distribución de lactancia" sheetId="50" r:id="rId5"/>
-    <sheet name="Tendencias temporales" sheetId="51" r:id="rId6"/>
+    <sheet name="Tendencias temporales" sheetId="51" state="hidden" r:id="rId6"/>
     <sheet name="Pérdida económica" sheetId="74" r:id="rId7"/>
     <sheet name="Paquetes de IYCF" sheetId="55" r:id="rId8"/>
     <sheet name="Tratamiento de la MAS" sheetId="60" r:id="rId9"/>
@@ -97,7 +97,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -588,7 +593,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="341">
   <si>
     <t>Meningitis</t>
   </si>
@@ -2919,15 +2924,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5107,14 +5112,14 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="27.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -5125,14 +5130,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>18</v>
@@ -5141,7 +5146,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>26</v>
@@ -5150,7 +5155,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -5219,7 +5224,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
@@ -5262,7 +5267,7 @@
       <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="115">
+      <c r="C20" s="114">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>0</v>
       </c>
@@ -5350,17 +5355,17 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="116">
+      <c r="C33" s="115">
         <f>SUM(C29:C32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -5464,7 +5469,7 @@
       <c r="B48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="115">
+      <c r="C48" s="114">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>0.495</v>
       </c>
@@ -5566,7 +5571,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5588,19 +5593,19 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="40" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="28"/>
+    <col min="7" max="7" width="22.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>163</v>
       </c>
@@ -6532,15 +6537,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="47.88671875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>163</v>
       </c>
@@ -6681,13 +6686,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="30.109375" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>163</v>
       </c>
@@ -6780,7 +6785,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6895,19 +6900,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>209</v>
       </c>
@@ -6954,7 +6959,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -7515,7 +7520,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>104</v>
       </c>
@@ -7566,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>166</v>
@@ -7611,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>178</v>
@@ -7660,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>179</v>
@@ -7896,7 +7901,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>211</v>
       </c>
@@ -8146,7 +8151,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>210</v>
       </c>
@@ -8654,7 +8659,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -8693,16 +8698,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="28"/>
-    <col min="5" max="5" width="17.453125" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="33.6640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="28" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="28"/>
+    <col min="5" max="5" width="17.44140625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>223</v>
       </c>
@@ -8719,7 +8724,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>215</v>
       </c>
@@ -8737,7 +8742,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>222</v>
       </c>
@@ -8755,7 +8760,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>217</v>
       </c>
@@ -8773,7 +8778,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>221</v>
       </c>
@@ -8791,7 +8796,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>220</v>
       </c>
@@ -8809,7 +8814,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>224</v>
       </c>
@@ -8827,7 +8832,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>226</v>
       </c>
@@ -8845,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>218</v>
       </c>
@@ -8863,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>219</v>
       </c>
@@ -8900,20 +8905,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="43"/>
+    <col min="6" max="7" width="13.109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>209</v>
       </c>
@@ -8960,7 +8965,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>83</v>
       </c>
@@ -9007,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>169</v>
       </c>
@@ -9051,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>151</v>
       </c>
@@ -9095,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>152</v>
       </c>
@@ -9139,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>153</v>
       </c>
@@ -9183,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
         <v>182</v>
       </c>
@@ -9227,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>184</v>
       </c>
@@ -9271,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
         <v>190</v>
       </c>
@@ -9315,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
         <v>192</v>
       </c>
@@ -9359,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
         <v>193</v>
       </c>
@@ -9403,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>204</v>
       </c>
@@ -9447,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>164</v>
       </c>
@@ -9491,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>196</v>
       </c>
@@ -9535,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40" t="s">
         <v>202</v>
       </c>
@@ -9579,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="40" t="s">
         <v>203</v>
       </c>
@@ -9623,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="40"/>
       <c r="C17" s="99"/>
       <c r="D17" s="99"/>
@@ -9639,7 +9644,7 @@
       <c r="N17" s="99"/>
       <c r="O17" s="99"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>104</v>
       </c>
@@ -9686,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="40" t="s">
         <v>166</v>
@@ -9731,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
         <v>178</v>
       </c>
@@ -9775,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73" t="s">
         <v>179</v>
       </c>
@@ -9819,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="74" t="s">
         <v>180</v>
       </c>
@@ -9863,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
         <v>188</v>
       </c>
@@ -9907,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="40" t="s">
         <v>189</v>
       </c>
@@ -9951,7 +9956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40" t="s">
         <v>191</v>
       </c>
@@ -9995,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="99"/>
       <c r="D26" s="99"/>
@@ -10011,7 +10016,7 @@
       <c r="N26" s="99"/>
       <c r="O26" s="99"/>
     </row>
-    <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>211</v>
       </c>
@@ -10059,7 +10064,7 @@
       </c>
       <c r="P27" s="75"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="46" t="s">
         <v>174</v>
       </c>
@@ -10103,7 +10108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="46" t="s">
         <v>175</v>
@@ -10148,7 +10153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="46" t="s">
         <v>176</v>
       </c>
@@ -10192,7 +10197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="46" t="s">
         <v>177</v>
       </c>
@@ -10236,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="40"/>
       <c r="C32" s="100"/>
       <c r="D32" s="100"/>
@@ -10252,7 +10257,7 @@
       <c r="N32" s="99"/>
       <c r="O32" s="99"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>210</v>
       </c>
@@ -10299,7 +10304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
         <v>172</v>
       </c>
@@ -10343,7 +10348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="40" t="s">
         <v>173</v>
       </c>
@@ -10387,7 +10392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="40" t="s">
         <v>181</v>
       </c>
@@ -10431,7 +10436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="40" t="s">
         <v>185</v>
       </c>
@@ -10475,7 +10480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="40" t="s">
         <v>197</v>
       </c>
@@ -10519,7 +10524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="40" t="s">
         <v>198</v>
       </c>
@@ -10563,7 +10568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="40" t="s">
         <v>199</v>
       </c>
@@ -10607,7 +10612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="40" t="s">
         <v>200</v>
       </c>
@@ -10651,7 +10656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="40" t="s">
         <v>201</v>
       </c>
@@ -10712,22 +10717,22 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="58.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>163</v>
       </c>
@@ -11479,22 +11484,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="16.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>233</v>
       </c>
@@ -11853,14 +11858,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="8.44140625" style="8" customWidth="1"/>
+    <col min="2" max="9" width="16.88671875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>73</v>
       </c>
@@ -12948,15 +12953,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="28" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="28"/>
+    <col min="3" max="3" width="14.6640625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>234</v>
       </c>
@@ -12982,11 +12987,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -13009,7 +13014,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="114"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="28" t="s">
         <v>149</v>
       </c>
@@ -13031,7 +13036,7 @@
       <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="114"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="28" t="s">
         <v>155</v>
       </c>
@@ -13053,7 +13058,7 @@
       <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -13077,7 +13082,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="114"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="28" t="s">
         <v>149</v>
       </c>
@@ -13098,7 +13103,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="114"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="28" t="s">
         <v>155</v>
       </c>
@@ -13119,7 +13124,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -13142,7 +13147,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="114"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="28" t="s">
         <v>149</v>
       </c>
@@ -13163,7 +13168,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="114"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="28" t="s">
         <v>155</v>
       </c>
@@ -13184,7 +13189,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -13207,7 +13212,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="114"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="28" t="s">
         <v>149</v>
       </c>
@@ -13228,7 +13233,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="114"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="28" t="s">
         <v>155</v>
       </c>
@@ -13249,7 +13254,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -13272,7 +13277,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="114"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="28" t="s">
         <v>149</v>
       </c>
@@ -13293,7 +13298,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="114"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="28" t="s">
         <v>155</v>
       </c>
@@ -13313,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="77" t="s">
         <v>148</v>
       </c>
@@ -13343,11 +13348,11 @@
       <c r="G18" s="101"/>
       <c r="H18" s="101"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -13370,7 +13375,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="114"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="28" t="s">
         <v>149</v>
       </c>
@@ -13391,7 +13396,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="114"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="28" t="s">
         <v>155</v>
       </c>
@@ -13412,7 +13417,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -13435,7 +13440,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="114"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="28" t="s">
         <v>149</v>
       </c>
@@ -13456,7 +13461,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="114"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="28" t="s">
         <v>155</v>
       </c>
@@ -13477,7 +13482,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -13500,7 +13505,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="114"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="28" t="s">
         <v>149</v>
       </c>
@@ -13521,7 +13526,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="114"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="28" t="s">
         <v>155</v>
       </c>
@@ -13542,7 +13547,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -13565,7 +13570,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="114"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="28" t="s">
         <v>149</v>
       </c>
@@ -13586,7 +13591,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="114"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="28" t="s">
         <v>155</v>
       </c>
@@ -13607,7 +13612,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -13630,7 +13635,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="114"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="28" t="s">
         <v>149</v>
       </c>
@@ -13651,7 +13656,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="114"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="28" t="s">
         <v>155</v>
       </c>
@@ -13671,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="77" t="s">
         <v>148</v>
       </c>
@@ -13701,11 +13706,11 @@
       <c r="G35" s="101"/>
       <c r="H35" s="101"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -13728,7 +13733,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="114"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="28" t="s">
         <v>149</v>
       </c>
@@ -13749,7 +13754,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="114"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="28" t="s">
         <v>155</v>
       </c>
@@ -13770,7 +13775,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -13793,7 +13798,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="114"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="28" t="s">
         <v>149</v>
       </c>
@@ -13814,7 +13819,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="114"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="28" t="s">
         <v>155</v>
       </c>
@@ -13835,7 +13840,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -13858,7 +13863,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="114"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="28" t="s">
         <v>149</v>
       </c>
@@ -13879,7 +13884,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="114"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="28" t="s">
         <v>155</v>
       </c>
@@ -13900,7 +13905,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="28" t="s">
@@ -13923,7 +13928,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="114"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="28" t="s">
         <v>149</v>
       </c>
@@ -13944,7 +13949,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="28" t="s">
         <v>155</v>
       </c>
@@ -13965,7 +13970,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -13988,7 +13993,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="114"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="28" t="s">
         <v>149</v>
       </c>
@@ -14009,7 +14014,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="114"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="28" t="s">
         <v>155</v>
       </c>
@@ -14029,7 +14034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="77" t="s">
         <v>148</v>
       </c>
@@ -14052,7 +14057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="107" t="s">
         <v>235</v>
       </c>
@@ -14064,7 +14069,7 @@
       <c r="G53" s="107"/>
       <c r="H53" s="107"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>234</v>
       </c>
@@ -14090,11 +14095,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B55" s="114" t="s">
+      <c r="B55" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -14122,7 +14127,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="114"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="28" t="s">
         <v>149</v>
       </c>
@@ -14148,7 +14153,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="114"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="28" t="s">
         <v>155</v>
       </c>
@@ -14174,7 +14179,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -14202,7 +14207,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="114"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="28" t="s">
         <v>149</v>
       </c>
@@ -14228,7 +14233,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="114"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="28" t="s">
         <v>155</v>
       </c>
@@ -14254,7 +14259,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="28" t="s">
@@ -14282,7 +14287,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="114"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="28" t="s">
         <v>149</v>
       </c>
@@ -14308,7 +14313,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="114"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="28" t="s">
         <v>155</v>
       </c>
@@ -14334,7 +14339,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="114" t="s">
+      <c r="B64" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -14362,7 +14367,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="114"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="28" t="s">
         <v>149</v>
       </c>
@@ -14388,7 +14393,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="114"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="28" t="s">
         <v>155</v>
       </c>
@@ -14414,7 +14419,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="114" t="s">
+      <c r="B67" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -14442,7 +14447,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="114"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="28" t="s">
         <v>149</v>
       </c>
@@ -14468,7 +14473,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="114"/>
+      <c r="B69" s="117"/>
       <c r="C69" s="28" t="s">
         <v>155</v>
       </c>
@@ -14493,7 +14498,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="77" t="s">
         <v>148</v>
       </c>
@@ -14528,11 +14533,11 @@
       <c r="G71" s="101"/>
       <c r="H71" s="101"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="B72" s="114" t="s">
+      <c r="B72" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -14560,7 +14565,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="114"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="28" t="s">
         <v>149</v>
       </c>
@@ -14586,7 +14591,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="114"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="28" t="s">
         <v>155</v>
       </c>
@@ -14612,7 +14617,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="114" t="s">
+      <c r="B75" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C75" s="28" t="s">
@@ -14640,7 +14645,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="114"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="28" t="s">
         <v>149</v>
       </c>
@@ -14666,7 +14671,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="114"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="28" t="s">
         <v>155</v>
       </c>
@@ -14692,7 +14697,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="114" t="s">
+      <c r="B78" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C78" s="28" t="s">
@@ -14720,7 +14725,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="114"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="28" t="s">
         <v>149</v>
       </c>
@@ -14746,7 +14751,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="114"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="28" t="s">
         <v>155</v>
       </c>
@@ -14772,7 +14777,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="114" t="s">
+      <c r="B81" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -14800,7 +14805,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="114"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="28" t="s">
         <v>149</v>
       </c>
@@ -14826,7 +14831,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="114"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="28" t="s">
         <v>155</v>
       </c>
@@ -14852,7 +14857,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="114" t="s">
+      <c r="B84" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C84" s="28" t="s">
@@ -14880,7 +14885,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="114"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="28" t="s">
         <v>149</v>
       </c>
@@ -14906,7 +14911,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="114"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="28" t="s">
         <v>155</v>
       </c>
@@ -14931,7 +14936,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="77" t="s">
         <v>148</v>
       </c>
@@ -14966,11 +14971,11 @@
       <c r="G88" s="101"/>
       <c r="H88" s="101"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="B89" s="114" t="s">
+      <c r="B89" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C89" s="28" t="s">
@@ -14998,7 +15003,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="114"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="28" t="s">
         <v>149</v>
       </c>
@@ -15024,7 +15029,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="114"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="28" t="s">
         <v>155</v>
       </c>
@@ -15050,7 +15055,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="114" t="s">
+      <c r="B92" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C92" s="28" t="s">
@@ -15078,7 +15083,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="114"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="28" t="s">
         <v>149</v>
       </c>
@@ -15104,7 +15109,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="114"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="28" t="s">
         <v>155</v>
       </c>
@@ -15130,7 +15135,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="114" t="s">
+      <c r="B95" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C95" s="28" t="s">
@@ -15158,7 +15163,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="114"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="28" t="s">
         <v>149</v>
       </c>
@@ -15184,7 +15189,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="114"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="28" t="s">
         <v>155</v>
       </c>
@@ -15210,7 +15215,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="114" t="s">
+      <c r="B98" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C98" s="28" t="s">
@@ -15238,7 +15243,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="114"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="28" t="s">
         <v>149</v>
       </c>
@@ -15264,7 +15269,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="114"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="28" t="s">
         <v>155</v>
       </c>
@@ -15290,7 +15295,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="114" t="s">
+      <c r="B101" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -15318,7 +15323,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="114"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="28" t="s">
         <v>149</v>
       </c>
@@ -15344,7 +15349,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="114"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="28" t="s">
         <v>155</v>
       </c>
@@ -15369,7 +15374,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="77" t="s">
         <v>148</v>
       </c>
@@ -15397,7 +15402,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="107" t="s">
         <v>245</v>
       </c>
@@ -15409,7 +15414,7 @@
       <c r="G106" s="107"/>
       <c r="H106" s="107"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>234</v>
       </c>
@@ -15435,11 +15440,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="B108" s="114" t="s">
+      <c r="B108" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C108" s="28" t="s">
@@ -15467,7 +15472,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="114"/>
+      <c r="B109" s="117"/>
       <c r="C109" s="28" t="s">
         <v>149</v>
       </c>
@@ -15493,7 +15498,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="114"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="28" t="s">
         <v>155</v>
       </c>
@@ -15519,7 +15524,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="114" t="s">
+      <c r="B111" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C111" s="28" t="s">
@@ -15547,7 +15552,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="114"/>
+      <c r="B112" s="117"/>
       <c r="C112" s="28" t="s">
         <v>149</v>
       </c>
@@ -15573,7 +15578,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="114"/>
+      <c r="B113" s="117"/>
       <c r="C113" s="28" t="s">
         <v>155</v>
       </c>
@@ -15599,7 +15604,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="114" t="s">
+      <c r="B114" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C114" s="28" t="s">
@@ -15627,7 +15632,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="114"/>
+      <c r="B115" s="117"/>
       <c r="C115" s="28" t="s">
         <v>149</v>
       </c>
@@ -15653,7 +15658,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="114"/>
+      <c r="B116" s="117"/>
       <c r="C116" s="28" t="s">
         <v>155</v>
       </c>
@@ -15679,7 +15684,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="114" t="s">
+      <c r="B117" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C117" s="28" t="s">
@@ -15707,7 +15712,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="114"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="28" t="s">
         <v>149</v>
       </c>
@@ -15733,7 +15738,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="114"/>
+      <c r="B119" s="117"/>
       <c r="C119" s="28" t="s">
         <v>155</v>
       </c>
@@ -15759,7 +15764,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="114" t="s">
+      <c r="B120" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C120" s="28" t="s">
@@ -15787,7 +15792,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="114"/>
+      <c r="B121" s="117"/>
       <c r="C121" s="28" t="s">
         <v>149</v>
       </c>
@@ -15813,7 +15818,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="114"/>
+      <c r="B122" s="117"/>
       <c r="C122" s="28" t="s">
         <v>155</v>
       </c>
@@ -15838,7 +15843,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="77" t="s">
         <v>148</v>
       </c>
@@ -15873,11 +15878,11 @@
       <c r="G124" s="101"/>
       <c r="H124" s="101"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="114" t="s">
+      <c r="B125" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="28" t="s">
@@ -15905,7 +15910,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="114"/>
+      <c r="B126" s="117"/>
       <c r="C126" s="28" t="s">
         <v>149</v>
       </c>
@@ -15931,7 +15936,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="114"/>
+      <c r="B127" s="117"/>
       <c r="C127" s="28" t="s">
         <v>155</v>
       </c>
@@ -15957,7 +15962,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="114" t="s">
+      <c r="B128" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C128" s="28" t="s">
@@ -15985,7 +15990,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="114"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="28" t="s">
         <v>149</v>
       </c>
@@ -16011,7 +16016,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="114"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="28" t="s">
         <v>155</v>
       </c>
@@ -16037,7 +16042,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="114" t="s">
+      <c r="B131" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C131" s="28" t="s">
@@ -16065,7 +16070,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="114"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="28" t="s">
         <v>149</v>
       </c>
@@ -16091,7 +16096,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="114"/>
+      <c r="B133" s="117"/>
       <c r="C133" s="28" t="s">
         <v>155</v>
       </c>
@@ -16117,7 +16122,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="114" t="s">
+      <c r="B134" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C134" s="28" t="s">
@@ -16145,7 +16150,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="114"/>
+      <c r="B135" s="117"/>
       <c r="C135" s="28" t="s">
         <v>149</v>
       </c>
@@ -16171,7 +16176,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="114"/>
+      <c r="B136" s="117"/>
       <c r="C136" s="28" t="s">
         <v>155</v>
       </c>
@@ -16197,7 +16202,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="114" t="s">
+      <c r="B137" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C137" s="28" t="s">
@@ -16225,7 +16230,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="114"/>
+      <c r="B138" s="117"/>
       <c r="C138" s="28" t="s">
         <v>149</v>
       </c>
@@ -16251,7 +16256,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="114"/>
+      <c r="B139" s="117"/>
       <c r="C139" s="28" t="s">
         <v>155</v>
       </c>
@@ -16276,7 +16281,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="77" t="s">
         <v>148</v>
       </c>
@@ -16311,11 +16316,11 @@
       <c r="G141" s="101"/>
       <c r="H141" s="101"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="B142" s="114" t="s">
+      <c r="B142" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C142" s="28" t="s">
@@ -16343,7 +16348,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="114"/>
+      <c r="B143" s="117"/>
       <c r="C143" s="28" t="s">
         <v>149</v>
       </c>
@@ -16369,7 +16374,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="114"/>
+      <c r="B144" s="117"/>
       <c r="C144" s="28" t="s">
         <v>155</v>
       </c>
@@ -16395,7 +16400,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="114" t="s">
+      <c r="B145" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C145" s="28" t="s">
@@ -16423,7 +16428,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="114"/>
+      <c r="B146" s="117"/>
       <c r="C146" s="28" t="s">
         <v>149</v>
       </c>
@@ -16449,7 +16454,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="114"/>
+      <c r="B147" s="117"/>
       <c r="C147" s="28" t="s">
         <v>155</v>
       </c>
@@ -16475,7 +16480,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="114" t="s">
+      <c r="B148" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C148" s="28" t="s">
@@ -16503,7 +16508,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="114"/>
+      <c r="B149" s="117"/>
       <c r="C149" s="28" t="s">
         <v>149</v>
       </c>
@@ -16529,7 +16534,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="114"/>
+      <c r="B150" s="117"/>
       <c r="C150" s="28" t="s">
         <v>155</v>
       </c>
@@ -16555,7 +16560,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="114" t="s">
+      <c r="B151" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C151" s="28" t="s">
@@ -16583,7 +16588,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="114"/>
+      <c r="B152" s="117"/>
       <c r="C152" s="28" t="s">
         <v>149</v>
       </c>
@@ -16609,7 +16614,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="114"/>
+      <c r="B153" s="117"/>
       <c r="C153" s="28" t="s">
         <v>155</v>
       </c>
@@ -16635,7 +16640,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="114" t="s">
+      <c r="B154" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C154" s="28" t="s">
@@ -16663,7 +16668,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="114"/>
+      <c r="B155" s="117"/>
       <c r="C155" s="28" t="s">
         <v>149</v>
       </c>
@@ -16689,7 +16694,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="114"/>
+      <c r="B156" s="117"/>
       <c r="C156" s="28" t="s">
         <v>155</v>
       </c>
@@ -16714,7 +16719,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="77" t="s">
         <v>148</v>
       </c>
@@ -16745,6 +16750,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5zRm+7zcoqbWwNKCsmYwh0AUl6T2QpkPbezAGt5NOEAe3juQF8/d8sugTeHlp0uaeYOJuCHPuj1ixgKPU+cMJA==" saltValue="uGLyorWBNkp9CF2NxxNddw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16754,42 +16795,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16810,22 +16815,22 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="28" customWidth="1"/>
     <col min="5" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="28"/>
+    <col min="7" max="16384" width="16.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81"/>
       <c r="C2" s="82" t="s">
         <v>58</v>
@@ -16840,7 +16845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>255</v>
       </c>
@@ -16924,7 +16929,7 @@
       <c r="E8" s="76"/>
       <c r="F8" s="76"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>252</v>
       </c>
@@ -16947,7 +16952,7 @@
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
     </row>
-    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>261</v>
       </c>
@@ -16956,7 +16961,7 @@
       <c r="E11" s="89"/>
       <c r="F11" s="89"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>249</v>
       </c>
@@ -17016,7 +17021,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="46"/>
       <c r="C16" s="90"/>
@@ -17024,7 +17029,7 @@
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>258</v>
       </c>
@@ -17173,7 +17178,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="46"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
         <v>235</v>
       </c>
@@ -17183,12 +17188,12 @@
       <c r="E27" s="110"/>
       <c r="F27" s="110"/>
     </row>
-    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="81"/>
       <c r="C29" s="82" t="s">
         <v>58</v>
@@ -17203,7 +17208,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>256</v>
       </c>
@@ -17303,7 +17308,7 @@
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>253</v>
       </c>
@@ -17324,7 +17329,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
         <v>261</v>
       </c>
@@ -17334,7 +17339,7 @@
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>250</v>
       </c>
@@ -17406,7 +17411,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="46"/>
       <c r="C43" s="90"/>
@@ -17414,7 +17419,7 @@
       <c r="E43" s="76"/>
       <c r="F43" s="76"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>259</v>
       </c>
@@ -17592,7 +17597,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="107" t="s">
         <v>245</v>
       </c>
@@ -17602,12 +17607,12 @@
       <c r="E54" s="110"/>
       <c r="F54" s="110"/>
     </row>
-    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="81"/>
       <c r="C56" s="82" t="s">
         <v>58</v>
@@ -17622,7 +17627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>257</v>
       </c>
@@ -17722,7 +17727,7 @@
       <c r="E62" s="76"/>
       <c r="F62" s="76"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>254</v>
       </c>
@@ -17743,7 +17748,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>261</v>
       </c>
@@ -17753,7 +17758,7 @@
       <c r="E65" s="89"/>
       <c r="F65" s="89"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>251</v>
       </c>
@@ -17825,7 +17830,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="46"/>
       <c r="C70" s="90"/>
@@ -17833,7 +17838,7 @@
       <c r="E70" s="76"/>
       <c r="F70" s="76"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>260</v>
       </c>
@@ -18032,23 +18037,23 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="28" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="28" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="27.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="28" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="28" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>230</v>
       </c>
@@ -18082,7 +18087,7 @@
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="28" t="s">
         <v>84</v>
@@ -18515,7 +18520,7 @@
       <c r="O17" s="93"/>
       <c r="P17" s="93"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="32" t="s">
         <v>272</v>
       </c>
@@ -18773,12 +18778,12 @@
       <c r="O26" s="93"/>
       <c r="P26" s="93"/>
     </row>
-    <row r="28" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="s">
         <v>282</v>
       </c>
@@ -18812,7 +18817,7 @@
       <c r="O29" s="94"/>
       <c r="P29" s="94"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="28" t="s">
         <v>84</v>
@@ -19507,12 +19512,12 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
     </row>
-    <row r="55" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="s">
         <v>105</v>
       </c>
@@ -19540,7 +19545,7 @@
       <c r="O56" s="94"/>
       <c r="P56" s="94"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="28" t="s">
         <v>81</v>
@@ -19686,12 +19691,12 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
     </row>
-    <row r="64" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="s">
         <v>123</v>
       </c>
@@ -19725,7 +19730,7 @@
       <c r="O65" s="94"/>
       <c r="P65" s="94"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="97"/>
       <c r="B66" s="28" t="s">
         <v>93</v>
@@ -20761,12 +20766,12 @@
       <c r="O101" s="93"/>
       <c r="P101" s="93"/>
     </row>
-    <row r="103" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="79" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="s">
         <v>84</v>
       </c>
@@ -20800,7 +20805,7 @@
       <c r="O104" s="94"/>
       <c r="P104" s="94"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="C105" s="32" t="s">
         <v>124</v>
@@ -20913,13 +20918,13 @@
       <c r="O108" s="93"/>
       <c r="P108" s="93"/>
     </row>
-    <row r="110" spans="1:16" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="107" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="107"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="79" t="s">
         <v>278</v>
       </c>
@@ -20931,7 +20936,7 @@
       <c r="G111" s="80"/>
       <c r="H111" s="80"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="s">
         <v>230</v>
       </c>
@@ -20957,7 +20962,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="28" t="s">
         <v>84</v>
@@ -21576,7 +21581,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="79" t="s">
         <v>279</v>
       </c>
@@ -21588,7 +21593,7 @@
       <c r="G138" s="80"/>
       <c r="H138" s="80"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="s">
         <v>282</v>
       </c>
@@ -21614,7 +21619,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
       <c r="B140" s="28" t="s">
         <v>84</v>
@@ -22237,7 +22242,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="79" t="s">
         <v>276</v>
       </c>
@@ -22249,7 +22254,7 @@
       <c r="G165" s="80"/>
       <c r="H165" s="80"/>
     </row>
-    <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="s">
         <v>105</v>
       </c>
@@ -22273,7 +22278,7 @@
       </c>
       <c r="H166" s="94"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
       <c r="B167" s="28" t="s">
         <v>81</v>
@@ -22419,7 +22424,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="79" t="s">
         <v>277</v>
       </c>
@@ -22431,7 +22436,7 @@
       <c r="G174" s="80"/>
       <c r="H174" s="80"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="93" t="s">
         <v>123</v>
       </c>
@@ -22457,7 +22462,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="97"/>
       <c r="B176" s="28" t="s">
         <v>93</v>
@@ -23349,7 +23354,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="79" t="s">
         <v>280</v>
       </c>
@@ -23361,7 +23366,7 @@
       <c r="G213" s="80"/>
       <c r="H213" s="80"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="93" t="s">
         <v>84</v>
       </c>
@@ -23387,7 +23392,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
       <c r="C215" s="32" t="s">
         <v>124</v>
@@ -23484,13 +23489,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="107" t="s">
         <v>245</v>
       </c>
       <c r="H220" s="107"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="79" t="s">
         <v>278</v>
       </c>
@@ -23503,7 +23508,7 @@
       <c r="H221" s="80"/>
       <c r="I221" s="80"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="93" t="s">
         <v>230</v>
       </c>
@@ -23530,7 +23535,7 @@
       </c>
       <c r="I222" s="94"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="30"/>
       <c r="B223" s="28" t="s">
         <v>84</v>
@@ -24173,7 +24178,7 @@
       </c>
       <c r="I246" s="93"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="79" t="s">
         <v>279</v>
       </c>
@@ -24186,7 +24191,7 @@
       <c r="H248" s="80"/>
       <c r="I248" s="80"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="93" t="s">
         <v>282</v>
       </c>
@@ -24213,7 +24218,7 @@
       </c>
       <c r="I249" s="94"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="30"/>
       <c r="B250" s="28" t="s">
         <v>84</v>
@@ -24860,7 +24865,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="79" t="s">
         <v>276</v>
       </c>
@@ -24873,7 +24878,7 @@
       <c r="H275" s="80"/>
       <c r="I275" s="80"/>
     </row>
-    <row r="276" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="93" t="s">
         <v>105</v>
       </c>
@@ -24897,7 +24902,7 @@
       </c>
       <c r="H276" s="94"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="30"/>
       <c r="B277" s="28" t="s">
         <v>81</v>
@@ -25043,7 +25048,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="32"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="79" t="s">
         <v>277</v>
       </c>
@@ -25056,7 +25061,7 @@
       <c r="H284" s="80"/>
       <c r="I284" s="80"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="93" t="s">
         <v>123</v>
       </c>
@@ -25083,7 +25088,7 @@
       </c>
       <c r="I285" s="94"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="97"/>
       <c r="B286" s="28" t="s">
         <v>93</v>
@@ -26011,7 +26016,7 @@
       </c>
       <c r="I321" s="93"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="79" t="s">
         <v>280</v>
       </c>
@@ -26024,7 +26029,7 @@
       <c r="H323" s="80"/>
       <c r="I323" s="80"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="93" t="s">
         <v>84</v>
       </c>
@@ -26051,7 +26056,7 @@
       </c>
       <c r="I324" s="94"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="30"/>
       <c r="C325" s="32" t="s">
         <v>124</v>
@@ -26173,24 +26178,24 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.90625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="28" customWidth="1"/>
     <col min="6" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="28"/>
+    <col min="7" max="7" width="13.6640625" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>208</v>
       </c>
@@ -26231,7 +26236,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="73" t="s">
         <v>286</v>
@@ -26252,7 +26257,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>283</v>
       </c>
@@ -26345,12 +26350,12 @@
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
     </row>
-    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84"/>
       <c r="B12" s="46" t="s">
         <v>182</v>
@@ -26371,16 +26376,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
       <c r="B13" s="46"/>
     </row>
-    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>282</v>
       </c>
@@ -26403,7 +26408,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="73" t="s">
         <v>291</v>
@@ -26424,7 +26429,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="97" t="s">
         <v>105</v>
       </c>
@@ -26448,12 +26453,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44" t="s">
         <v>68</v>
       </c>
@@ -26484,12 +26489,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
         <v>313</v>
       </c>
@@ -26500,7 +26505,7 @@
       <c r="F24" s="80"/>
       <c r="G24" s="80"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="s">
         <v>208</v>
       </c>
@@ -26545,7 +26550,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="73" t="s">
         <v>287</v>
@@ -26571,7 +26576,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="84" t="s">
         <v>284</v>
       </c>
@@ -26684,7 +26689,7 @@
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
         <v>308</v>
       </c>
@@ -26695,7 +26700,7 @@
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="84"/>
       <c r="B35" s="46" t="s">
         <v>303</v>
@@ -26718,11 +26723,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="84"/>
       <c r="B36" s="46"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
         <v>314</v>
       </c>
@@ -26733,7 +26738,7 @@
       <c r="F37" s="80"/>
       <c r="G37" s="80"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="97" t="s">
         <v>282</v>
       </c>
@@ -26761,7 +26766,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="73" t="s">
         <v>292</v>
@@ -26787,7 +26792,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="97" t="s">
         <v>105</v>
       </c>
@@ -26815,7 +26820,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
         <v>311</v>
       </c>
@@ -26826,7 +26831,7 @@
       <c r="F42" s="80"/>
       <c r="G42" s="80"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="84"/>
       <c r="B43" s="84"/>
       <c r="C43" s="44" t="s">
@@ -26864,12 +26869,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
         <v>313</v>
       </c>
@@ -26880,7 +26885,7 @@
       <c r="F47" s="80"/>
       <c r="G47" s="80"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="97" t="s">
         <v>208</v>
       </c>
@@ -26925,7 +26930,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="73" t="s">
         <v>288</v>
@@ -26951,7 +26956,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="84" t="s">
         <v>285</v>
       </c>
@@ -27064,7 +27069,7 @@
       <c r="F56" s="73"/>
       <c r="G56" s="73"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="79" t="s">
         <v>309</v>
       </c>
@@ -27075,7 +27080,7 @@
       <c r="F57" s="80"/>
       <c r="G57" s="80"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="84"/>
       <c r="B58" s="46" t="s">
         <v>304</v>
@@ -27098,11 +27103,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="84"/>
       <c r="B59" s="46"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="79" t="s">
         <v>314</v>
       </c>
@@ -27113,7 +27118,7 @@
       <c r="F60" s="80"/>
       <c r="G60" s="80"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="97" t="s">
         <v>282</v>
       </c>
@@ -27141,7 +27146,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="73" t="s">
         <v>293</v>
@@ -27167,7 +27172,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="97" t="s">
         <v>105</v>
       </c>
@@ -27195,7 +27200,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>312</v>
       </c>
@@ -27206,7 +27211,7 @@
       <c r="F65" s="80"/>
       <c r="G65" s="80"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="84"/>
       <c r="B66" s="84"/>
       <c r="C66" s="44" t="s">
@@ -27266,16 +27271,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="28" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="28"/>
-    <col min="7" max="7" width="17.1796875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="28"/>
+    <col min="1" max="1" width="52.21875" style="28" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="28"/>
+    <col min="7" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>163</v>
       </c>
@@ -27521,12 +27526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>163</v>
       </c>
@@ -27820,12 +27825,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="107" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>163</v>
       </c>
@@ -28140,15 +28145,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="28"/>
+    <col min="16" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="83" t="s">
@@ -28191,7 +28196,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>326</v>
       </c>
@@ -28636,7 +28641,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>190</v>
       </c>
@@ -28768,7 +28773,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>323</v>
       </c>
@@ -28950,12 +28955,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="52" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="83" t="s">
@@ -28998,7 +29003,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>327</v>
       </c>
@@ -29744,7 +29749,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>324</v>
       </c>
@@ -29978,12 +29983,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="52" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="83" t="s">
@@ -30026,7 +30031,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>328</v>
       </c>
@@ -30772,7 +30777,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>325</v>
       </c>
@@ -31027,15 +31032,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="28" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="21.33203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="28" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="42"/>
       <c r="C1" s="30" t="s">
@@ -31054,7 +31059,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>333</v>
       </c>
@@ -31079,7 +31084,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>330</v>
       </c>
@@ -31110,12 +31115,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="107" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="42"/>
       <c r="C8" s="30" t="s">
@@ -31134,7 +31139,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>334</v>
       </c>
@@ -31164,7 +31169,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>331</v>
       </c>
@@ -31200,12 +31205,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="107" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="42"/>
       <c r="C15" s="30" t="s">
@@ -31224,7 +31229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>335</v>
       </c>
@@ -31254,7 +31259,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>332</v>
       </c>
@@ -31311,20 +31316,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="40" customWidth="1"/>
     <col min="4" max="4" width="15" style="28" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="28"/>
-    <col min="8" max="8" width="17.54296875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="28"/>
+    <col min="5" max="5" width="13.6640625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="28"/>
+    <col min="8" max="8" width="17.5546875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>163</v>
       </c>
@@ -32507,14 +32512,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>329</v>
       </c>
       <c r="B55" s="112"/>
       <c r="C55" s="112"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>163</v>
       </c>
@@ -33957,14 +33962,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="111" t="s">
         <v>336</v>
       </c>
       <c r="B110" s="112"/>
       <c r="C110" s="112"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>163</v>
       </c>
@@ -35428,16 +35433,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="28" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="28"/>
+    <col min="2" max="2" width="27.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="28" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>163</v>
       </c>
@@ -35585,12 +35590,12 @@
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="107" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>163</v>
       </c>
@@ -35755,12 +35760,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="107" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>163</v>
       </c>
@@ -35945,14 +35950,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Porcentaje de muertes en el año de referencia ("&amp;start_year&amp;") atribuible a la causa"</f>
         <v>Porcentaje de muertes en el año de referencia (2017) atribuible a la causa</v>
@@ -35963,7 +35968,7 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -36046,7 +36051,7 @@
       <c r="B11" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="116">
+      <c r="C11" s="115">
         <f>SUM(C3:C10)</f>
         <v>1</v>
       </c>
@@ -36062,7 +36067,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>83</v>
       </c>
@@ -36240,19 +36245,19 @@
       <c r="B23" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="116">
+      <c r="C23" s="115">
         <f>SUM(C14:C22)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="116">
+      <c r="D23" s="115">
         <f t="shared" ref="D23:F23" si="0">SUM(D14:D22)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="116">
+      <c r="E23" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="116">
+      <c r="F23" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36268,7 +36273,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -36360,7 +36365,7 @@
       <c r="B35" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="116">
+      <c r="C35" s="115">
         <f>SUM(C26:C34)</f>
         <v>1</v>
       </c>
@@ -36384,13 +36389,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Porcentaje de población en cada categoría en el año de referencia ("&amp;start_year&amp;")"</f>
         <v>Porcentaje de población en cada categoría en el año de referencia (2017)</v>
@@ -36421,23 +36426,23 @@
       <c r="B2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="E2" s="117">
+      <c r="E2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.44982829694488635</v>
       </c>
-      <c r="F2" s="117">
+      <c r="F2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.24457139941017503</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.23269074767298425</v>
       </c>
@@ -36446,23 +36451,23 @@
       <c r="B3" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="E3" s="117">
+      <c r="E3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v>0.35908666207150708</v>
       </c>
-      <c r="F3" s="117">
+      <c r="F3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v>0.37651189492768178</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v>0.37372365733745416</v>
       </c>
@@ -36530,23 +36535,23 @@
       <c r="B8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="E8" s="117">
+      <c r="E8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.68355843805440353</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.73228840888273117</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.81212055177975573</v>
       </c>
@@ -36555,23 +36560,23 @@
       <c r="B9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="E9" s="117">
+      <c r="E9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
@@ -36722,55 +36727,55 @@
       <c r="B15" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="116">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="116">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E15" s="117">
+      <c r="E15" s="116">
         <f t="shared" si="0"/>
         <v>0.32801999999999998</v>
       </c>
-      <c r="F15" s="117">
+      <c r="F15" s="116">
         <f t="shared" si="0"/>
         <v>0.30639</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="116">
         <f t="shared" si="0"/>
         <v>0.20314000000000002</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="I15" s="117">
+      <c r="I15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
-      <c r="L15" s="117">
+      <c r="L15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="M15" s="117">
+      <c r="M15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="N15" s="117">
+      <c r="N15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="O15" s="117">
+      <c r="O15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
@@ -36808,13 +36813,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Porcentaje de niños en cada categoría en el año de referencia ("&amp;start_year&amp;")"</f>
         <v>Porcentaje de niños en cada categoría en el año de referencia (2017)</v>
@@ -36905,23 +36910,23 @@
       <c r="B5" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="116">
         <f>1-SUM(C2:C4)</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="116">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>2.4399366085578356E-2</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="116">
         <f t="shared" si="0"/>
         <v>1.8961838681699872E-2</v>
       </c>
-      <c r="F5" s="117">
+      <c r="F5" s="116">
         <f t="shared" si="0"/>
         <v>0.27800000000000002</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="116">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36944,13 +36949,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>135</v>
       </c>
@@ -37150,13 +37155,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>147</v>
       </c>
@@ -37226,18 +37231,18 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="19.109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>154</v>
       </c>
@@ -37254,7 +37259,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>151</v>
       </c>
@@ -37272,8 +37277,8 @@
       <c r="B3" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="63" t="b">
-        <v>1</v>
+      <c r="C3" s="63" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="45" t="str">
@@ -37285,8 +37290,8 @@
       <c r="B4" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="63" t="b">
-        <v>1</v>
+      <c r="C4" s="63" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="45" t="str">
@@ -37298,8 +37303,8 @@
       <c r="B5" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="63" t="b">
-        <v>1</v>
+      <c r="C5" s="63" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="45" t="str">
@@ -37311,8 +37316,8 @@
       <c r="B6" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="63" t="b">
-        <v>1</v>
+      <c r="C6" s="63" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="45" t="str">
@@ -37328,7 +37333,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="63"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>152</v>
       </c>
@@ -37336,9 +37341,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="63"/>
-      <c r="D9" s="63" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="63"/>
       <c r="E9" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37349,7 +37352,9 @@
         <v>78</v>
       </c>
       <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="D10" s="63" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37360,7 +37365,9 @@
         <v>74</v>
       </c>
       <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="D11" s="63" t="s">
+        <v>5</v>
+      </c>
       <c r="E11" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37371,7 +37378,9 @@
         <v>77</v>
       </c>
       <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>5</v>
+      </c>
       <c r="E12" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37382,7 +37391,9 @@
         <v>75</v>
       </c>
       <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="D13" s="63" t="s">
+        <v>5</v>
+      </c>
       <c r="E13" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37394,11 +37405,9 @@
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E14" s="63"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>153</v>
       </c>
@@ -37406,9 +37415,7 @@
         <v>104</v>
       </c>
       <c r="C16" s="63"/>
-      <c r="D16" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="D16" s="63"/>
       <c r="E16" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37445,9 +37452,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="63"/>
-      <c r="D19" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="D19" s="63"/>
       <c r="E19" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37458,9 +37463,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="63"/>
-      <c r="D20" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="D20" s="63"/>
       <c r="E20" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37492,15 +37495,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>4</v>
       </c>
@@ -37514,7 +37517,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>163</v>
       </c>
@@ -37526,7 +37529,7 @@
       </c>
       <c r="D2" s="63"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>160</v>
       </c>

--- a/inputs/es/demo_national_input.xlsx
+++ b/inputs/es/demo_national_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\es\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012586E3-0DE9-4F7B-9A64-13A9364AE4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B3309F-D2CF-423D-ADF4-310D924172A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas de población-año base" sheetId="1" r:id="rId1"/>
@@ -5108,7 +5108,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -6533,7 +6533,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -16750,12 +16750,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5zRm+7zcoqbWwNKCsmYwh0AUl6T2QpkPbezAGt5NOEAe3juQF8/d8sugTeHlp0uaeYOJuCHPuj1ixgKPU+cMJA==" saltValue="uGLyorWBNkp9CF2NxxNddw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16765,36 +16789,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -31312,8 +31312,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31372,13 +31372,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31392,13 +31392,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31725,7 +31725,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="105">
         <v>0.62</v>
@@ -31768,7 +31768,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="105">
         <v>0.62</v>
@@ -31788,13 +31788,13 @@
         <v>337</v>
       </c>
       <c r="D21" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="105">
         <v>0</v>
       </c>
       <c r="F21" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="105">
         <v>0</v>
@@ -31814,7 +31814,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="105">
         <v>0</v>
@@ -31834,13 +31834,13 @@
         <v>337</v>
       </c>
       <c r="D23" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="105">
         <v>0</v>
       </c>
       <c r="F23" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="105">
         <v>0</v>
@@ -31860,7 +31860,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="105">
         <v>0</v>
@@ -31880,13 +31880,13 @@
         <v>337</v>
       </c>
       <c r="D25" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="105">
         <v>0</v>
       </c>
       <c r="F25" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="105">
         <v>0</v>
@@ -31906,7 +31906,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="105">
         <v>0</v>
@@ -31932,7 +31932,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="105">
         <v>1</v>
@@ -31952,7 +31952,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="105">
         <v>0</v>
@@ -31972,7 +31972,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="105">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="105">
         <v>1</v>
@@ -32018,7 +32018,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="105">
         <v>0</v>
@@ -32038,7 +32038,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="105">
         <v>0</v>
@@ -32064,7 +32064,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="105">
         <v>1</v>
@@ -32084,7 +32084,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="105">
         <v>0</v>
@@ -32104,7 +32104,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="105">
         <v>0</v>
@@ -32130,7 +32130,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="105">
         <v>1</v>
@@ -32150,7 +32150,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="105">
         <v>0</v>
@@ -32170,7 +32170,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="105">
         <v>0</v>
@@ -32196,7 +32196,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="105">
         <v>1</v>
@@ -32216,7 +32216,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="105">
         <v>0</v>
@@ -32236,7 +32236,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="105">
         <v>0</v>
@@ -32262,7 +32262,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="105">
         <v>0.3</v>
@@ -32282,7 +32282,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="105">
         <v>0.5</v>
@@ -32302,7 +32302,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="105">
         <v>0.65</v>
@@ -32325,7 +32325,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="105">
         <v>0.3</v>
@@ -32345,7 +32345,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="105">
         <v>0.49</v>
@@ -32365,7 +32365,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="105">
         <v>0.52</v>
@@ -32391,7 +32391,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="105">
         <v>0.88</v>
@@ -32405,19 +32405,19 @@
         <v>339</v>
       </c>
       <c r="D49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32431,19 +32431,19 @@
         <v>337</v>
       </c>
       <c r="D50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32457,7 +32457,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="105">
         <v>0.86</v>
@@ -32483,7 +32483,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="105">
         <v>0</v>
@@ -32503,7 +32503,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="105">
         <v>0</v>
@@ -32565,15 +32565,15 @@
       </c>
       <c r="F57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32590,15 +32590,15 @@
       </c>
       <c r="F58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32998,7 +32998,7 @@
       </c>
       <c r="F73" s="105">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="105">
         <f t="shared" si="5"/>
@@ -33051,7 +33051,7 @@
       </c>
       <c r="F75" s="105">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="105">
         <f t="shared" si="7"/>
@@ -33074,7 +33074,7 @@
       </c>
       <c r="D76" s="105">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="105">
         <f t="shared" si="8"/>
@@ -33082,7 +33082,7 @@
       </c>
       <c r="F76" s="105">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="105">
         <f t="shared" si="8"/>
@@ -33107,7 +33107,7 @@
       </c>
       <c r="F77" s="105">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="105">
         <f t="shared" si="9"/>
@@ -33130,7 +33130,7 @@
       </c>
       <c r="D78" s="105">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="105">
         <f t="shared" si="10"/>
@@ -33138,7 +33138,7 @@
       </c>
       <c r="F78" s="105">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="105">
         <f t="shared" si="10"/>
@@ -33163,7 +33163,7 @@
       </c>
       <c r="F79" s="105">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="105">
         <f t="shared" si="11"/>
@@ -33186,7 +33186,7 @@
       </c>
       <c r="D80" s="105">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="105">
         <f t="shared" si="12"/>
@@ -33194,7 +33194,7 @@
       </c>
       <c r="F80" s="105">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="105">
         <f t="shared" si="12"/>
@@ -33219,7 +33219,7 @@
       </c>
       <c r="F81" s="105">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="105">
         <f t="shared" si="13"/>
@@ -33250,7 +33250,7 @@
       </c>
       <c r="F82" s="105">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="105">
         <f t="shared" si="14"/>
@@ -33275,7 +33275,7 @@
       </c>
       <c r="F83" s="105">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="105">
         <f t="shared" si="15"/>
@@ -33300,7 +33300,7 @@
       </c>
       <c r="F84" s="105">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="105">
         <f t="shared" si="16"/>
@@ -33331,7 +33331,7 @@
       </c>
       <c r="F85" s="105">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="105">
         <f t="shared" si="17"/>
@@ -33356,7 +33356,7 @@
       </c>
       <c r="F86" s="105">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="105">
         <f t="shared" si="18"/>
@@ -33381,7 +33381,7 @@
       </c>
       <c r="F87" s="105">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="105">
         <f t="shared" si="19"/>
@@ -33412,7 +33412,7 @@
       </c>
       <c r="F88" s="105">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="105">
         <f t="shared" si="20"/>
@@ -33437,7 +33437,7 @@
       </c>
       <c r="F89" s="105">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="105">
         <f t="shared" si="21"/>
@@ -33462,7 +33462,7 @@
       </c>
       <c r="F90" s="105">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="105">
         <f t="shared" si="22"/>
@@ -33493,7 +33493,7 @@
       </c>
       <c r="F91" s="105">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="105">
         <f t="shared" si="23"/>
@@ -33518,7 +33518,7 @@
       </c>
       <c r="F92" s="105">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="105">
         <f t="shared" si="24"/>
@@ -33543,7 +33543,7 @@
       </c>
       <c r="F93" s="105">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="105">
         <f t="shared" si="25"/>
@@ -33574,7 +33574,7 @@
       </c>
       <c r="F94" s="105">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="105">
         <f t="shared" si="26"/>
@@ -33599,7 +33599,7 @@
       </c>
       <c r="F95" s="105">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="105">
         <f t="shared" si="27"/>
@@ -33624,7 +33624,7 @@
       </c>
       <c r="F96" s="105">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="105">
         <f t="shared" si="28"/>
@@ -33655,7 +33655,7 @@
       </c>
       <c r="F97" s="105">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="105">
         <f t="shared" si="29"/>
@@ -33680,7 +33680,7 @@
       </c>
       <c r="F98" s="105">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="105">
         <f t="shared" si="30"/>
@@ -33705,7 +33705,7 @@
       </c>
       <c r="F99" s="105">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="105">
         <f t="shared" si="31"/>
@@ -33733,7 +33733,7 @@
       </c>
       <c r="F100" s="105">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="105">
         <f t="shared" si="32"/>
@@ -33758,7 +33758,7 @@
       </c>
       <c r="F101" s="105">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="105">
         <f t="shared" si="33"/>
@@ -33783,7 +33783,7 @@
       </c>
       <c r="F102" s="105">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="105">
         <f t="shared" si="34"/>
@@ -33814,7 +33814,7 @@
       </c>
       <c r="F103" s="105">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="105">
         <f t="shared" si="35"/>
@@ -33831,23 +33831,23 @@
       </c>
       <c r="D104" s="105">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="105">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33862,23 +33862,23 @@
       </c>
       <c r="D105" s="105">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="105">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -33895,7 +33895,7 @@
       </c>
       <c r="F106" s="105">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="105">
         <f t="shared" si="38"/>
@@ -33926,7 +33926,7 @@
       </c>
       <c r="F107" s="105">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="105">
         <f t="shared" si="39"/>
@@ -33951,7 +33951,7 @@
       </c>
       <c r="F108" s="105">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="105">
         <f t="shared" si="40"/>
@@ -34015,15 +34015,15 @@
       </c>
       <c r="F112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -34040,15 +34040,15 @@
       </c>
       <c r="F113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34448,7 +34448,7 @@
       </c>
       <c r="F128" s="105">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="105">
         <f t="shared" si="46"/>
@@ -34501,7 +34501,7 @@
       </c>
       <c r="F130" s="105">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="105">
         <f t="shared" si="48"/>
@@ -34524,7 +34524,7 @@
       </c>
       <c r="D131" s="105">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="105">
         <f t="shared" si="49"/>
@@ -34532,7 +34532,7 @@
       </c>
       <c r="F131" s="105">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="105">
         <f t="shared" si="49"/>
@@ -34557,7 +34557,7 @@
       </c>
       <c r="F132" s="105">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="105">
         <f t="shared" si="50"/>
@@ -34580,7 +34580,7 @@
       </c>
       <c r="D133" s="105">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="105">
         <f t="shared" si="51"/>
@@ -34588,7 +34588,7 @@
       </c>
       <c r="F133" s="105">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="105">
         <f t="shared" si="51"/>
@@ -34613,7 +34613,7 @@
       </c>
       <c r="F134" s="105">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="105">
         <f t="shared" si="52"/>
@@ -34636,7 +34636,7 @@
       </c>
       <c r="D135" s="105">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="105">
         <f t="shared" si="53"/>
@@ -34644,7 +34644,7 @@
       </c>
       <c r="F135" s="105">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="105">
         <f t="shared" si="53"/>
@@ -34669,7 +34669,7 @@
       </c>
       <c r="F136" s="105">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="105">
         <f t="shared" si="54"/>
@@ -34700,7 +34700,7 @@
       </c>
       <c r="F137" s="105">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="105">
         <f t="shared" si="55"/>
@@ -34725,7 +34725,7 @@
       </c>
       <c r="F138" s="105">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="105">
         <f t="shared" si="56"/>
@@ -34750,7 +34750,7 @@
       </c>
       <c r="F139" s="105">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="105">
         <f t="shared" si="57"/>
@@ -34781,7 +34781,7 @@
       </c>
       <c r="F140" s="105">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="105">
         <f t="shared" si="58"/>
@@ -34806,7 +34806,7 @@
       </c>
       <c r="F141" s="105">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="105">
         <f t="shared" si="59"/>
@@ -34831,7 +34831,7 @@
       </c>
       <c r="F142" s="105">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="105">
         <f t="shared" si="60"/>
@@ -34862,7 +34862,7 @@
       </c>
       <c r="F143" s="105">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="105">
         <f t="shared" si="61"/>
@@ -34887,7 +34887,7 @@
       </c>
       <c r="F144" s="105">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="105">
         <f t="shared" si="62"/>
@@ -34912,7 +34912,7 @@
       </c>
       <c r="F145" s="105">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="105">
         <f t="shared" si="63"/>
@@ -34943,7 +34943,7 @@
       </c>
       <c r="F146" s="105">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="105">
         <f t="shared" si="64"/>
@@ -34968,7 +34968,7 @@
       </c>
       <c r="F147" s="105">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="105">
         <f t="shared" si="65"/>
@@ -34993,7 +34993,7 @@
       </c>
       <c r="F148" s="105">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="105">
         <f t="shared" si="66"/>
@@ -35024,7 +35024,7 @@
       </c>
       <c r="F149" s="105">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="105">
         <f t="shared" si="67"/>
@@ -35049,7 +35049,7 @@
       </c>
       <c r="F150" s="105">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="105">
         <f t="shared" si="68"/>
@@ -35074,7 +35074,7 @@
       </c>
       <c r="F151" s="105">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="105">
         <f t="shared" si="69"/>
@@ -35105,7 +35105,7 @@
       </c>
       <c r="F152" s="105">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="105">
         <f t="shared" si="70"/>
@@ -35130,7 +35130,7 @@
       </c>
       <c r="F153" s="105">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="105">
         <f t="shared" si="71"/>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="F154" s="105">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="105">
         <f t="shared" si="72"/>
@@ -35183,7 +35183,7 @@
       </c>
       <c r="F155" s="105">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="105">
         <f t="shared" si="73"/>
@@ -35208,7 +35208,7 @@
       </c>
       <c r="F156" s="105">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="105">
         <f t="shared" si="74"/>
@@ -35233,7 +35233,7 @@
       </c>
       <c r="F157" s="105">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="105">
         <f t="shared" si="75"/>
@@ -35264,7 +35264,7 @@
       </c>
       <c r="F158" s="105">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="105">
         <f t="shared" si="76"/>
@@ -35281,23 +35281,23 @@
       </c>
       <c r="D159" s="105">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="105">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35312,23 +35312,23 @@
       </c>
       <c r="D160" s="105">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="105">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -35345,7 +35345,7 @@
       </c>
       <c r="F161" s="105">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="105">
         <f t="shared" si="79"/>
@@ -35376,7 +35376,7 @@
       </c>
       <c r="F162" s="105">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="105">
         <f t="shared" si="80"/>
@@ -35401,7 +35401,7 @@
       </c>
       <c r="F163" s="105">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="105">
         <f t="shared" si="81"/>

--- a/inputs/es/demo_national_input.xlsx
+++ b/inputs/es/demo_national_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8F84D72-4E03-4B10-A8DB-F6FBD66FB0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B762ADFD-65E0-4FF2-BBAC-CAAD89DE4AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="6840" windowWidth="31920" windowHeight="14040" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,7 +665,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="341">
   <si>
     <t>Meningitis</t>
   </si>
@@ -865,9 +865,6 @@
     <t>Estimación de mujeres embarazadas</t>
   </si>
   <si>
-    <t>Mujeres en edad reproductiva no embarazadas</t>
-  </si>
-  <si>
     <t>Número de nacimientos</t>
   </si>
   <si>
@@ -886,7 +883,10 @@
     <t>WRA: 40-49 años (mujeres en edad reproductiva)</t>
   </si>
   <si>
-    <t>Año</t>
+    <t>mujeres en edad reproductiva no embarazadas</t>
+  </si>
+  <si>
+    <t>año</t>
   </si>
   <si>
     <t>1-5 meses</t>
@@ -1300,6 +1300,9 @@
     <t>Población general</t>
   </si>
   <si>
+    <t>Mujeres en edad reproductiva no embarazadas</t>
+  </si>
+  <si>
     <t>Curva con costo marginal decreciente</t>
   </si>
   <si>
@@ -1627,7 +1630,10 @@
     <t>Suplementos nutricionales a base de lípidos en pequeñas cantidades - superior</t>
   </si>
   <si>
-    <t>Fracción afectada</t>
+    <t>fracción afectada</t>
+  </si>
+  <si>
+    <t>efectividad</t>
   </si>
   <si>
     <t>Razón de momios de ser anémico cuando está cubierto por la intervención</t>
@@ -1672,6 +1678,9 @@
     <t>Límite superior</t>
   </si>
   <si>
+    <t>Fracción afectada</t>
+  </si>
+  <si>
     <t>Efectividad en incidencia</t>
   </si>
   <si>
@@ -1692,7 +1701,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1862,12 +1871,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2730,7 +2733,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3001,9 +3004,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="725" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5867,7 +5867,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ssdG+K71hqQedkWXIhe5+/GfimoHvAayFKKG0ApEMoBCEF0tFxuX+hoT9dwnnNNZodx8ToP1EsBxl4zZDBjckg==" saltValue="tzjfw5soWZ03lQ3ByNqrgg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vP/qU9SLAqgR3KfvXyx1S+ksrxE5ErlYdl8ZMwokI3D/xGbQnu3/4kRyUV0XY54goa+imwGZFF9tthJTP4K7xg==" saltValue="lu9VEpp9x0NCpqpWqCq3xQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6796,7 +6796,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NMvmQFDK2G1CDTT1DM70j5Lf4pihmhAnf+8sWn1GN55mhMaM6RcEyS7CxTPq51fwiJIUMndDbIcQLZ36NNWWXg==" saltValue="/2UkKZTsDheN1MqxBL2ezw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XPRir2bhVW1gxEH5z+xXl2rDwHkunWUlx/PCw08zce8iOXdq7Yi8mN6W50fe+b+wVhfAwjtzfew285h8WgnDjA==" saltValue="h2Wq2EGKmSdE4CsPSltRbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6960,7 +6960,7 @@
       <c r="C20" s="67"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="01nu255UV9qBswLhneuhqCQbLNAZGrQPvwJOx8AF6erV2AjqiTA8zUTLFfjfBLheTDFo77HFtLV9oko/F6qotQ==" saltValue="zHTQiVHmiHw21ulP9KmQfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dZ3xpEZVrrIaPBfnqLakl6FX+oSy/HO0YzHjUkyTOuP7y0IAsCq+PTnAGTWuE6luz5zc9qhAfk4PXubm6QnPHA==" saltValue="stSj8cj6UkKSs92si4uTAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7060,7 +7060,7 @@
       <c r="A19" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jS9OLwKOTk+/YZi7tpW8fOkkyhUyDaOUGSPBTPfWt/qkrgVKUyhtuS5zosxHNFBQVazPwKCLu09sdawXX3EA8A==" saltValue="A3PTsnvkUoH+PoOwJP++6w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gYWKvfMd3qLgADeg/lwQFgpbAOBNne6vz3LZI4xjaa9fSN73MHmtid8/ii8I1NxJG9w/BK4HclnfKuNqKD0Kvw==" saltValue="x//PeRxYwF7mJN99eWLWag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7175,7 +7175,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WG+ivNfFZGoj42xymOOZCGQ14JLb5XIme4RWO4sEmyiXya2JZF6o53uGc4A54zVpi+6N/0VH8Qat05dXgw/u5w==" saltValue="eWcPO1kiPdnaeHPj40a0Ig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Mx73HFWf7cpfunJpyyTXxjeaHemqd/1mEJRGlNZu9wnEg0qBt7Ng7FDkfOD3NyTIBr+yBRE9XTk8scKgX1E5pQ==" saltValue="zPeoMnBjODnB0EKicytwpg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7239,16 +7239,16 @@
         <v>116</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8195,7 +8195,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="B24" s="45" t="s">
         <v>170</v>
@@ -8936,7 +8936,7 @@
       <c r="B40" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BzaSdr23/fweJSIKVZjF04DqootK1TMj0GDKqh3eGCjyyK6rTTLiQTkM9g2wTTBy6pzXL7AZid3nHs8RdKzpRg==" saltValue="5tRjPZNon3LdHC54VKuQpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NvAJMLu3I2l3OUe749jQcK+LhyoHLzpDENQdvzyoe4ZSCV9odQ/4KcKvu1JXoJArmzyV6vmt7oTxKM6OlLnifA==" saltValue="HTn4EXQbZgq6Q+MUCXd+mw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8962,21 +8962,21 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z+haN+yWUK1Ykyap5AHe6bm4Xl8094dwvGRSvG4267hdpJCBlamI9jyBolVaruanMQyBnuCQtvvzLx+YLeuESg==" saltValue="WVjlg7xYMsLJIAVqMVnJwA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UlwH5UhzS2GD9FeJ4c7T5V8kUF601RuZjKC4yI3rRUB1lRooRBsvrqGgKmudiWZd2ktssPBmYP3ypBkH6uJfJQ==" saltValue="l7tTkPwehQwsInjjp/+TmA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9003,24 +9003,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B2" s="28">
         <v>0.9</v>
@@ -9038,7 +9038,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B3" s="28">
         <v>1</v>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B4" s="28">
         <v>1</v>
@@ -9074,7 +9074,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B5" s="28">
         <v>1</v>
@@ -9092,7 +9092,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B6" s="28">
         <v>1</v>
@@ -9110,7 +9110,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B7" s="28">
         <v>0.93</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B8" s="28">
         <v>0.5</v>
@@ -9146,7 +9146,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B9" s="28">
         <v>0.5</v>
@@ -9164,7 +9164,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B10" s="28">
         <v>0.98</v>
@@ -9181,7 +9181,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rURvALAabaQyQlyAwxs8AgJMoSrpMRrNQkabXeHWz4Pzpmr4idkRgIGy1Ms5YMDoNZrgQ31N+tonog9znjAEHA==" saltValue="QeeQInqBHehGOwwWHD5xJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GI/O5spqN6a6MK6hac7T0GQW9xv9oEQo32QHun5WCMZ6upIMMxtyAP/5LEWh1k5FwYhVgaq4V0Gf/XvZz1BW7g==" saltValue="egy5VfHCL5GfMynrAhzxCA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9247,16 +9247,16 @@
         <v>116</v>
       </c>
       <c r="L1" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="N1" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="O1" s="43" t="s">
         <v>71</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10312,7 +10312,7 @@
     </row>
     <row r="27" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>170</v>
@@ -10995,7 +10995,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BN2up6itSIJtLv9RpzKYzsiGL7qWe/wItpO7HQoegvbC31XrxZhG3mbaQ8XirWDDOTUHPDK1dmS+FF0kFfE86A==" saltValue="rvLdo0rH0c5IvYAU8ZUIUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yknjzFczv7acQS8Oxa8WyfB0PqcXaVEFSoSW7lmpRUd16hQM9rS1JyDnnuOqz+O5pXmoipYpY4JYRrl7yaZcwg==" saltValue="ElC8YS0KmNAmRkhaUX6F1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11031,16 +11031,16 @@
         <v>163</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>105</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>123</v>
@@ -11052,13 +11052,13 @@
         <v>37</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -11762,7 +11762,7 @@
       <c r="K39" s="101"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+DZCmu4/Q/omfRNdrTotC2RTCtms/ecyztuEw61worreDPgVAqzrBxzMYAnAnA7mz3YGDwaaXXxbrXnH//VQYQ==" saltValue="Zd0u//278d3DoJTV75TToQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B5Z6r4q3/+k3uGdu81hHegpRsyxPmYtzJJToJa6hqYa8YiW2/TMo/bNsPUDwoUxEFgXY6Rvq/wDqCqsHHLMGGw==" saltValue="JHSmP2q9TIYEL/V6V15Ojg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11795,19 +11795,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>105</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>123</v>
@@ -11819,13 +11819,13 @@
         <v>37</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -12059,7 +12059,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="101"/>
       <c r="C11" s="101" t="s">
@@ -12080,7 +12080,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="101"/>
       <c r="C12" s="101" t="s">
@@ -12099,7 +12099,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="101"/>
       <c r="C13" s="101" t="s">
@@ -12118,7 +12118,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="101"/>
       <c r="C14" s="101" t="s">
@@ -12136,7 +12136,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HSzwl41uuKGDOMWBUu6/33YbaeQTO02w73Ttzy60KjmGrKjIf3Q94gW88CAofn1ERpdEKkp+MDxE6bzqEIq+dg==" saltValue="l/MAt3lw1109dT8VwZepwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="67NHtW6Wkoe/abJ6ypy8LchuFDItFMrsdkjWmJgjLjRcLcV59UubOOn4lusXsRgtDfr8BgF1TSVKpEwneorNwg==" saltValue="/cupjYFplMGJGKOav2QMYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12164,28 +12164,28 @@
         <v>73</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13225,7 +13225,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="flBRnAIapIr//5WgQe4lfIE4KedS8T5KWLwEbADqcdInCC+B+Aft/8vsan7z5wIHt0ix7PtAnqzDel99zQxH6Q==" saltValue="lWmyqM7TSLMy7zfRB2Je7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SbERxv/aFQb8SJwArwp454Yv4dsyw+O6d1c2D5Q3AdvRwc82o1JtaJRSvmGGqKgC5qCcZaJGhTB+tVSBE7cwwA==" saltValue="DGpm8fnXbLWStJ4KiphWsw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13257,7 +13257,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>156</v>
@@ -13283,9 +13283,9 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -13308,7 +13308,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="118"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="27" t="s">
         <v>149</v>
       </c>
@@ -13330,7 +13330,7 @@
       <c r="J3" s="75"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="118"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="27" t="s">
         <v>155</v>
       </c>
@@ -13352,7 +13352,7 @@
       <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -13376,7 +13376,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="118"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="27" t="s">
         <v>149</v>
       </c>
@@ -13397,7 +13397,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="118"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="27" t="s">
         <v>155</v>
       </c>
@@ -13418,7 +13418,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -13441,7 +13441,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="118"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="27" t="s">
         <v>149</v>
       </c>
@@ -13462,7 +13462,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="118"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="27" t="s">
         <v>155</v>
       </c>
@@ -13483,7 +13483,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -13506,7 +13506,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="118"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="27" t="s">
         <v>149</v>
       </c>
@@ -13527,7 +13527,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="118"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="27" t="s">
         <v>155</v>
       </c>
@@ -13548,7 +13548,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -13571,7 +13571,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="118"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="27" t="s">
         <v>149</v>
       </c>
@@ -13592,7 +13592,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="118"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="27" t="s">
         <v>155</v>
       </c>
@@ -13644,9 +13644,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="118" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -13669,7 +13669,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="118"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="27" t="s">
         <v>149</v>
       </c>
@@ -13690,7 +13690,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="118"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="27" t="s">
         <v>155</v>
       </c>
@@ -13711,7 +13711,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -13734,7 +13734,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="118"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="27" t="s">
         <v>149</v>
       </c>
@@ -13755,7 +13755,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="118"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="27" t="s">
         <v>155</v>
       </c>
@@ -13776,7 +13776,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -13799,7 +13799,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="118"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="27" t="s">
         <v>149</v>
       </c>
@@ -13820,7 +13820,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="118"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="27" t="s">
         <v>155</v>
       </c>
@@ -13841,7 +13841,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -13864,7 +13864,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="118"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="27" t="s">
         <v>149</v>
       </c>
@@ -13885,7 +13885,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="118"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="27" t="s">
         <v>155</v>
       </c>
@@ -13906,7 +13906,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="27" t="s">
@@ -13929,7 +13929,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="118"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="27" t="s">
         <v>149</v>
       </c>
@@ -13950,7 +13950,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="118"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="27" t="s">
         <v>155</v>
       </c>
@@ -14002,9 +14002,9 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="B36" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="27" t="s">
@@ -14027,7 +14027,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="118"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="27" t="s">
         <v>149</v>
       </c>
@@ -14048,7 +14048,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="118"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="27" t="s">
         <v>155</v>
       </c>
@@ -14069,7 +14069,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -14092,7 +14092,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="118"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="27" t="s">
         <v>149</v>
       </c>
@@ -14113,7 +14113,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="118"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="27" t="s">
         <v>155</v>
       </c>
@@ -14134,7 +14134,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="118" t="s">
+      <c r="B42" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="27" t="s">
@@ -14157,7 +14157,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="118"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="27" t="s">
         <v>149</v>
       </c>
@@ -14178,7 +14178,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="118"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="27" t="s">
         <v>155</v>
       </c>
@@ -14199,7 +14199,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="118" t="s">
+      <c r="B45" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="27" t="s">
@@ -14222,7 +14222,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="118"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="27" t="s">
         <v>149</v>
       </c>
@@ -14243,7 +14243,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="118"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="27" t="s">
         <v>155</v>
       </c>
@@ -14264,7 +14264,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="118" t="s">
+      <c r="B48" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="27" t="s">
@@ -14287,7 +14287,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="118"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="27" t="s">
         <v>149</v>
       </c>
@@ -14308,7 +14308,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="118"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="27" t="s">
         <v>155</v>
       </c>
@@ -14353,7 +14353,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B53" s="106"/>
       <c r="C53" s="106"/>
@@ -14365,7 +14365,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>156</v>
@@ -14391,9 +14391,9 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C55" s="27" t="s">
@@ -14421,7 +14421,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="118"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="27" t="s">
         <v>149</v>
       </c>
@@ -14447,7 +14447,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="118"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="27" t="s">
         <v>155</v>
       </c>
@@ -14473,7 +14473,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="118" t="s">
+      <c r="B58" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -14501,7 +14501,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="118"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="27" t="s">
         <v>149</v>
       </c>
@@ -14527,7 +14527,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="118"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="27" t="s">
         <v>155</v>
       </c>
@@ -14553,7 +14553,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="118" t="s">
+      <c r="B61" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="27" t="s">
@@ -14581,7 +14581,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="118"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="27" t="s">
         <v>149</v>
       </c>
@@ -14607,7 +14607,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="118"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="27" t="s">
         <v>155</v>
       </c>
@@ -14633,7 +14633,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="118" t="s">
+      <c r="B64" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="27" t="s">
@@ -14661,7 +14661,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="118"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="27" t="s">
         <v>149</v>
       </c>
@@ -14687,7 +14687,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="118"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="27" t="s">
         <v>155</v>
       </c>
@@ -14713,7 +14713,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="118" t="s">
+      <c r="B67" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C67" s="27" t="s">
@@ -14741,7 +14741,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="118"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="27" t="s">
         <v>149</v>
       </c>
@@ -14767,7 +14767,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="118"/>
+      <c r="B69" s="117"/>
       <c r="C69" s="27" t="s">
         <v>155</v>
       </c>
@@ -14829,9 +14829,9 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="B72" s="118" t="s">
+        <v>243</v>
+      </c>
+      <c r="B72" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C72" s="27" t="s">
@@ -14859,7 +14859,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="118"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="27" t="s">
         <v>149</v>
       </c>
@@ -14885,7 +14885,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="118"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="27" t="s">
         <v>155</v>
       </c>
@@ -14911,7 +14911,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="118" t="s">
+      <c r="B75" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C75" s="27" t="s">
@@ -14939,7 +14939,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="118"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="27" t="s">
         <v>149</v>
       </c>
@@ -14965,7 +14965,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="118"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="27" t="s">
         <v>155</v>
       </c>
@@ -14991,7 +14991,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="118" t="s">
+      <c r="B78" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C78" s="27" t="s">
@@ -15019,7 +15019,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="118"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="27" t="s">
         <v>149</v>
       </c>
@@ -15045,7 +15045,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="118"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="27" t="s">
         <v>155</v>
       </c>
@@ -15071,7 +15071,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="118" t="s">
+      <c r="B81" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C81" s="27" t="s">
@@ -15099,7 +15099,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="118"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="27" t="s">
         <v>149</v>
       </c>
@@ -15125,7 +15125,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="118"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="27" t="s">
         <v>155</v>
       </c>
@@ -15151,7 +15151,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="118" t="s">
+      <c r="B84" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C84" s="27" t="s">
@@ -15179,7 +15179,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="118"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="27" t="s">
         <v>149</v>
       </c>
@@ -15205,7 +15205,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="118"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="27" t="s">
         <v>155</v>
       </c>
@@ -15267,9 +15267,9 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="B89" s="118" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C89" s="27" t="s">
@@ -15297,7 +15297,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="118"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="27" t="s">
         <v>149</v>
       </c>
@@ -15323,7 +15323,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="118"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="27" t="s">
         <v>155</v>
       </c>
@@ -15349,7 +15349,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="118" t="s">
+      <c r="B92" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C92" s="27" t="s">
@@ -15377,7 +15377,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="118"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="27" t="s">
         <v>149</v>
       </c>
@@ -15403,7 +15403,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="118"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="27" t="s">
         <v>155</v>
       </c>
@@ -15429,7 +15429,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="118" t="s">
+      <c r="B95" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C95" s="27" t="s">
@@ -15457,7 +15457,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="118"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="27" t="s">
         <v>149</v>
       </c>
@@ -15483,7 +15483,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B97" s="118"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="27" t="s">
         <v>155</v>
       </c>
@@ -15509,7 +15509,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B98" s="118" t="s">
+      <c r="B98" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C98" s="27" t="s">
@@ -15537,7 +15537,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="118"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="27" t="s">
         <v>149</v>
       </c>
@@ -15563,7 +15563,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="118"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="27" t="s">
         <v>155</v>
       </c>
@@ -15589,7 +15589,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="118" t="s">
+      <c r="B101" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C101" s="27" t="s">
@@ -15617,7 +15617,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="118"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="27" t="s">
         <v>149</v>
       </c>
@@ -15643,7 +15643,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="118"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="27" t="s">
         <v>155</v>
       </c>
@@ -15698,7 +15698,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B106" s="106"/>
       <c r="C106" s="106"/>
@@ -15710,7 +15710,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B107" s="29" t="s">
         <v>156</v>
@@ -15736,9 +15736,9 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="B108" s="118" t="s">
+        <v>238</v>
+      </c>
+      <c r="B108" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C108" s="27" t="s">
@@ -15766,7 +15766,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="118"/>
+      <c r="B109" s="117"/>
       <c r="C109" s="27" t="s">
         <v>149</v>
       </c>
@@ -15792,7 +15792,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B110" s="118"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="27" t="s">
         <v>155</v>
       </c>
@@ -15818,7 +15818,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B111" s="118" t="s">
+      <c r="B111" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C111" s="27" t="s">
@@ -15846,7 +15846,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="118"/>
+      <c r="B112" s="117"/>
       <c r="C112" s="27" t="s">
         <v>149</v>
       </c>
@@ -15872,7 +15872,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="118"/>
+      <c r="B113" s="117"/>
       <c r="C113" s="27" t="s">
         <v>155</v>
       </c>
@@ -15898,7 +15898,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="118" t="s">
+      <c r="B114" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C114" s="27" t="s">
@@ -15926,7 +15926,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="118"/>
+      <c r="B115" s="117"/>
       <c r="C115" s="27" t="s">
         <v>149</v>
       </c>
@@ -15952,7 +15952,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="118"/>
+      <c r="B116" s="117"/>
       <c r="C116" s="27" t="s">
         <v>155</v>
       </c>
@@ -15978,7 +15978,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="118" t="s">
+      <c r="B117" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C117" s="27" t="s">
@@ -16006,7 +16006,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B118" s="118"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="27" t="s">
         <v>149</v>
       </c>
@@ -16032,7 +16032,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="118"/>
+      <c r="B119" s="117"/>
       <c r="C119" s="27" t="s">
         <v>155</v>
       </c>
@@ -16058,7 +16058,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="118" t="s">
+      <c r="B120" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C120" s="27" t="s">
@@ -16086,7 +16086,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="118"/>
+      <c r="B121" s="117"/>
       <c r="C121" s="27" t="s">
         <v>149</v>
       </c>
@@ -16112,7 +16112,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="118"/>
+      <c r="B122" s="117"/>
       <c r="C122" s="27" t="s">
         <v>155</v>
       </c>
@@ -16174,9 +16174,9 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="B125" s="118" t="s">
+        <v>244</v>
+      </c>
+      <c r="B125" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="27" t="s">
@@ -16204,7 +16204,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="118"/>
+      <c r="B126" s="117"/>
       <c r="C126" s="27" t="s">
         <v>149</v>
       </c>
@@ -16230,7 +16230,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="118"/>
+      <c r="B127" s="117"/>
       <c r="C127" s="27" t="s">
         <v>155</v>
       </c>
@@ -16256,7 +16256,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="118" t="s">
+      <c r="B128" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C128" s="27" t="s">
@@ -16284,7 +16284,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B129" s="118"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="27" t="s">
         <v>149</v>
       </c>
@@ -16310,7 +16310,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B130" s="118"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="27" t="s">
         <v>155</v>
       </c>
@@ -16336,7 +16336,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="118" t="s">
+      <c r="B131" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C131" s="27" t="s">
@@ -16364,7 +16364,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="118"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="27" t="s">
         <v>149</v>
       </c>
@@ -16390,7 +16390,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="118"/>
+      <c r="B133" s="117"/>
       <c r="C133" s="27" t="s">
         <v>155</v>
       </c>
@@ -16416,7 +16416,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="118" t="s">
+      <c r="B134" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C134" s="27" t="s">
@@ -16444,7 +16444,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="118"/>
+      <c r="B135" s="117"/>
       <c r="C135" s="27" t="s">
         <v>149</v>
       </c>
@@ -16470,7 +16470,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B136" s="118"/>
+      <c r="B136" s="117"/>
       <c r="C136" s="27" t="s">
         <v>155</v>
       </c>
@@ -16496,7 +16496,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="118" t="s">
+      <c r="B137" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C137" s="27" t="s">
@@ -16524,7 +16524,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="118"/>
+      <c r="B138" s="117"/>
       <c r="C138" s="27" t="s">
         <v>149</v>
       </c>
@@ -16550,7 +16550,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="118"/>
+      <c r="B139" s="117"/>
       <c r="C139" s="27" t="s">
         <v>155</v>
       </c>
@@ -16612,9 +16612,9 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="B142" s="118" t="s">
+        <v>241</v>
+      </c>
+      <c r="B142" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C142" s="27" t="s">
@@ -16642,7 +16642,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B143" s="118"/>
+      <c r="B143" s="117"/>
       <c r="C143" s="27" t="s">
         <v>149</v>
       </c>
@@ -16668,7 +16668,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B144" s="118"/>
+      <c r="B144" s="117"/>
       <c r="C144" s="27" t="s">
         <v>155</v>
       </c>
@@ -16694,7 +16694,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B145" s="118" t="s">
+      <c r="B145" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C145" s="27" t="s">
@@ -16722,7 +16722,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B146" s="118"/>
+      <c r="B146" s="117"/>
       <c r="C146" s="27" t="s">
         <v>149</v>
       </c>
@@ -16748,7 +16748,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B147" s="118"/>
+      <c r="B147" s="117"/>
       <c r="C147" s="27" t="s">
         <v>155</v>
       </c>
@@ -16774,7 +16774,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B148" s="118" t="s">
+      <c r="B148" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -16802,7 +16802,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B149" s="118"/>
+      <c r="B149" s="117"/>
       <c r="C149" s="27" t="s">
         <v>149</v>
       </c>
@@ -16828,7 +16828,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B150" s="118"/>
+      <c r="B150" s="117"/>
       <c r="C150" s="27" t="s">
         <v>155</v>
       </c>
@@ -16854,7 +16854,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B151" s="118" t="s">
+      <c r="B151" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C151" s="27" t="s">
@@ -16882,7 +16882,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B152" s="118"/>
+      <c r="B152" s="117"/>
       <c r="C152" s="27" t="s">
         <v>149</v>
       </c>
@@ -16908,7 +16908,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B153" s="118"/>
+      <c r="B153" s="117"/>
       <c r="C153" s="27" t="s">
         <v>155</v>
       </c>
@@ -16934,7 +16934,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B154" s="118" t="s">
+      <c r="B154" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C154" s="27" t="s">
@@ -16962,7 +16962,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B155" s="118"/>
+      <c r="B155" s="117"/>
       <c r="C155" s="27" t="s">
         <v>149</v>
       </c>
@@ -16988,7 +16988,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B156" s="118"/>
+      <c r="B156" s="117"/>
       <c r="C156" s="27" t="s">
         <v>155</v>
       </c>
@@ -17042,8 +17042,44 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vk4O/pi0FEDXr8i38lSMDR2I/ND2vaIuCFnPgHxNW1sloJgR1nEdBR/k/uPJ9t4ffIyF1ZBK2CIAzHLl1VFpEA==" saltValue="ZQdz4xwcky4mx/yXk4ivOg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nDPlgO/Scpfjjwn7tUTQd/qykd+1I7oTRD3FxXPrmu9qNdJo3SSHHgjx1IE3JpoyTgOQl+3aNs/072d67xvuRA==" saltValue="QadJvt7a7IRAvCDwAxXcMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -17053,42 +17089,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -17121,7 +17121,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="78" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17141,7 +17141,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B3" s="83"/>
       <c r="C3" s="84"/>
@@ -17225,7 +17225,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C9" s="103">
         <v>1</v>
@@ -17248,7 +17248,7 @@
     </row>
     <row r="11" spans="1:6" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C11" s="87"/>
       <c r="D11" s="88"/>
@@ -17257,7 +17257,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C12" s="86"/>
       <c r="D12" s="75"/>
@@ -17266,7 +17266,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="45" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C13" s="103">
         <v>1</v>
@@ -17325,7 +17325,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B17" s="83"/>
       <c r="C17" s="90"/>
@@ -17474,7 +17474,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="108"/>
@@ -17484,7 +17484,7 @@
     </row>
     <row r="28" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="78" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17504,7 +17504,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B30" s="83"/>
       <c r="C30" s="84"/>
@@ -17604,7 +17604,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C36" s="105">
         <f>C9*0.7</f>
@@ -17625,7 +17625,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B38" s="79"/>
       <c r="C38" s="87"/>
@@ -17635,7 +17635,7 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C39" s="86"/>
       <c r="D39" s="75"/>
@@ -17644,7 +17644,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="45" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C40" s="105">
         <f>C13*0.7</f>
@@ -17665,7 +17665,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C41" s="105">
         <f t="shared" ref="C41:F41" si="6">C14*0.7</f>
@@ -17686,7 +17686,7 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C42" s="105">
         <f t="shared" ref="C42:F42" si="7">C15*0.7</f>
@@ -17715,7 +17715,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B44" s="83"/>
       <c r="C44" s="90"/>
@@ -17893,7 +17893,7 @@
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B54" s="107"/>
       <c r="C54" s="108"/>
@@ -17903,7 +17903,7 @@
     </row>
     <row r="55" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="78" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17923,7 +17923,7 @@
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B57" s="83"/>
       <c r="C57" s="84"/>
@@ -18023,7 +18023,7 @@
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C63" s="105">
         <f>C9*1.3</f>
@@ -18044,7 +18044,7 @@
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B65" s="79"/>
       <c r="C65" s="87"/>
@@ -18054,7 +18054,7 @@
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C66" s="86"/>
       <c r="D66" s="75"/>
@@ -18063,7 +18063,7 @@
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="45" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C67" s="105">
         <f>C13*1.3</f>
@@ -18084,7 +18084,7 @@
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C68" s="105">
         <f t="shared" ref="C68:F68" si="22">C14*1.3</f>
@@ -18105,7 +18105,7 @@
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="45" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C69" s="105">
         <f t="shared" ref="C69:F69" si="23">C15*1.3</f>
@@ -18134,7 +18134,7 @@
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B71" s="83"/>
       <c r="C71" s="90"/>
@@ -18311,7 +18311,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X4f1DQUtWUrmzlmdRY0ouFPKVxehFdSSj8De0sciBnPY9svlNLkRnVc2YMmZkhJW65vy+Ap7kFV7QXBVhLvM0Q==" saltValue="NUvrgoTbK98qX3wL/DCEAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EghKakJ8IhxvxWti+9koQXWie2mi0iatkHJ3GxnQ1APNXRLGFTJWz5HydyHvxH2iQQdxlEiBGOkh/szSAA/b/g==" saltValue="4nw3mLIEyCl5ol33rZy73g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18344,18 +18344,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D2" s="82" t="s">
         <v>78</v>
@@ -18415,7 +18415,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D4" s="104">
         <v>1</v>
@@ -18443,7 +18443,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D5" s="104">
         <v>1</v>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D6" s="104">
         <v>1</v>
@@ -18530,7 +18530,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D8" s="104">
         <v>1</v>
@@ -18558,7 +18558,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D9" s="104">
         <v>1</v>
@@ -18586,7 +18586,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D10" s="104">
         <v>1</v>
@@ -18645,7 +18645,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D12" s="104">
         <v>1</v>
@@ -18673,7 +18673,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D13" s="104">
         <v>1</v>
@@ -18701,7 +18701,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D14" s="104">
         <v>1</v>
@@ -18760,7 +18760,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D16" s="104">
         <v>1</v>
@@ -18788,7 +18788,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D17" s="104">
         <v>1</v>
@@ -18816,7 +18816,7 @@
     </row>
     <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D18" s="104">
         <v>1</v>
@@ -18875,7 +18875,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D20" s="104">
         <v>1</v>
@@ -18903,7 +18903,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D21" s="104">
         <v>1</v>
@@ -18931,7 +18931,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22" s="104">
         <v>1</v>
@@ -18990,7 +18990,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D24" s="104">
         <v>1</v>
@@ -19018,7 +19018,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D25" s="104">
         <v>1</v>
@@ -19046,7 +19046,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D26" s="104">
         <v>1</v>
@@ -19074,18 +19074,18 @@
     </row>
     <row r="28" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>281</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>280</v>
       </c>
       <c r="D29" s="82" t="s">
         <v>78</v>
@@ -19145,7 +19145,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D31" s="104">
         <v>1</v>
@@ -19260,7 +19260,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D35" s="104">
         <v>1</v>
@@ -19375,7 +19375,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D39" s="104">
         <v>1</v>
@@ -19490,7 +19490,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D43" s="104">
         <v>1</v>
@@ -19605,7 +19605,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D47" s="104">
         <v>1</v>
@@ -19720,7 +19720,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D51" s="104">
         <v>1</v>
@@ -19808,7 +19808,7 @@
     </row>
     <row r="55" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
@@ -19816,10 +19816,10 @@
         <v>105</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C56" s="80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D56" s="82" t="s">
         <v>113</v>
@@ -19845,7 +19845,7 @@
         <v>81</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D57" s="103">
         <v>1</v>
@@ -19867,7 +19867,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D58" s="104">
         <v>10.675000000000001</v>
@@ -19892,7 +19892,7 @@
         <v>89</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D59" s="103">
         <v>1</v>
@@ -19914,7 +19914,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D60" s="104">
         <v>10.675000000000001</v>
@@ -19939,7 +19939,7 @@
         <v>103</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D61" s="103">
         <v>1</v>
@@ -19961,7 +19961,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D62" s="104">
         <v>10.675000000000001</v>
@@ -19987,7 +19987,7 @@
     </row>
     <row r="64" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
@@ -19995,10 +19995,10 @@
         <v>123</v>
       </c>
       <c r="B65" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" s="80" t="s">
         <v>269</v>
-      </c>
-      <c r="C65" s="80" t="s">
-        <v>268</v>
       </c>
       <c r="D65" s="82" t="s">
         <v>78</v>
@@ -21062,7 +21062,7 @@
     </row>
     <row r="103" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
@@ -21073,7 +21073,7 @@
         <v>125</v>
       </c>
       <c r="C104" s="80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D104" s="82" t="s">
         <v>78</v>
@@ -21214,13 +21214,13 @@
     </row>
     <row r="110" spans="1:16" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H110" s="106"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B111" s="79"/>
       <c r="C111" s="79"/>
@@ -21232,13 +21232,13 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B112" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D112" s="82" t="s">
         <v>78</v>
@@ -21287,7 +21287,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C114" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D114" s="105">
         <f t="shared" ref="D114:H114" si="1">D4*0.8</f>
@@ -21312,7 +21312,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C115" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D115" s="105">
         <f t="shared" ref="D115:H115" si="2">D5*0.8</f>
@@ -21337,7 +21337,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C116" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D116" s="105">
         <f t="shared" ref="D116:H116" si="3">D6*0.8</f>
@@ -21390,7 +21390,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C118" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D118" s="105">
         <f t="shared" ref="D118:H118" si="5">D8*0.8</f>
@@ -21415,7 +21415,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C119" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D119" s="105">
         <f t="shared" ref="D119:H119" si="6">D9*0.8</f>
@@ -21440,7 +21440,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C120" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D120" s="105">
         <f t="shared" ref="D120:H120" si="7">D10*0.8</f>
@@ -21493,7 +21493,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C122" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D122" s="105">
         <f t="shared" ref="D122:H122" si="9">D12*0.8</f>
@@ -21518,7 +21518,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C123" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D123" s="105">
         <f t="shared" ref="D123:H123" si="10">D13*0.8</f>
@@ -21543,7 +21543,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C124" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D124" s="105">
         <f t="shared" ref="D124:H124" si="11">D14*0.8</f>
@@ -21596,7 +21596,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C126" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D126" s="105">
         <f t="shared" ref="D126:H126" si="13">D16*0.8</f>
@@ -21621,7 +21621,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C127" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D127" s="105">
         <f t="shared" ref="D127:H127" si="14">D17*0.8</f>
@@ -21646,7 +21646,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C128" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D128" s="105">
         <f t="shared" ref="D128:H128" si="15">D18*0.8</f>
@@ -21699,7 +21699,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C130" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D130" s="105">
         <f t="shared" ref="D130:H130" si="17">D20*0.8</f>
@@ -21724,7 +21724,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C131" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D131" s="105">
         <f t="shared" ref="D131:H131" si="18">D21*0.8</f>
@@ -21749,7 +21749,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C132" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D132" s="105">
         <f t="shared" ref="D132:H132" si="19">D22*0.8</f>
@@ -21802,7 +21802,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C134" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D134" s="105">
         <f t="shared" ref="D134:H134" si="21">D24*0.8</f>
@@ -21827,7 +21827,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C135" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D135" s="105">
         <f t="shared" ref="D135:H135" si="22">D25*0.8</f>
@@ -21852,7 +21852,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C136" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D136" s="105">
         <f t="shared" ref="D136:H136" si="23">D26*0.8</f>
@@ -21877,7 +21877,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B138" s="79"/>
       <c r="C138" s="79"/>
@@ -21889,13 +21889,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="B139" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C139" s="29" t="s">
         <v>281</v>
-      </c>
-      <c r="B139" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="C139" s="29" t="s">
-        <v>280</v>
       </c>
       <c r="D139" s="82" t="s">
         <v>78</v>
@@ -21944,7 +21944,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C141" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D141" s="105">
         <f t="shared" ref="D141:H141" si="25">D31*0.7</f>
@@ -22047,7 +22047,7 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C145" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D145" s="105">
         <f t="shared" ref="D145:H145" si="29">D35*0.7</f>
@@ -22150,7 +22150,7 @@
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C149" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D149" s="105">
         <f t="shared" ref="D149:H149" si="33">D39*0.7</f>
@@ -22253,7 +22253,7 @@
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C153" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D153" s="105">
         <f t="shared" ref="D153:H153" si="37">D43*0.7</f>
@@ -22356,7 +22356,7 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C157" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D157" s="105">
         <f t="shared" ref="D157:H157" si="41">D47*0.7</f>
@@ -22459,7 +22459,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C161" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D161" s="105">
         <f t="shared" ref="D161:H161" si="45">D51*0.7</f>
@@ -22538,7 +22538,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B165" s="79"/>
       <c r="C165" s="79"/>
@@ -22553,10 +22553,10 @@
         <v>105</v>
       </c>
       <c r="B166" s="29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C166" s="80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D166" s="82" t="s">
         <v>113</v>
@@ -22578,7 +22578,7 @@
         <v>81</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D167" s="105">
         <f>D57*0.7</f>
@@ -22600,7 +22600,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C168" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D168" s="105">
         <f t="shared" ref="D168:G168" si="49">D58*0.7</f>
@@ -22625,7 +22625,7 @@
         <v>89</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D169" s="105">
         <f t="shared" ref="D169:G169" si="50">D59*0.7</f>
@@ -22647,7 +22647,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C170" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D170" s="105">
         <f t="shared" ref="D170:G170" si="51">D60*0.7</f>
@@ -22672,7 +22672,7 @@
         <v>103</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D171" s="105">
         <f t="shared" ref="D171:G171" si="52">D61*0.7</f>
@@ -22694,7 +22694,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C172" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D172" s="105">
         <f t="shared" ref="D172:G172" si="53">D62*0.7</f>
@@ -22720,7 +22720,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B174" s="79"/>
       <c r="C174" s="79"/>
@@ -22735,10 +22735,10 @@
         <v>123</v>
       </c>
       <c r="B175" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C175" s="80" t="s">
         <v>269</v>
-      </c>
-      <c r="C175" s="80" t="s">
-        <v>268</v>
       </c>
       <c r="D175" s="82" t="s">
         <v>78</v>
@@ -23650,7 +23650,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B213" s="79"/>
       <c r="C213" s="79"/>
@@ -23668,7 +23668,7 @@
         <v>125</v>
       </c>
       <c r="C214" s="80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D214" s="82" t="s">
         <v>78</v>
@@ -23785,13 +23785,13 @@
     </row>
     <row r="220" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H220" s="106"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B221" s="79"/>
       <c r="C221" s="79"/>
@@ -23804,13 +23804,13 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B222" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C222" s="41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D222" s="82" t="s">
         <v>78</v>
@@ -23861,7 +23861,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C224" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D224" s="105">
         <f t="shared" ref="D224:H224" si="95">D4*1.2</f>
@@ -23887,7 +23887,7 @@
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C225" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D225" s="105">
         <f t="shared" ref="D225:H225" si="96">D5*1.2</f>
@@ -23913,7 +23913,7 @@
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C226" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D226" s="105">
         <f t="shared" ref="D226:H226" si="97">D6*1.2</f>
@@ -23968,7 +23968,7 @@
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C228" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D228" s="105">
         <f t="shared" ref="D228:H228" si="99">D8*1.2</f>
@@ -23994,7 +23994,7 @@
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C229" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D229" s="105">
         <f t="shared" ref="D229:H229" si="100">D9*1.2</f>
@@ -24020,7 +24020,7 @@
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C230" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D230" s="105">
         <f t="shared" ref="D230:H230" si="101">D10*1.2</f>
@@ -24075,7 +24075,7 @@
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C232" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D232" s="105">
         <f t="shared" ref="D232:H232" si="103">D12*1.2</f>
@@ -24101,7 +24101,7 @@
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C233" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D233" s="105">
         <f t="shared" ref="D233:H233" si="104">D13*1.2</f>
@@ -24127,7 +24127,7 @@
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C234" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D234" s="105">
         <f t="shared" ref="D234:H234" si="105">D14*1.2</f>
@@ -24182,7 +24182,7 @@
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C236" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D236" s="105">
         <f t="shared" ref="D236:H236" si="107">D16*1.2</f>
@@ -24208,7 +24208,7 @@
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C237" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D237" s="105">
         <f t="shared" ref="D237:H237" si="108">D17*1.2</f>
@@ -24234,7 +24234,7 @@
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C238" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D238" s="105">
         <f t="shared" ref="D238:H238" si="109">D18*1.2</f>
@@ -24289,7 +24289,7 @@
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C240" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D240" s="105">
         <f t="shared" ref="D240:H240" si="111">D20*1.2</f>
@@ -24315,7 +24315,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C241" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D241" s="105">
         <f t="shared" ref="D241:H241" si="112">D21*1.2</f>
@@ -24341,7 +24341,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C242" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D242" s="105">
         <f t="shared" ref="D242:H242" si="113">D22*1.2</f>
@@ -24396,7 +24396,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C244" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D244" s="105">
         <f t="shared" ref="D244:H244" si="115">D24*1.2</f>
@@ -24422,7 +24422,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C245" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D245" s="105">
         <f t="shared" ref="D245:H245" si="116">D25*1.2</f>
@@ -24448,7 +24448,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C246" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D246" s="105">
         <f t="shared" ref="D246:H246" si="117">D26*1.2</f>
@@ -24474,7 +24474,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B248" s="79"/>
       <c r="C248" s="79"/>
@@ -24487,13 +24487,13 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="B249" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C249" s="29" t="s">
         <v>281</v>
-      </c>
-      <c r="B249" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="C249" s="29" t="s">
-        <v>280</v>
       </c>
       <c r="D249" s="82" t="s">
         <v>78</v>
@@ -24544,7 +24544,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C251" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D251" s="105">
         <f t="shared" ref="D251:H251" si="119">D31*1.2</f>
@@ -24651,7 +24651,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C255" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D255" s="105">
         <f t="shared" ref="D255:H255" si="123">D35*1.2</f>
@@ -24758,7 +24758,7 @@
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C259" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D259" s="105">
         <f t="shared" ref="D259:H259" si="127">D39*1.2</f>
@@ -24865,7 +24865,7 @@
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C263" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D263" s="105">
         <f t="shared" ref="D263:H263" si="131">D43*1.2</f>
@@ -24972,7 +24972,7 @@
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C267" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D267" s="105">
         <f t="shared" ref="D267:H267" si="135">D47*1.2</f>
@@ -25079,7 +25079,7 @@
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C271" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D271" s="105">
         <f t="shared" ref="D271:H271" si="139">D51*1.2</f>
@@ -25161,7 +25161,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B275" s="79"/>
       <c r="C275" s="79"/>
@@ -25177,10 +25177,10 @@
         <v>105</v>
       </c>
       <c r="B276" s="29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C276" s="80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D276" s="82" t="s">
         <v>113</v>
@@ -25202,7 +25202,7 @@
         <v>81</v>
       </c>
       <c r="C277" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D277" s="105">
         <f>D57*1.2</f>
@@ -25224,7 +25224,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C278" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D278" s="105">
         <f t="shared" ref="D278:G278" si="143">D58*1.2</f>
@@ -25249,7 +25249,7 @@
         <v>89</v>
       </c>
       <c r="C279" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D279" s="105">
         <f t="shared" ref="D279:G279" si="144">D59*1.2</f>
@@ -25271,7 +25271,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C280" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D280" s="105">
         <f t="shared" ref="D280:G280" si="145">D60*1.2</f>
@@ -25296,7 +25296,7 @@
         <v>103</v>
       </c>
       <c r="C281" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D281" s="105">
         <f t="shared" ref="D281:G281" si="146">D61*1.2</f>
@@ -25318,7 +25318,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C282" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D282" s="105">
         <f t="shared" ref="D282:G282" si="147">D62*1.2</f>
@@ -25344,7 +25344,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B284" s="79"/>
       <c r="C284" s="79"/>
@@ -25360,10 +25360,10 @@
         <v>123</v>
       </c>
       <c r="B285" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C285" s="80" t="s">
         <v>269</v>
-      </c>
-      <c r="C285" s="80" t="s">
-        <v>268</v>
       </c>
       <c r="D285" s="82" t="s">
         <v>78</v>
@@ -26312,7 +26312,7 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B323" s="79"/>
       <c r="C323" s="79"/>
@@ -26331,7 +26331,7 @@
         <v>125</v>
       </c>
       <c r="C324" s="80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D324" s="82" t="s">
         <v>78</v>
@@ -26452,7 +26452,7 @@
       <c r="I328" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/ofP90Rhm9FUBFvAHn0/5SZ/yzSzppU0F4R91bgtjI0wfZakRV2nDDoa+a03ox23jOTbRttp84h93yQeS+vZzQ==" saltValue="bh4dVyrMoU77/7Ng//8loQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WD/sTcRWTwdCiFSXEV6BOudfLhUiD++FStpCA8806uL54hvVJQ1wAwusoAHOvHUa7pVtGFKsWM+4uHxaM7p1zA==" saltValue="fKRMr6B1ZrqWTxrYbrtGyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26486,7 +26486,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="78" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26512,7 +26512,7 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="45" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C3" s="104" t="s">
         <v>8</v>
@@ -26533,7 +26533,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="72" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C4" s="104">
         <v>1.0249999999999999</v>
@@ -26553,7 +26553,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="83" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26646,7 +26646,7 @@
     </row>
     <row r="11" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26676,15 +26676,15 @@
     </row>
     <row r="14" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="96" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C15" s="104">
         <v>1.0249999999999999</v>
@@ -26705,7 +26705,7 @@
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
       <c r="B16" s="72" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C16" s="104">
         <v>1.0249999999999999</v>
@@ -26728,7 +26728,7 @@
         <v>105</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C17" s="104">
         <v>1</v>
@@ -26749,21 +26749,21 @@
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="E20" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="F20" s="43" t="s">
         <v>71</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -26785,12 +26785,12 @@
     </row>
     <row r="23" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="78" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B24" s="79"/>
       <c r="C24" s="79"/>
@@ -26822,7 +26822,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C26" s="104" t="s">
         <v>8</v>
@@ -26847,7 +26847,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="29"/>
       <c r="B27" s="72" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C27" s="104">
         <f>C4*0.9</f>
@@ -26872,12 +26872,12 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="83" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="72" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C29" s="104">
         <f>C6*0.9</f>
@@ -26902,7 +26902,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="72" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C30" s="104">
         <f t="shared" ref="C30:G31" si="2">C7*0.9</f>
@@ -26927,7 +26927,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="72" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C31" s="104">
         <f t="shared" si="2"/>
@@ -26952,7 +26952,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="72" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C32" s="104">
         <f t="shared" ref="C32:G32" si="3">C9*0.9</f>
@@ -26985,7 +26985,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="78" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B34" s="79"/>
       <c r="C34" s="79"/>
@@ -26997,7 +26997,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="83"/>
       <c r="B35" s="45" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C35" s="104">
         <f>C12*0.9</f>
@@ -27023,7 +27023,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="78" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B37" s="79"/>
       <c r="C37" s="79"/>
@@ -27034,10 +27034,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="96" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C38" s="104">
         <f>C15*0.9</f>
@@ -27063,7 +27063,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="29"/>
       <c r="B39" s="72" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C39" s="104">
         <f t="shared" ref="C39:G39" si="6">C16*0.9</f>
@@ -27091,7 +27091,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C40" s="104">
         <f t="shared" ref="C40:G40" si="7">C17*0.9</f>
@@ -27116,7 +27116,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="78" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B42" s="79"/>
       <c r="C42" s="79"/>
@@ -27129,22 +27129,22 @@
       <c r="A43" s="83"/>
       <c r="B43" s="83"/>
       <c r="C43" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="E43" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="F43" s="43" t="s">
         <v>71</v>
-      </c>
-      <c r="F43" s="43" t="s">
-        <v>72</v>
       </c>
       <c r="G43" s="83"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B44" s="45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C44" s="104">
         <f>C21*0.9</f>
@@ -27165,12 +27165,12 @@
     </row>
     <row r="46" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="78" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B47" s="79"/>
       <c r="C47" s="79"/>
@@ -27202,7 +27202,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B49" s="45" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C49" s="104" t="s">
         <v>8</v>
@@ -27227,7 +27227,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="29"/>
       <c r="B50" s="72" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C50" s="104">
         <f>C4*1.05</f>
@@ -27252,12 +27252,12 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="83" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="72" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C52" s="104">
         <f>C6*1.05</f>
@@ -27282,7 +27282,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" s="72" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C53" s="104">
         <f t="shared" ref="C53:G54" si="11">C7*1.05</f>
@@ -27307,7 +27307,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B54" s="72" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C54" s="104">
         <f t="shared" si="11"/>
@@ -27332,7 +27332,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B55" s="72" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C55" s="104">
         <f t="shared" ref="C55:G55" si="12">C9*1.05</f>
@@ -27365,7 +27365,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="78" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B57" s="79"/>
       <c r="C57" s="79"/>
@@ -27377,7 +27377,7 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="83"/>
       <c r="B58" s="45" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C58" s="104">
         <f>C12*1.1</f>
@@ -27403,7 +27403,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="78" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B60" s="79"/>
       <c r="C60" s="79"/>
@@ -27414,10 +27414,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="96" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B61" s="72" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C61" s="104">
         <f>C15*1.05</f>
@@ -27443,7 +27443,7 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="29"/>
       <c r="B62" s="72" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C62" s="104">
         <f t="shared" ref="C62:G62" si="15">C16*1.05</f>
@@ -27471,7 +27471,7 @@
         <v>105</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C63" s="104">
         <f t="shared" ref="C63:G63" si="16">C17*1.05</f>
@@ -27496,7 +27496,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="78" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B65" s="79"/>
       <c r="C65" s="79"/>
@@ -27509,22 +27509,22 @@
       <c r="A66" s="83"/>
       <c r="B66" s="83"/>
       <c r="C66" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="E66" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="F66" s="43" t="s">
         <v>71</v>
-      </c>
-      <c r="F66" s="43" t="s">
-        <v>72</v>
       </c>
       <c r="G66" s="83"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B67" s="45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C67" s="104">
         <f>C21*1.05</f>
@@ -27544,7 +27544,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HKm3M/94pRFyMm/m5GSB8Ef1ipq535hGaYPmI24QhPS5w6EXH75PeWQXaUlflK84kdli258FWyHm5AUHi4m6pw==" saltValue="5Tjw6+H1fURTbhoFKg1XAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XUJddozSmKRuLAK6IsjnR4pNHo9EHyEvabZR44m6+gXKFQVoW1fm9ZauclMrbDk4Vfc7EcWKzflLgExg97MSgQ==" saltValue="Cc82YCnGzlnUdvaljX67lg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27597,7 +27597,7 @@
         <v>165</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C2" s="104">
         <v>0.21</v>
@@ -27615,7 +27615,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="72"/>
       <c r="B3" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C3" s="104">
         <v>1</v>
@@ -27635,7 +27635,7 @@
         <v>178</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C4" s="104">
         <v>0.15</v>
@@ -27653,7 +27653,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="72"/>
       <c r="B5" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C5" s="104">
         <v>1</v>
@@ -27673,7 +27673,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C6" s="104">
         <v>0.15</v>
@@ -27691,7 +27691,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="72"/>
       <c r="B7" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C7" s="104">
         <v>1</v>
@@ -27711,7 +27711,7 @@
         <v>180</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C8" s="104">
         <v>0.35</v>
@@ -27729,7 +27729,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="72"/>
       <c r="B9" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C9" s="104">
         <v>1</v>
@@ -27749,7 +27749,7 @@
         <v>185</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C10" s="104">
         <v>0.35</v>
@@ -27767,7 +27767,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="72"/>
       <c r="B11" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C11" s="104">
         <v>1</v>
@@ -27787,7 +27787,7 @@
         <v>191</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C12" s="104">
         <v>0.23</v>
@@ -27805,7 +27805,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="72"/>
       <c r="B13" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C13" s="104">
         <v>1</v>
@@ -27822,7 +27822,7 @@
     </row>
     <row r="15" spans="1:6" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27848,7 +27848,7 @@
         <v>165</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C17" s="104">
         <f>C2*0.9</f>
@@ -27870,7 +27870,7 @@
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="72"/>
       <c r="B18" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C18" s="104">
         <f t="shared" ref="C18:F18" si="1">C3*0.9</f>
@@ -27894,7 +27894,7 @@
         <v>178</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C19" s="104">
         <f t="shared" ref="C19:F19" si="2">C4*0.9</f>
@@ -27916,7 +27916,7 @@
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="72"/>
       <c r="B20" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C20" s="104">
         <f t="shared" ref="C20:F20" si="3">C5*0.9</f>
@@ -27940,7 +27940,7 @@
         <v>179</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C21" s="104">
         <f t="shared" ref="C21:F21" si="4">C6*0.9</f>
@@ -27962,7 +27962,7 @@
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="72"/>
       <c r="B22" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C22" s="104">
         <f t="shared" ref="C22:F22" si="5">C7*0.9</f>
@@ -27986,7 +27986,7 @@
         <v>180</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C23" s="104">
         <f t="shared" ref="C23:F23" si="6">C8*0.9</f>
@@ -28008,7 +28008,7 @@
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="72"/>
       <c r="B24" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C24" s="104">
         <f t="shared" ref="C24:F24" si="7">C9*0.9</f>
@@ -28032,7 +28032,7 @@
         <v>185</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C25" s="104">
         <f t="shared" ref="C25:F25" si="8">C10*0.9</f>
@@ -28054,7 +28054,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="72"/>
       <c r="B26" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C26" s="104">
         <f t="shared" ref="C26:F26" si="9">C11*0.9</f>
@@ -28078,7 +28078,7 @@
         <v>191</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C27" s="104">
         <f t="shared" ref="C27:F27" si="10">C12*0.9</f>
@@ -28100,7 +28100,7 @@
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="72"/>
       <c r="B28" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C28" s="104">
         <f t="shared" ref="C28:F28" si="11">C13*0.9</f>
@@ -28121,7 +28121,7 @@
     </row>
     <row r="30" spans="1:6" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -28147,7 +28147,7 @@
         <v>165</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C32" s="104">
         <f>C2*1.05</f>
@@ -28169,7 +28169,7 @@
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="72"/>
       <c r="B33" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C33" s="104">
         <f t="shared" ref="C33:F33" si="13">C3*1.05</f>
@@ -28193,7 +28193,7 @@
         <v>178</v>
       </c>
       <c r="B34" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C34" s="104">
         <f t="shared" ref="C34:F34" si="14">C4*1.05</f>
@@ -28215,7 +28215,7 @@
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="72"/>
       <c r="B35" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C35" s="104">
         <f t="shared" ref="C35:F35" si="15">C5*1.05</f>
@@ -28239,7 +28239,7 @@
         <v>179</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C36" s="104">
         <f t="shared" ref="C36:F36" si="16">C6*1.05</f>
@@ -28261,7 +28261,7 @@
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="72"/>
       <c r="B37" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C37" s="104">
         <f t="shared" ref="C37:F37" si="17">C7*1.05</f>
@@ -28285,7 +28285,7 @@
         <v>180</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C38" s="104">
         <f t="shared" ref="C38:F38" si="18">C8*1.05</f>
@@ -28307,7 +28307,7 @@
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="72"/>
       <c r="B39" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C39" s="104">
         <f t="shared" ref="C39:F39" si="19">C9*1.05</f>
@@ -28331,7 +28331,7 @@
         <v>185</v>
       </c>
       <c r="B40" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C40" s="104">
         <f t="shared" ref="C40:F40" si="20">C10*1.05</f>
@@ -28353,7 +28353,7 @@
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="72"/>
       <c r="B41" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C41" s="104">
         <f t="shared" ref="C41:F41" si="21">C11*1.05</f>
@@ -28377,7 +28377,7 @@
         <v>191</v>
       </c>
       <c r="B42" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C42" s="104">
         <f t="shared" ref="C42:F42" si="22">C12*1.05</f>
@@ -28399,7 +28399,7 @@
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="72"/>
       <c r="B43" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C43" s="104">
         <f t="shared" ref="C43:F43" si="23">C13*1.05</f>
@@ -28419,7 +28419,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j0XzJZclu8Dr61ymvCrSV3hmoU38ijW7vePSp0ziaUhsqgLpUVL+8UdfVhOG8+dREe+vnAKXPWPp8vXfQRV0Kg==" saltValue="7IeIFBvubl4hsM0B+JjM+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nPPwVpr52YXPA2Ww3xzbbyBwd18eGIpggzcvYhp6AcSaimhzFBiafg+LWhN6AOic/BjoKd+eWXw6lCU+sylcew==" saltValue="oSBE+0ivOVYz/iOeGczINQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28466,16 +28466,16 @@
         <v>76</v>
       </c>
       <c r="H1" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="J1" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="K1" s="82" t="s">
         <v>71</v>
-      </c>
-      <c r="K1" s="82" t="s">
-        <v>72</v>
       </c>
       <c r="L1" s="82" t="s">
         <v>113</v>
@@ -28492,7 +28492,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -29069,7 +29069,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B17" s="45"/>
     </row>
@@ -29251,7 +29251,7 @@
     </row>
     <row r="23" spans="1:15" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
@@ -29273,16 +29273,16 @@
         <v>76</v>
       </c>
       <c r="H24" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="82" t="s">
+      <c r="J24" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="82" t="s">
+      <c r="K24" s="82" t="s">
         <v>71</v>
-      </c>
-      <c r="K24" s="82" t="s">
-        <v>72</v>
       </c>
       <c r="L24" s="82" t="s">
         <v>113</v>
@@ -29299,7 +29299,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -30045,7 +30045,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B40" s="45"/>
     </row>
@@ -30279,7 +30279,7 @@
     </row>
     <row r="46" spans="1:15" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
@@ -30301,16 +30301,16 @@
         <v>76</v>
       </c>
       <c r="H47" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="82" t="s">
+      <c r="J47" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="82" t="s">
+      <c r="K47" s="82" t="s">
         <v>71</v>
-      </c>
-      <c r="K47" s="82" t="s">
-        <v>72</v>
       </c>
       <c r="L47" s="82" t="s">
         <v>113</v>
@@ -30327,7 +30327,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="29" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -31073,7 +31073,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="29" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B63" s="45"/>
     </row>
@@ -31306,7 +31306,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ltZDPx6rDUNpM4SHb/DUk5f9LvhADL78df/mrP2wRFbKx03/050RK1Ojb+Uh355oYhx96Xkjs4TbWofvvTQvrQ==" saltValue="/TJbvlEt0w2olwploSQ1Hg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="S842EhbtQI/AoI73NQG2VmQuLQaGYHysWs+VzHMtCR8tKcggeGqJ7hCofzWvYL/IKTaOSW0yu0FkuA8rzJYL8w==" saltValue="zHDyudLnU/ZUD7BDW6uJTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31355,7 +31355,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -31380,7 +31380,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="97"/>
@@ -31411,7 +31411,7 @@
     </row>
     <row r="7" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="106" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -31435,7 +31435,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -31465,7 +31465,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B11" s="45"/>
       <c r="C11" s="97"/>
@@ -31501,7 +31501,7 @@
     </row>
     <row r="14" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="106" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -31525,7 +31525,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -31555,7 +31555,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="97"/>
@@ -31590,7 +31590,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wkZXWA6v2pXMCyPIRQDzVTD56yLLcTDJ5KzJXCbORKUBazJ4kKHSBlbeMLoOxm01JLijgddOY4Ajb0WGXN7Flw==" saltValue="d3esQ40S43Zs4oiTutWQNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sXK54YAVpr1RhfL5G0Z1VjBYPPCH9poU4XghHXgZHptHpnpk5kr8FOfUK8+77ZivJDe3wY3TxF0nvSYGY8Z+2Q==" saltValue="pKcugdW0DoBGD3+XzxPNJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31628,7 +31628,7 @@
         <v>163</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C1" s="96" t="s">
         <v>9</v>
@@ -31657,7 +31657,7 @@
         <v>84</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D2" s="104">
         <v>0</v>
@@ -31677,7 +31677,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D3" s="104">
         <v>0</v>
@@ -31697,7 +31697,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D4" s="104">
         <v>0</v>
@@ -31723,7 +31723,7 @@
         <v>207</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D5" s="104">
         <v>0</v>
@@ -31743,7 +31743,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D6" s="104">
         <v>0</v>
@@ -31766,7 +31766,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D7" s="104">
         <v>0</v>
@@ -31786,7 +31786,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D8" s="104">
         <v>0</v>
@@ -31812,7 +31812,7 @@
         <v>207</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D9" s="104">
         <v>0</v>
@@ -31832,7 +31832,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D10" s="104">
         <v>0</v>
@@ -31855,7 +31855,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D11" s="104">
         <v>0</v>
@@ -31875,7 +31875,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D12" s="104">
         <v>0</v>
@@ -31901,7 +31901,7 @@
         <v>207</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D13" s="104">
         <v>0</v>
@@ -31921,7 +31921,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D14" s="104">
         <v>0</v>
@@ -31944,7 +31944,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D15" s="104">
         <v>0</v>
@@ -31964,7 +31964,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D16" s="104">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>207</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D17" s="104">
         <v>0</v>
@@ -32010,7 +32010,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C18" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D18" s="104">
         <v>0</v>
@@ -32033,7 +32033,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D19" s="104">
         <v>0</v>
@@ -32053,7 +32053,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C20" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D20" s="104">
         <v>0</v>
@@ -32079,7 +32079,7 @@
         <v>92</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D21" s="104">
         <v>0.28260869565217389</v>
@@ -32099,7 +32099,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C22" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D22" s="104">
         <v>0.46</v>
@@ -32125,7 +32125,7 @@
         <v>92</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D23" s="104">
         <v>0.28260869565217389</v>
@@ -32145,7 +32145,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C24" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D24" s="104">
         <v>0.46</v>
@@ -32171,7 +32171,7 @@
         <v>92</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D25" s="104">
         <v>0.28260869565217389</v>
@@ -32191,7 +32191,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C26" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D26" s="104">
         <v>0.46</v>
@@ -32217,7 +32217,7 @@
         <v>84</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D27" s="104">
         <v>1</v>
@@ -32237,7 +32237,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C28" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D28" s="104">
         <v>0</v>
@@ -32257,7 +32257,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C29" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D29" s="104">
         <v>0</v>
@@ -32283,7 +32283,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D30" s="104">
         <v>1</v>
@@ -32303,7 +32303,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C31" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D31" s="104">
         <v>0</v>
@@ -32323,7 +32323,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C32" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D32" s="104">
         <v>0</v>
@@ -32349,7 +32349,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D33" s="104">
         <v>1</v>
@@ -32369,7 +32369,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D34" s="104">
         <v>0</v>
@@ -32389,7 +32389,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C35" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D35" s="104">
         <v>0</v>
@@ -32415,7 +32415,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D36" s="104">
         <v>1</v>
@@ -32435,7 +32435,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D37" s="104">
         <v>0</v>
@@ -32455,7 +32455,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C38" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D38" s="104">
         <v>0</v>
@@ -32481,7 +32481,7 @@
         <v>84</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D39" s="104">
         <v>1</v>
@@ -32501,7 +32501,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D40" s="104">
         <v>0</v>
@@ -32521,7 +32521,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C41" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D41" s="104">
         <v>0</v>
@@ -32547,7 +32547,7 @@
         <v>84</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D42" s="104">
         <v>0.3</v>
@@ -32567,7 +32567,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D43" s="104">
         <v>0.5</v>
@@ -32587,7 +32587,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C44" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D44" s="104">
         <v>0.65</v>
@@ -32610,7 +32610,7 @@
         <v>102</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D45" s="104">
         <v>0.3</v>
@@ -32630,7 +32630,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C46" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D46" s="104">
         <v>0.49</v>
@@ -32650,7 +32650,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D47" s="104">
         <v>0.52</v>
@@ -32676,7 +32676,7 @@
         <v>84</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D48" s="104">
         <v>0.88</v>
@@ -32696,7 +32696,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C49" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D49" s="104">
         <v>0.78409090909090906</v>
@@ -32722,7 +32722,7 @@
         <v>84</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D50" s="104">
         <v>0.88372093023255816</v>
@@ -32742,7 +32742,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C51" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D51" s="104">
         <v>0.86</v>
@@ -32768,7 +32768,7 @@
         <v>96</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D52" s="104">
         <v>0.57999999999999996</v>
@@ -32788,7 +32788,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C53" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D53" s="104">
         <v>0.51</v>
@@ -32808,7 +32808,7 @@
     </row>
     <row r="55" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="110" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B55" s="111"/>
       <c r="C55" s="111"/>
@@ -32818,7 +32818,7 @@
         <v>163</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C56" s="96" t="s">
         <v>9</v>
@@ -32847,7 +32847,7 @@
         <v>84</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D57" s="104">
         <f t="shared" ref="D57:H66" si="0">D2*0.9</f>
@@ -32872,7 +32872,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C58" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D58" s="104">
         <f t="shared" si="0"/>
@@ -32897,7 +32897,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C59" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D59" s="104">
         <f t="shared" si="0"/>
@@ -32928,7 +32928,7 @@
         <v>207</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D60" s="104">
         <f t="shared" si="0"/>
@@ -32953,7 +32953,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C61" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D61" s="104">
         <f t="shared" si="0"/>
@@ -32981,7 +32981,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D62" s="104">
         <f t="shared" si="0"/>
@@ -33006,7 +33006,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C63" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D63" s="104">
         <f t="shared" si="0"/>
@@ -33037,7 +33037,7 @@
         <v>207</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D64" s="104">
         <f t="shared" si="0"/>
@@ -33062,7 +33062,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C65" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D65" s="104">
         <f t="shared" si="0"/>
@@ -33090,7 +33090,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D66" s="104">
         <f t="shared" si="0"/>
@@ -33115,7 +33115,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C67" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D67" s="104">
         <f t="shared" ref="D67:H67" si="1">D12*0.9</f>
@@ -33146,7 +33146,7 @@
         <v>207</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D68" s="104">
         <f t="shared" ref="D68:H70" si="2">D13*0.9</f>
@@ -33171,7 +33171,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C69" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D69" s="104">
         <f t="shared" si="2"/>
@@ -33199,7 +33199,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D70" s="104">
         <f t="shared" si="2"/>
@@ -33224,7 +33224,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C71" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D71" s="104">
         <f t="shared" ref="D71:H71" si="3">D16*0.9</f>
@@ -33255,7 +33255,7 @@
         <v>207</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D72" s="104">
         <f t="shared" ref="D72:H72" si="4">D17*0.9</f>
@@ -33280,7 +33280,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C73" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D73" s="104">
         <f t="shared" ref="D73:H73" si="5">D18*0.9</f>
@@ -33308,7 +33308,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D74" s="104">
         <f t="shared" ref="D74:H74" si="6">D19*0.9</f>
@@ -33333,7 +33333,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C75" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D75" s="104">
         <f t="shared" ref="D75:H75" si="7">D20*0.9</f>
@@ -33364,7 +33364,7 @@
         <v>92</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D76" s="104">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
@@ -33389,7 +33389,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C77" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D77" s="104">
         <f t="shared" ref="D77:H77" si="9">D22*0.9</f>
@@ -33420,7 +33420,7 @@
         <v>92</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D78" s="104">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
@@ -33445,7 +33445,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C79" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D79" s="104">
         <f t="shared" ref="D79:H79" si="11">D24*0.9</f>
@@ -33476,7 +33476,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D80" s="104">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
@@ -33501,7 +33501,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C81" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D81" s="104">
         <f t="shared" ref="D81:H81" si="13">D26*0.9</f>
@@ -33532,7 +33532,7 @@
         <v>84</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D82" s="104">
         <f t="shared" ref="D82:H82" si="14">D27*0.9</f>
@@ -33557,7 +33557,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C83" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D83" s="104">
         <f t="shared" ref="D83:H83" si="15">D28*0.9</f>
@@ -33582,7 +33582,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C84" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D84" s="104">
         <f t="shared" ref="D84:H84" si="16">D29*0.9</f>
@@ -33613,7 +33613,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D85" s="104">
         <f t="shared" ref="D85:H85" si="17">D30*0.9</f>
@@ -33638,7 +33638,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C86" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D86" s="104">
         <f t="shared" ref="D86:H86" si="18">D31*0.9</f>
@@ -33663,7 +33663,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C87" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D87" s="104">
         <f t="shared" ref="D87:H87" si="19">D32*0.9</f>
@@ -33694,7 +33694,7 @@
         <v>84</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D88" s="104">
         <f t="shared" ref="D88:H88" si="20">D33*0.9</f>
@@ -33719,7 +33719,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C89" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D89" s="104">
         <f t="shared" ref="D89:H89" si="21">D34*0.9</f>
@@ -33744,7 +33744,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C90" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D90" s="104">
         <f t="shared" ref="D90:H90" si="22">D35*0.9</f>
@@ -33775,7 +33775,7 @@
         <v>84</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D91" s="104">
         <f t="shared" ref="D91:H91" si="23">D36*0.9</f>
@@ -33800,7 +33800,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C92" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D92" s="104">
         <f t="shared" ref="D92:H92" si="24">D37*0.9</f>
@@ -33825,7 +33825,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C93" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D93" s="104">
         <f t="shared" ref="D93:H93" si="25">D38*0.9</f>
@@ -33856,7 +33856,7 @@
         <v>84</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D94" s="104">
         <f t="shared" ref="D94:H94" si="26">D39*0.9</f>
@@ -33881,7 +33881,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C95" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D95" s="104">
         <f t="shared" ref="D95:H95" si="27">D40*0.9</f>
@@ -33906,7 +33906,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C96" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D96" s="104">
         <f t="shared" ref="D96:H96" si="28">D41*0.9</f>
@@ -33937,7 +33937,7 @@
         <v>84</v>
       </c>
       <c r="C97" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D97" s="104">
         <f t="shared" ref="D97:H97" si="29">D42*0.9</f>
@@ -33962,7 +33962,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C98" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D98" s="104">
         <f t="shared" ref="D98:H98" si="30">D43*0.9</f>
@@ -33987,7 +33987,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C99" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D99" s="104">
         <f t="shared" ref="D99:H99" si="31">D44*0.9</f>
@@ -34015,7 +34015,7 @@
         <v>102</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D100" s="104">
         <f t="shared" ref="D100:H100" si="32">D45*0.9</f>
@@ -34040,7 +34040,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C101" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D101" s="104">
         <f t="shared" ref="D101:H101" si="33">D46*0.9</f>
@@ -34065,7 +34065,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C102" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D102" s="104">
         <f t="shared" ref="D102:H102" si="34">D47*0.9</f>
@@ -34096,7 +34096,7 @@
         <v>84</v>
       </c>
       <c r="C103" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D103" s="104">
         <f t="shared" ref="D103:H103" si="35">D48*0.9</f>
@@ -34121,7 +34121,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C104" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D104" s="104">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
@@ -34152,7 +34152,7 @@
         <v>84</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D105" s="104">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
@@ -34177,7 +34177,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C106" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D106" s="104">
         <f t="shared" ref="D106:H106" si="38">D51*0.9</f>
@@ -34208,7 +34208,7 @@
         <v>96</v>
       </c>
       <c r="C107" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D107" s="104">
         <f t="shared" ref="D107:H107" si="39">D52*0.9</f>
@@ -34233,7 +34233,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C108" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D108" s="104">
         <f t="shared" ref="D108:H108" si="40">D53*0.9</f>
@@ -34258,7 +34258,7 @@
     </row>
     <row r="110" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="110" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B110" s="111"/>
       <c r="C110" s="111"/>
@@ -34268,7 +34268,7 @@
         <v>163</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C111" s="96" t="s">
         <v>9</v>
@@ -34297,7 +34297,7 @@
         <v>84</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D112" s="104">
         <f t="shared" ref="D112:H121" si="41">D2*1.05</f>
@@ -34322,7 +34322,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C113" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D113" s="104">
         <f t="shared" si="41"/>
@@ -34347,7 +34347,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C114" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D114" s="104">
         <f t="shared" si="41"/>
@@ -34378,7 +34378,7 @@
         <v>207</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D115" s="104">
         <f t="shared" si="41"/>
@@ -34403,7 +34403,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C116" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D116" s="104">
         <f t="shared" si="41"/>
@@ -34431,7 +34431,7 @@
         <v>3</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D117" s="104">
         <f t="shared" si="41"/>
@@ -34456,7 +34456,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C118" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D118" s="104">
         <f t="shared" si="41"/>
@@ -34487,7 +34487,7 @@
         <v>207</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D119" s="104">
         <f t="shared" si="41"/>
@@ -34512,7 +34512,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C120" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D120" s="104">
         <f t="shared" si="41"/>
@@ -34540,7 +34540,7 @@
         <v>3</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D121" s="104">
         <f t="shared" si="41"/>
@@ -34565,7 +34565,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C122" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D122" s="104">
         <f t="shared" ref="D122:H122" si="42">D12*1.05</f>
@@ -34596,7 +34596,7 @@
         <v>207</v>
       </c>
       <c r="C123" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D123" s="104">
         <f t="shared" ref="D123:H125" si="43">D13*1.05</f>
@@ -34621,7 +34621,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C124" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D124" s="104">
         <f t="shared" si="43"/>
@@ -34649,7 +34649,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D125" s="104">
         <f t="shared" si="43"/>
@@ -34674,7 +34674,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C126" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D126" s="104">
         <f t="shared" ref="D126:H126" si="44">D16*1.05</f>
@@ -34705,7 +34705,7 @@
         <v>207</v>
       </c>
       <c r="C127" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D127" s="104">
         <f t="shared" ref="D127:H127" si="45">D17*1.05</f>
@@ -34730,7 +34730,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C128" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D128" s="104">
         <f t="shared" ref="D128:H128" si="46">D18*1.05</f>
@@ -34758,7 +34758,7 @@
         <v>3</v>
       </c>
       <c r="C129" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D129" s="104">
         <f t="shared" ref="D129:H129" si="47">D19*1.05</f>
@@ -34783,7 +34783,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C130" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D130" s="104">
         <f t="shared" ref="D130:H130" si="48">D20*1.05</f>
@@ -34814,7 +34814,7 @@
         <v>92</v>
       </c>
       <c r="C131" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D131" s="104">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
@@ -34839,7 +34839,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C132" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D132" s="104">
         <f t="shared" ref="D132:H132" si="50">D22*1.05</f>
@@ -34870,7 +34870,7 @@
         <v>92</v>
       </c>
       <c r="C133" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D133" s="104">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
@@ -34895,7 +34895,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C134" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D134" s="104">
         <f t="shared" ref="D134:H134" si="52">D24*1.05</f>
@@ -34926,7 +34926,7 @@
         <v>92</v>
       </c>
       <c r="C135" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D135" s="104">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
@@ -34951,7 +34951,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C136" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D136" s="104">
         <f t="shared" ref="D136:H136" si="54">D26*1.05</f>
@@ -34982,7 +34982,7 @@
         <v>84</v>
       </c>
       <c r="C137" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D137" s="104">
         <f t="shared" ref="D137:H137" si="55">D27*1.05</f>
@@ -35007,7 +35007,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C138" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D138" s="104">
         <f t="shared" ref="D138:H138" si="56">D28*1.05</f>
@@ -35032,7 +35032,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C139" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D139" s="104">
         <f t="shared" ref="D139:H139" si="57">D29*1.05</f>
@@ -35063,7 +35063,7 @@
         <v>84</v>
       </c>
       <c r="C140" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D140" s="104">
         <f t="shared" ref="D140:H140" si="58">D30*1.05</f>
@@ -35088,7 +35088,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C141" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D141" s="104">
         <f t="shared" ref="D141:H141" si="59">D31*1.05</f>
@@ -35113,7 +35113,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C142" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D142" s="104">
         <f t="shared" ref="D142:H142" si="60">D32*1.05</f>
@@ -35144,7 +35144,7 @@
         <v>84</v>
       </c>
       <c r="C143" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D143" s="104">
         <f t="shared" ref="D143:H143" si="61">D33*1.05</f>
@@ -35169,7 +35169,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C144" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D144" s="104">
         <f t="shared" ref="D144:H144" si="62">D34*1.05</f>
@@ -35194,7 +35194,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C145" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D145" s="104">
         <f t="shared" ref="D145:H145" si="63">D35*1.05</f>
@@ -35225,7 +35225,7 @@
         <v>84</v>
       </c>
       <c r="C146" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D146" s="104">
         <f t="shared" ref="D146:H146" si="64">D36*1.05</f>
@@ -35250,7 +35250,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C147" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D147" s="104">
         <f t="shared" ref="D147:H147" si="65">D37*1.05</f>
@@ -35275,7 +35275,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C148" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D148" s="104">
         <f t="shared" ref="D148:H148" si="66">D38*1.05</f>
@@ -35306,7 +35306,7 @@
         <v>84</v>
       </c>
       <c r="C149" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D149" s="104">
         <f t="shared" ref="D149:H149" si="67">D39*1.05</f>
@@ -35331,7 +35331,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C150" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D150" s="104">
         <f t="shared" ref="D150:H150" si="68">D40*1.05</f>
@@ -35356,7 +35356,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C151" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D151" s="104">
         <f t="shared" ref="D151:H151" si="69">D41*1.05</f>
@@ -35387,7 +35387,7 @@
         <v>84</v>
       </c>
       <c r="C152" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D152" s="104">
         <f t="shared" ref="D152:H152" si="70">D42*1.05</f>
@@ -35412,7 +35412,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C153" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D153" s="104">
         <f t="shared" ref="D153:H153" si="71">D43*1.05</f>
@@ -35437,7 +35437,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C154" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D154" s="104">
         <f t="shared" ref="D154:H154" si="72">D44*1.05</f>
@@ -35465,7 +35465,7 @@
         <v>102</v>
       </c>
       <c r="C155" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D155" s="104">
         <f t="shared" ref="D155:H155" si="73">D45*1.05</f>
@@ -35490,7 +35490,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C156" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D156" s="104">
         <f t="shared" ref="D156:H156" si="74">D46*1.05</f>
@@ -35515,7 +35515,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C157" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D157" s="104">
         <f t="shared" ref="D157:H157" si="75">D47*1.05</f>
@@ -35546,7 +35546,7 @@
         <v>84</v>
       </c>
       <c r="C158" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D158" s="104">
         <f t="shared" ref="D158:H158" si="76">D48*1.05</f>
@@ -35571,7 +35571,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C159" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D159" s="104">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
@@ -35602,7 +35602,7 @@
         <v>84</v>
       </c>
       <c r="C160" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D160" s="104">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
@@ -35627,7 +35627,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C161" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D161" s="104">
         <f t="shared" ref="D161:H161" si="79">D51*1.05</f>
@@ -35658,7 +35658,7 @@
         <v>96</v>
       </c>
       <c r="C162" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D162" s="104">
         <f t="shared" ref="D162:H162" si="80">D52*1.05</f>
@@ -35683,7 +35683,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C163" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D163" s="104">
         <f t="shared" ref="D163:H163" si="81">D53*1.05</f>
@@ -35707,7 +35707,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IKl8VzVZpUcvahuNXgeSyZDMedt3S5hwvb+wZsUYzwGItB5YKKivCaCwg6TQpIakRDpOq+T6H/tcgYlaRZXfMQ==" saltValue="rw+xUHSlYbbwOKqmjqWi6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kaLOFCSY5rUCdMwJ1OyGJm6My6w4sqn4C5TXVrjOF9Cs2IVV8Iedljkb17GuaiX72ffZDRFmYZcuVFNhLFaBQg==" saltValue="pUjWv4aH5rxX9x+gM++4ZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35741,7 +35741,7 @@
         <v>163</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="29" t="s">
@@ -35766,7 +35766,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D2" s="104">
         <v>1</v>
@@ -35784,7 +35784,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D3" s="104">
         <v>0.2</v>
@@ -35808,7 +35808,7 @@
         <v>86</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D4" s="104">
         <v>1</v>
@@ -35826,7 +35826,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D5" s="104">
         <v>0.59</v>
@@ -35850,7 +35850,7 @@
         <v>86</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D6" s="104">
         <v>1</v>
@@ -35868,7 +35868,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D7" s="104">
         <v>0.6</v>
@@ -35886,7 +35886,7 @@
     </row>
     <row r="9" spans="1:8" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="106" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -35894,7 +35894,7 @@
         <v>163</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="29" t="s">
@@ -35918,7 +35918,7 @@
         <v>86</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D11" s="104">
         <f>D2*0.9</f>
@@ -35939,7 +35939,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D12" s="104">
         <f t="shared" ref="D12:G12" si="1">D3*0.9</f>
@@ -35966,7 +35966,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D13" s="104">
         <f t="shared" ref="D13:G13" si="2">D4*0.9</f>
@@ -35987,7 +35987,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D14" s="104">
         <f t="shared" ref="D14:G14" si="3">D5*0.9</f>
@@ -36014,7 +36014,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D15" s="104">
         <f t="shared" ref="D15:G15" si="4">D6*0.9</f>
@@ -36035,7 +36035,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D16" s="104">
         <f t="shared" ref="D16:G16" si="5">D7*0.9</f>
@@ -36056,7 +36056,7 @@
     </row>
     <row r="18" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="106" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -36064,7 +36064,7 @@
         <v>163</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="29" t="s">
@@ -36088,7 +36088,7 @@
         <v>86</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D20" s="104">
         <f>D2*1.05</f>
@@ -36109,7 +36109,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C21" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D21" s="104">
         <f t="shared" ref="D21:G21" si="7">D3*1.05</f>
@@ -36136,7 +36136,7 @@
         <v>86</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D22" s="104">
         <f t="shared" ref="D22:G22" si="8">D4*1.05</f>
@@ -36157,7 +36157,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C23" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D23" s="104">
         <f t="shared" ref="D23:G23" si="9">D5*1.05</f>
@@ -36184,7 +36184,7 @@
         <v>86</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D24" s="104">
         <f t="shared" ref="D24:G24" si="10">D6*1.05</f>
@@ -36205,7 +36205,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C25" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D25" s="104">
         <f t="shared" ref="D25:G25" si="11">D7*1.05</f>
@@ -36225,7 +36225,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+ep0HJRieMN1M/CvtFouceqb1u7xO6iWbWBXwS5fR5idhUOwGIXz0mctdmAcOUE2kCoHdyFjaMFzQTAqMSJJFg==" saltValue="GC56qqGoyWkC1OXOQdtssQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="K7449UN8fCCtHjhV1TT/EHOCutx1W348Noz83mxOGnGQ1GZKSdfMQIIh3mUlCJsxTX7MjSah+TZCUiDk7u29eQ==" saltValue="0sdR1Tfi+2zFppmfYVJngw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36241,7 +36241,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36368,16 +36368,16 @@
       <c r="B13" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="E13" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="117" t="s">
+      <c r="F13" s="18" t="s">
         <v>76</v>
       </c>
       <c r="G13" s="19"/>
@@ -36665,7 +36665,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lqRXn/ZyWVgXO468CyYnN9XuT9rQQjI0JIPnoqCJzcUAuFwYRYNfAimZ+doY93rAVx1h2+LcEB+DoOEjNYRjIw==" saltValue="DrrJ8Ri0l79go3JBG8L6DQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5CC92xQSAbuERyF5nHQYtfxLxijEbAVil88uBB7yW37O0XyMkF5rMogHf7iaXiSasZAugJg9HLLSzT0AeqSCUA==" saltValue="RkRFvI73XErKwugEVqgdIw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36961,16 +36961,16 @@
         <v>116</v>
       </c>
       <c r="L13" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="N13" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="O13" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -37089,7 +37089,7 @@
       <c r="G17" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f3FykH31cUwoXVxtkx/Eb57x6krHd+6tcFOg14hA6M3JUc5mZZ9PqB6Q+HqEuEpzHcs+7v+u4GgBm/SfWApgHw==" saltValue="s79J2yU1IPZO2rJkn1xSAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y0vlIPeSabggTgxSnh1T6fY6Rwm0CRe3kEIYyYEYgqNv90mLa6z8DcpyklQDdmoSwI+6W6co3a0o0jnGDWf3BQ==" saltValue="YacVu3TO4JAJp7PRGlzXBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37226,7 +37226,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HuDAf8r1hfyVLOWG6L8kKBc9aSZMs57a6s04/cNT2iKHs02cwL5ucif9RC/0tkGf1hMIBllT+FrjaySFKTplag==" saltValue="+uer8vMJhgdE1CloiYzmig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5NolUJTqHUsAIk0W5D1+jSjw7joEk4UE0m17cPkCeRH3RvzVgMFRWXEpBJsoLoLC7w9RG6PzMQ/7+5AyNnZcIA==" saltValue="pMSfDp3QNRlGkt8A+Tw9Yg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37433,7 +37433,7 @@
       <c r="K14" s="115"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tmFKPcKQc0lnsS6dj1xHbV8ODVZYOeO20bATRzDHwEZ9sVBP+rPqigi1YxYghpyrbG04zLg68cx4immmm/nnsw==" saltValue="Uyv1DYqFLKnmHCQXfTqbOA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/Pu636nvz8PuG/yBtQsmO7DfJYv8Aa0mXXBrvRYvD5g0uOAxjHlKHALVtOsuuKyHGLanz+Yvrg45/iPOPHnNwA==" saltValue="f0EKYpzfFlljXP3CMIOtBA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37514,7 +37514,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="98PEMDbZ0ytwSHvgQ+/CioeH5d9q8YbiXL9YbzU2VOZHehI2kj7Q132UwdZetxk0L9feGReRCsvIycDfQ1EAtQ==" saltValue="ref0PVT+XwmLA8axC+JgNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uiSow2eorIZv/QAW9o6VYHI6rarAypCSabyAZ59LbF6edm/Tqe+9eRzPtcbatqCaatN0ZMgfRa/aLXEeOG/3iA==" saltValue="Vbrq9in4TzH8+1QTQ+49rQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37774,7 +37774,7 @@
       <c r="E21" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZvfNaqHO291Ri9O3OcvbyKwsQden/XDsH1MT2I43tAB6IKRbSJWsY1uLODSX6mTykiaDgok62lfCR5w2CkKETg==" saltValue="3mBqnfBNkcXrl0j4GVKm6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2WPVuimcNY+5KSzxCo54D+18fsvuarRIEhBe/1PArFQNPJ4zE/1hJji4mt52+p0e7B100czS0vh+5H902QdFZg==" saltValue="Kun//2K30gwi5zJ81rEMrA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37838,7 +37838,7 @@
       <c r="D3" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="J4IqkzSAQh3m3bA50rgBqklhoUA+zysV6FDmCVpXua6/2cPhiG03AAVZ03ahn4353oXVw/pdJdx/4wGgx8xanA==" saltValue="ymBKGXDbSefQBA1UHXLCoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KZApqoLowvAdiJNY6x2tbTbrC+7sCs+NBWUD0L6Ru7iYihM9yr+Y1UMMHO7APZTQbEznuskVI727VGuW3bQINw==" saltValue="QYWtwu4/xmpWCAc50n8T7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/es/demo_national_input.xlsx
+++ b/inputs/es/demo_national_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B762ADFD-65E0-4FF2-BBAC-CAAD89DE4AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B595CAC-D0C0-429E-AEBF-4C2201E1D4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="6840" windowWidth="31920" windowHeight="14040" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4856,7 +4856,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Baseline year population inputs"/>
@@ -5867,7 +5867,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vP/qU9SLAqgR3KfvXyx1S+ksrxE5ErlYdl8ZMwokI3D/xGbQnu3/4kRyUV0XY54goa+imwGZFF9tthJTP4K7xg==" saltValue="lu9VEpp9x0NCpqpWqCq3xQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4z7/6GzHIHpX52yLUPCzmqKI+G0Zd3W/QH3tlD7+8HcnKddrBOV6AunkIheDHPqmzcBjADTEH0qNbJ0Z4haAqg==" saltValue="7fnupWgm+C7VBOEFArSASg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6796,7 +6796,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XPRir2bhVW1gxEH5z+xXl2rDwHkunWUlx/PCw08zce8iOXdq7Yi8mN6W50fe+b+wVhfAwjtzfew285h8WgnDjA==" saltValue="h2Wq2EGKmSdE4CsPSltRbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z79yzZlbts6x6g1Dr2UO8u/rg386opyrKr61RfFTH+Z2DFCmkqBFA0Ljcyet0H1JFkVqPjh1dZvemw53zYidVg==" saltValue="j4x/Iv+7JzXDhaWc8hlcdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6960,7 +6960,7 @@
       <c r="C20" s="67"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dZ3xpEZVrrIaPBfnqLakl6FX+oSy/HO0YzHjUkyTOuP7y0IAsCq+PTnAGTWuE6luz5zc9qhAfk4PXubm6QnPHA==" saltValue="stSj8cj6UkKSs92si4uTAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JQtEc/iAniHIMHxIujjt6L9UHQgKjtSAdrP17rdFBi1/ZX66fVMGO9nWVfOotYyDAWec+HMYVYuuSaz6U4852w==" saltValue="wAdpaz/5EQGoAvPnDAdsOA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7060,7 +7060,7 @@
       <c r="A19" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gYWKvfMd3qLgADeg/lwQFgpbAOBNne6vz3LZI4xjaa9fSN73MHmtid8/ii8I1NxJG9w/BK4HclnfKuNqKD0Kvw==" saltValue="x//PeRxYwF7mJN99eWLWag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WBRmludNUtwMjNc531McGD5M3JpLTIa99Wn5m2HsxJsCW+1SH1AhkotnTFSKsG8vkfMVh8cnICi/Istl3GFRAw==" saltValue="kEBgE03964fA8+pQBdjmhA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7175,7 +7175,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Mx73HFWf7cpfunJpyyTXxjeaHemqd/1mEJRGlNZu9wnEg0qBt7Ng7FDkfOD3NyTIBr+yBRE9XTk8scKgX1E5pQ==" saltValue="zPeoMnBjODnB0EKicytwpg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FR7d5TiscGkQQOYrnjcbMDMbWIhlzYixF5M1OQeqXMidYz4fOZGmeX6oKzQCGC3dZUX6k/Pwg4RYKfcCTwiCgA==" saltValue="3/hi48li0ZPCiNk9gdNNrg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8936,7 +8936,7 @@
       <c r="B40" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NvAJMLu3I2l3OUe749jQcK+LhyoHLzpDENQdvzyoe4ZSCV9odQ/4KcKvu1JXoJArmzyV6vmt7oTxKM6OlLnifA==" saltValue="HTn4EXQbZgq6Q+MUCXd+mw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BmTCA89xo9yW5MQxR5LUsrNf3ZBwt+nTTz9T/uUjLVH9a7IPLX4VmwHz/ggzRo6PAp9iJ5vd8cusIrFikuUKpw==" saltValue="kOfk3yXJFSjLwc4lQtMLDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8976,7 +8976,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UlwH5UhzS2GD9FeJ4c7T5V8kUF601RuZjKC4yI3rRUB1lRooRBsvrqGgKmudiWZd2ktssPBmYP3ypBkH6uJfJQ==" saltValue="l7tTkPwehQwsInjjp/+TmA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="w365kNqpJg2+DZweZLlkVJId21/y9bbFsJr/IMIzYjnhD0p1NzD8O9s8Scw8vhMirGLhzDrXUC2lx+rPA/jt6w==" saltValue="/Sueby28YyVhGe+QMmWX4g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9181,7 +9181,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GI/O5spqN6a6MK6hac7T0GQW9xv9oEQo32QHun5WCMZ6upIMMxtyAP/5LEWh1k5FwYhVgaq4V0Gf/XvZz1BW7g==" saltValue="egy5VfHCL5GfMynrAhzxCA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kEdkZzxPCN3kqHCTevXdh1/iOJsZcR+YgMJl+OfYmH3WXzLhCD3zmwf9mxM9st8ZlL3HfVG0WfmM3JdlLS9lNA==" saltValue="9TSxAXgT3JBZM4STx09ALA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10995,7 +10995,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yknjzFczv7acQS8Oxa8WyfB0PqcXaVEFSoSW7lmpRUd16hQM9rS1JyDnnuOqz+O5pXmoipYpY4JYRrl7yaZcwg==" saltValue="ElC8YS0KmNAmRkhaUX6F1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IHgWFc+7xEu7GMmVjJa87Y/cPsFwfe4to9hUJ+LsPFzoNumw7N8GO0aZvqjJZGBuvdjM4UVURKB6Ix/2RRIzDg==" saltValue="pgr6Xyk8skTA4u1OZ3Mjxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11762,7 +11762,7 @@
       <c r="K39" s="101"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="B5Z6r4q3/+k3uGdu81hHegpRsyxPmYtzJJToJa6hqYa8YiW2/TMo/bNsPUDwoUxEFgXY6Rvq/wDqCqsHHLMGGw==" saltValue="JHSmP2q9TIYEL/V6V15Ojg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XkuPTZ/dOQ3ZtTJ7BGR7noB+35BME8ujSoVeDljZhI9y6TvkMs79Klqj21mnN24SyYDgaZJAI2Q5lvgKDjVBvA==" saltValue="tVOh6rKDyfJCPHvEhXZK4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12136,7 +12136,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="67NHtW6Wkoe/abJ6ypy8LchuFDItFMrsdkjWmJgjLjRcLcV59UubOOn4lusXsRgtDfr8BgF1TSVKpEwneorNwg==" saltValue="/cupjYFplMGJGKOav2QMYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YGv3uECiiJpxhrBSAr2N7eop5G80x4F31G6AQf3o4XbvGoEL5IbJNWDtvVJP4D9pG0S6Qbue1ei4q7jGK2hPAw==" saltValue="QLKwHH9FVXPK/lIe47OJ4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13225,7 +13225,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SbERxv/aFQb8SJwArwp454Yv4dsyw+O6d1c2D5Q3AdvRwc82o1JtaJRSvmGGqKgC5qCcZaJGhTB+tVSBE7cwwA==" saltValue="DGpm8fnXbLWStJ4KiphWsw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oW8F/kFPeGKKffgHUvpfgVo4x+YZY+dtjskXlWxPeFYZPnHHsLEoDXSg/kV2c60995ZkAz80ltX/zqShJXHi5A==" saltValue="MycRegKfUr7CeN+JSwD9cw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -17042,7 +17042,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nDPlgO/Scpfjjwn7tUTQd/qykd+1I7oTRD3FxXPrmu9qNdJo3SSHHgjx1IE3JpoyTgOQl+3aNs/072d67xvuRA==" saltValue="QadJvt7a7IRAvCDwAxXcMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9I7r1WHFgdh6VsYd7Moi9oXIIy7XHjpcahFGABcAul++FUhNWydKTQjh46Rg82VQHAEPlrINtr4Vr5uIc1HPPw==" saltValue="i7zFGNCDyco3iruT5+fbBA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -18311,7 +18311,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EghKakJ8IhxvxWti+9koQXWie2mi0iatkHJ3GxnQ1APNXRLGFTJWz5HydyHvxH2iQQdxlEiBGOkh/szSAA/b/g==" saltValue="4nw3mLIEyCl5ol33rZy73g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UU8tCtLsQrbC6d1BSwnF+/1qiIyMwStcVJ83muHBy8/ZPNLwbgcd1XS9KtYJ8lF2jrNtMj4Ax6WP6KjcPhdYoQ==" saltValue="FnpdqFv8P5Eya90ALNwXFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26452,7 +26452,7 @@
       <c r="I328" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WD/sTcRWTwdCiFSXEV6BOudfLhUiD++FStpCA8806uL54hvVJQ1wAwusoAHOvHUa7pVtGFKsWM+4uHxaM7p1zA==" saltValue="fKRMr6B1ZrqWTxrYbrtGyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="r5yf7lAPrObANvLY2hPQJ8QTAdgNvXETrrdbsaitxcBTuuMdxgeymb+YNgL+8kBXfmW8uP2BLyymMf82TPXsdw==" saltValue="RDgFgRJk76RpE6aZ2oncnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27544,7 +27544,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XUJddozSmKRuLAK6IsjnR4pNHo9EHyEvabZR44m6+gXKFQVoW1fm9ZauclMrbDk4Vfc7EcWKzflLgExg97MSgQ==" saltValue="Cc82YCnGzlnUdvaljX67lg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EikaL1RZv30XBXVqf096tCWZfqtfGPlOuM0OOc0zkOHefYjwY7HQhMXag/qQOZWBwsFUjqD3zwtR/h60MqW1iQ==" saltValue="+PxGoHyntD5FTu+2/P3hug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28419,7 +28419,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nPPwVpr52YXPA2Ww3xzbbyBwd18eGIpggzcvYhp6AcSaimhzFBiafg+LWhN6AOic/BjoKd+eWXw6lCU+sylcew==" saltValue="oSBE+0ivOVYz/iOeGczINQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cL5Qz9yFytY1lw2+hR6ZqZykS363LjAUR6gzHobzeD7b78jWHMP3AJ+qmUSvExKGqBhzsdOZJHeD5E5EUvt84w==" saltValue="HAsKzfEOhrlzkMUUVleqTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31306,7 +31306,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="S842EhbtQI/AoI73NQG2VmQuLQaGYHysWs+VzHMtCR8tKcggeGqJ7hCofzWvYL/IKTaOSW0yu0FkuA8rzJYL8w==" saltValue="zHDyudLnU/ZUD7BDW6uJTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hMnQWvbi0tpd1xoisy3SuRaNPxNPjs7MtC82uFHzGo3YAA3pC8S7ndUYy0Si0e0CtQZkP6c8QPGugyMMiwlIVw==" saltValue="5Jy3CKbG/72n+pLrSSgkaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31590,7 +31590,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sXK54YAVpr1RhfL5G0Z1VjBYPPCH9poU4XghHXgZHptHpnpk5kr8FOfUK8+77ZivJDe3wY3TxF0nvSYGY8Z+2Q==" saltValue="pKcugdW0DoBGD3+XzxPNJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="snx87qY3WpLbb6JuIgKj0e9DukHePWMRhSfyDsVgEwaPFzzueACPfpqOPbTntB1g9Ml9d0Vvtx49Mnffdt/2Ng==" saltValue="VmTwZVt/4qdWtjOyuXIUWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35707,7 +35707,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kaLOFCSY5rUCdMwJ1OyGJm6My6w4sqn4C5TXVrjOF9Cs2IVV8Iedljkb17GuaiX72ffZDRFmYZcuVFNhLFaBQg==" saltValue="pUjWv4aH5rxX9x+gM++4ZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wKihEq7jUi+YbbB33TILbXCGEaCWn1XzULXGusR10ynxUpf01THci23RbtUu/pk1uIzT1qAWuKUmQMNC4vQDuw==" saltValue="NRB/HME9m8XiSHFp20SLgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -36225,7 +36225,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K7449UN8fCCtHjhV1TT/EHOCutx1W348Noz83mxOGnGQ1GZKSdfMQIIh3mUlCJsxTX7MjSah+TZCUiDk7u29eQ==" saltValue="0sdR1Tfi+2zFppmfYVJngw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TqBtQjEor0EOHnrp8ZM80GG1ahZL9yHZSDDNysSv5BIrVzDeXtRNiRyxSru5ATcs4P/ahN42iaES5YpPFBhwZA==" saltValue="laaGaS5g8vxR5y1lcSZGpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36665,7 +36665,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5CC92xQSAbuERyF5nHQYtfxLxijEbAVil88uBB7yW37O0XyMkF5rMogHf7iaXiSasZAugJg9HLLSzT0AeqSCUA==" saltValue="RkRFvI73XErKwugEVqgdIw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Rt2iPcXzfE0XnCaR7PrcQ8+39lNcxNX0eBXPOI2CKGECtPY8i1gOlA0UDVkjlFCqY9UN/etdchIKuFrp5K+cdw==" saltValue="lD73bLErGLAg2Gp3jCatEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -37089,7 +37089,7 @@
       <c r="G17" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y0vlIPeSabggTgxSnh1T6fY6Rwm0CRe3kEIYyYEYgqNv90mLa6z8DcpyklQDdmoSwI+6W6co3a0o0jnGDWf3BQ==" saltValue="YacVu3TO4JAJp7PRGlzXBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SwGGB5+O9KIMkEqm2w4D+/XCgu2jd0Makd80pGnlwMemvgY8Td//wn9LS0gP5sdtWnwTiEFJ2ukcKkAw5WRM3w==" saltValue="GaPM34h/vCq6JCdO48yfKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37226,7 +37226,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5NolUJTqHUsAIk0W5D1+jSjw7joEk4UE0m17cPkCeRH3RvzVgMFRWXEpBJsoLoLC7w9RG6PzMQ/7+5AyNnZcIA==" saltValue="pMSfDp3QNRlGkt8A+Tw9Yg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RCSS9qriYaav/hiixygjGXoVUMt3r5KXudXfmuw9OZhicOmBkKt+HIdAksAOi0PCZUWd/yMHkDY4zoMFcODQJA==" saltValue="Fhm7cWwoRG62gAgCDWfQmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37433,7 +37433,7 @@
       <c r="K14" s="115"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/Pu636nvz8PuG/yBtQsmO7DfJYv8Aa0mXXBrvRYvD5g0uOAxjHlKHALVtOsuuKyHGLanz+Yvrg45/iPOPHnNwA==" saltValue="f0EKYpzfFlljXP3CMIOtBA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EWeg/q2uQ8HOxIcE8h8CGoXOlzWLsxmLhW0eKMhmgj0xrpYvVh+1bnrtGbLHOtyB9y6/+eUntm13npEIEez6XQ==" saltValue="NDSXFLM5pIdxFc3MmiGyvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37514,7 +37514,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uiSow2eorIZv/QAW9o6VYHI6rarAypCSabyAZ59LbF6edm/Tqe+9eRzPtcbatqCaatN0ZMgfRa/aLXEeOG/3iA==" saltValue="Vbrq9in4TzH8+1QTQ+49rQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dd7MDdUXxkKrn+ESoehdyqQRPkX7dfpaGyTlrEfukPu7WggtfVyKyX6mHk8clt23Q000CKfHt4l8oyHwuT7SnA==" saltValue="quL2Tb2vaRZTY/t6hmcJ1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37774,7 +37774,7 @@
       <c r="E21" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2WPVuimcNY+5KSzxCo54D+18fsvuarRIEhBe/1PArFQNPJ4zE/1hJji4mt52+p0e7B100czS0vh+5H902QdFZg==" saltValue="Kun//2K30gwi5zJ81rEMrA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UA6C2YoGkZWVroI0s4RznXzy8iNMM1qgCa1WrQxp6IVq53fCypbrMWeRZklQ2h/OUkQl79ibayU1QhwnyywPsw==" saltValue="YDrCV5U1xPt+3Vj47Uai8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37838,7 +37838,7 @@
       <c r="D3" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KZApqoLowvAdiJNY6x2tbTbrC+7sCs+NBWUD0L6Ru7iYihM9yr+Y1UMMHO7APZTQbEznuskVI727VGuW3bQINw==" saltValue="QYWtwu4/xmpWCAc50n8T7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pMejxL7S0pNWi4IsNV9gOgVvFPXAIlEhGRgvzLC1VSm66ASx9IaUUqAO4WX0nM7K+IgMByS7QR5c27eWmCNfJg==" saltValue="AzkgnvjyTZPCTTx02D7zMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/es/demo_national_input.xlsx
+++ b/inputs/es/demo_national_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tharindu.wickram\Desktop\Modeling\Nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBA3ED15-51C0-4D24-B794-DA3260BAB5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1728EBB2-CA3A-41B0-884B-9C1355DF98DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3670" windowWidth="19200" windowHeight="6530" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5686,7 +5686,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bl2v7GDzlH93spywAzeliTjzKDSJAJ2PPqMou2jUmDrgreIKZczRy6b0l7WVSvObRtkMTO1iklEwP5xIuAzRmg==" saltValue="/2pZSE/isRj8ew/mWeUd6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zhbTzzcfAyq52lTbsIGNWIX0DxljXic3fhvn0NUgwQyaOq0YSGLzi9ivd5UAYG5hfXq44WEIUCZ3V/Gedo513g==" saltValue="uT33CDhRD001LrebR6fu9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6615,7 +6615,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hUKtkUaxppRJYEQ1yS6dKy9yINshXzMY0QjyUaejxni+6Fj4V/6XqmMX53aXEOico8Jx2BOM1snWC55TmbCTTg==" saltValue="u9s2HScmciSoK8U4o+0aCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3GrAv89VKXipmXpH8M2eWLJNq11swQoTtUx0vqGdsJyGgN81CW3vUn4lzuP2bd4sPCqlkAMOrdE5WfhLSSCNpQ==" saltValue="GtJCaw1fEJPnyP9AqEw6dA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6645,7 +6645,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6779,7 +6779,7 @@
       <c r="C20" s="67"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3UHKzFwEQjifZ9inhvuOvel71Xe2ZENIg5+TMd4jnmQsPiPlKEWQoQi+rOJpKlG01sEhhicsKThJOZDUjsvtmg==" saltValue="UeU4VFRRM/ckaG/Uo7fLoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Cj2N2Oymxk/TnhhrMowAxyZbCv08ySQ05CeypoHOEt078K3PqCMLFYcQBF5vcat+r3I82f8x4TMwUTEgDXmROQ==" saltValue="rKLKD5gDMHKuxju+FjxY7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6879,7 +6879,7 @@
       <c r="A19" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FVSt69s5Ql9arZeVbnyLxZIf38lOmn0t4Fj6bFh5uvdrRDKeOLLkXK8DE7gaKJqUbzI9w4/V5QtZN7O6I0otvw==" saltValue="eO8KrN4nK53P20RWuwChtA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="j4seMMM3/tsKSY9/cl/+djiZzxRz2+LfifsZQepV9DLHg18fEDfC/9ras2ssTih57ABpf+1+bxBeDPTeLE817g==" saltValue="s3jAu6XEpCQcjCDHDb0/EA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6994,7 +6994,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q9ufri8uz5YuwatxnD2UaM76tGDfjQojL84qxPqmVSi5h9y6Hvd4K4QLF3KRB7QElNBuR8gAdxPCBiiGvvW+6Q==" saltValue="+ZgDReAfLJPA8Akh6JIJrg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nc8RkqzHrCybBmQDnwsjrBsdLTDG5rQSMENRIqKVO57FHsCJs1i2akLGMorIZpQUHp3S0CZa7VKPhO8yUzkUNw==" saltValue="pi+9IvLZKvGMvh1WaDlIvg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8755,7 +8755,7 @@
       <c r="B40" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TmE9l2uQhufONiQ/RV2nffdHI2/q52dIrZgOoPkUxjouNNmg0XQuKujFj8gdbefm0KB6fOvK69hEy1EIAoQP8g==" saltValue="1d+Vr0155R3mYzPhUzs1Bw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0oo+ddulpuqqKxStdUXG9mXV+oM2JHb30Zo1qDFXAc9NtYPf7fimUuTjWM4qg676HT22yIqhSmbfYi2d/Glt3A==" saltValue="LX9xAK2eiqr9IM3kFsCP/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8795,7 +8795,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jHipUHwur78PaiUoDisA7G94TVXyGv/pgHy3p+avmCq7bYAkEpB/vcH7+q3zxGjqJ5o/kn28n4GIe4IiRemvPw==" saltValue="gYE1IlZ9kG7zgoqBACkQSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uOPtQY6lVN1S9CBNLx+y0fadptpahNXRa1IpPPoAGtjgFaNoIBXWVCHSINdM4lG1EHYbUicd3mhzWZKrn0Uv/w==" saltValue="Jv8YznzfQuCcFjKPQTkaOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9000,7 +9000,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zV/dK2LZQFLxH1kS6Y34w7SVXyFC2s/Uy2Zc6pegUf2jbuH3TXPfN9U9wr7SJOPNZds6giU7WifIhHmoqvxBYQ==" saltValue="i/UmeWWRJzdr4Fax3tVs7w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Dx0sipvllz2zJayYzkUGBEEwqf7mZSrhN3I+X5Z+dp8xaEWH6jlA26k5scIIuaUsPiV+bNufpWXs3mGVKj4qEA==" saltValue="tbxA2IY58HE45NZ402pyBw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10814,7 +10814,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KSlicjYHaRk3irmLza71QypttogicWYFnSiIf57LwkvoEyDshlxoXh85ZaiaDaP6WJgIKPwYHvXjM00R+WWqqQ==" saltValue="hlqATlxFkiANljUaFzxrkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3gp8qJ7JTMrdVYLCb67+tOh4SnWCmtoOyBRZg5eh+PEPKxXAde96dMpJesBYawHPdzC3PY+O169rIjeLYjEWvw==" saltValue="1FzNHzZWHtZIShhy33V9HA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10826,7 +10826,7 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -11581,7 +11581,7 @@
       <c r="K39" s="101"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8nLTzKPgVYKhKpldq77auJPejWPhpi2h961Ay8nKtGIaQFj/KY6UBzffDHtEIKr7JaBUmq0AlGGp3qZqEh3RzA==" saltValue="ABeYJ6aA9psxRezMlRMYZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="U80nqQGON3XStfW5EbGuVPB5WwBj2FNhz8UZJwHXJqOYHtdXFi4ns2ym1JFhrGHDi8yuzjfKb1Ny3xBUymK11A==" saltValue="R9tfaivapcELz1PtXynnFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11955,7 +11955,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RwJf1sv5trCeVxVNru4uaBf6/+ghJdujIK4+bQ3pZLRdOyJoxjYd6+oeckIBFxGMldudNTAydlJAd4opWgfpUw==" saltValue="BPqcbh523B4nj5GBkHoikQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mA1zDVVE1V0q2OQp84hEEdDkmvxwHGPNJjA23FTvt2AH6bfVgdXOT4yMF600W9sN06J+TfhwV3AMuck7VdRlsg==" saltValue="6shr3ctuX0Ky/46zB2xaIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13044,7 +13044,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="euKU12ZRqDCCUuH9FUGRR4FhL83lbE4eQCoJjeabwG7A4Fwh9sx2iBlyJSLiHSurbsLDYv/Fa3fgCmRc6GGnqA==" saltValue="RfDLyPSo7CzCyi6ilkzBqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z0eue4EgMpwlsA46NSihLtRn9DhwyOOWJt1mOMtX6RUhbXqk+TbqgvoN/D1uaztVZ68bTdEM3whCEjSUlNouyQ==" saltValue="JAS/ZRoHoGQoWFBtRGSTUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B17:C17 E17:I17 B18:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13063,7 +13063,7 @@
   <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13178,8 +13178,9 @@
         <v>150</v>
       </c>
       <c r="D5" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$C$2),1.56,(1.56-'Distribución de lactancia'!$C$2)/(1-'Distribución de lactancia'!$C$2))</f>
-        <v>4.5</v>
+        <f>IFERROR((MIN(1,1.56*'Distribución de lactancia'!$C$2)/(1-MIN(1,1.56*'Distribución de lactancia'!$C$2))) /
+('Distribución de lactancia'!$C$2/(1-'Distribución de lactancia'!$C$2)), 1.56)</f>
+        <v>1.56</v>
       </c>
       <c r="E5" s="102">
         <v>1</v>
@@ -13200,8 +13201,9 @@
         <v>149</v>
       </c>
       <c r="D6" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$C$2),1.56,(1.56-'Distribución de lactancia'!$C$2)/(1-'Distribución de lactancia'!$C$2))</f>
-        <v>4.5</v>
+        <f>IFERROR((MIN(1,1.56*'Distribución de lactancia'!$C$2)/(1-MIN(1,1.56*'Distribución de lactancia'!$C$2))) /
+('Distribución de lactancia'!$C$2/(1-'Distribución de lactancia'!$C$2)), 1.56)</f>
+        <v>1.56</v>
       </c>
       <c r="E6" s="102">
         <v>1</v>
@@ -13248,8 +13250,9 @@
         <v>1</v>
       </c>
       <c r="E8" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$D$2),1.56,(1.56-'Distribución de lactancia'!$D$2)/(1-'Distribución de lactancia'!$D$2))</f>
-        <v>2.0055204598486145</v>
+        <f>IFERROR((MIN(1,1.56*'Distribución de lactancia'!$D$2)/(1-MIN(1,1.56*'Distribución de lactancia'!$D$2))) /
+('Distribución de lactancia'!$D$2/(1-'Distribución de lactancia'!$D$2)), 1.56)</f>
+        <v>2.8134491663553263</v>
       </c>
       <c r="F8" s="102">
         <v>1</v>
@@ -13270,8 +13273,9 @@
         <v>1</v>
       </c>
       <c r="E9" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$D$2),1.56,(1.56-'Distribución de lactancia'!$D$2)/(1-'Distribución de lactancia'!$D$2))</f>
-        <v>2.0055204598486145</v>
+        <f>IFERROR((MIN(1,1.56*'Distribución de lactancia'!$D$2)/(1-MIN(1,1.56*'Distribución de lactancia'!$D$2))) /
+('Distribución de lactancia'!$D$2/(1-'Distribución de lactancia'!$D$2)), 1.56)</f>
+        <v>2.8134491663553263</v>
       </c>
       <c r="F9" s="102">
         <v>1</v>
@@ -13481,10 +13485,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="102">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G19" s="102">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H19" s="102">
         <v>1</v>
@@ -13502,10 +13506,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="102">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G20" s="102">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H20" s="102">
         <v>1</v>
@@ -13523,10 +13527,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G21" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H21" s="102">
         <v>1</v>
@@ -13588,10 +13592,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G24" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H24" s="102">
         <v>1</v>
@@ -13653,10 +13657,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G27" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H27" s="102">
         <v>1</v>
@@ -13676,7 +13680,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="102">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G28" s="102">
         <v>1</v>
@@ -13697,7 +13701,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="102">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G29" s="102">
         <v>1</v>
@@ -13718,10 +13722,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G30" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H30" s="102">
         <v>1</v>
@@ -13744,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="102">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="H31" s="102">
         <v>1</v>
@@ -13765,7 +13769,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="102">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="H32" s="102">
         <v>1</v>
@@ -13786,7 +13790,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H33" s="102">
         <v>1</v>
@@ -13806,10 +13810,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="102">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G34" s="102">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H34" s="102">
         <v>1</v>
@@ -14034,7 +14038,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="102">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="G45" s="102">
         <v>1</v>
@@ -14055,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="102">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="G46" s="102">
         <v>1</v>
@@ -14102,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="102">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="H48" s="102">
         <v>1</v>
@@ -14123,7 +14127,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="102">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="H49" s="102">
         <v>1</v>
@@ -14158,16 +14162,16 @@
         <v>155</v>
       </c>
       <c r="D51" s="102">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="E51" s="102">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="F51" s="102">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="G51" s="102">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="H51" s="102">
         <v>1</v>
@@ -14302,8 +14306,9 @@
         <v>150</v>
       </c>
       <c r="D58" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$C$2),1.37,(1.37-'Distribución de lactancia'!$C$2)/(1-'Distribución de lactancia'!$C$2))</f>
-        <v>3.3125</v>
+        <f>IFERROR((MIN(1,1.37*'Distribución de lactancia'!$C$2)/(1-MIN(1,1.37*'Distribución de lactancia'!$C$2))) /
+('Distribución de lactancia'!$C$2/(1-'Distribución de lactancia'!$C$2)), 1.37)</f>
+        <v>1.37</v>
       </c>
       <c r="E58" s="102">
         <f t="shared" si="1"/>
@@ -14328,8 +14333,9 @@
         <v>149</v>
       </c>
       <c r="D59" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$C$2),1.37,(1.37-'Distribución de lactancia'!$C$2)/(1-'Distribución de lactancia'!$C$2))</f>
-        <v>3.3125</v>
+        <f>IFERROR((MIN(1,1.37*'Distribución de lactancia'!$C$2)/(1-MIN(1,1.37*'Distribución de lactancia'!$C$2))) /
+('Distribución de lactancia'!$C$2/(1-'Distribución de lactancia'!$C$2)), 1.37)</f>
+        <v>1.37</v>
       </c>
       <c r="E59" s="102">
         <f t="shared" si="1"/>
@@ -14386,8 +14392,9 @@
         <v>1</v>
       </c>
       <c r="E61" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$D$2),1.37,(1.37-'Distribución de lactancia'!$D$2)/(1-'Distribución de lactancia'!$D$2))</f>
-        <v>1.6643617323999775</v>
+        <f>IFERROR((MIN(1,1.37*'Distribución de lactancia'!$D$2)/(1-MIN(1,1.37*'Distribución de lactancia'!$D$2))) /
+('Distribución de lactancia'!$D$2/(1-'Distribución de lactancia'!$D$2)), 1.37)</f>
+        <v>1.9415046815127641</v>
       </c>
       <c r="F61" s="102">
         <f t="shared" si="2"/>
@@ -14412,8 +14419,9 @@
         <v>1</v>
       </c>
       <c r="E62" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$D$2),1.37,(1.37-'Distribución de lactancia'!$D$2)/(1-'Distribución de lactancia'!$D$2))</f>
-        <v>1.6643617323999775</v>
+        <f>IFERROR((MIN(1,1.37*'Distribución de lactancia'!$D$2)/(1-MIN(1,1.37*'Distribución de lactancia'!$D$2))) /
+('Distribución de lactancia'!$D$2/(1-'Distribución de lactancia'!$D$2)), 1.37)</f>
+        <v>1.9415046815127641</v>
       </c>
       <c r="F62" s="102">
         <f t="shared" si="2"/>
@@ -14665,11 +14673,11 @@
       </c>
       <c r="F72" s="102">
         <f t="shared" si="3"/>
-        <v>0.88200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G72" s="102">
         <f t="shared" si="3"/>
-        <v>0.88200000000000001</v>
+        <v>1</v>
       </c>
       <c r="H72" s="102">
         <f t="shared" si="3"/>
@@ -14691,11 +14699,11 @@
       </c>
       <c r="F73" s="102">
         <f t="shared" si="4"/>
-        <v>0.88200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G73" s="102">
         <f t="shared" si="4"/>
-        <v>0.88200000000000001</v>
+        <v>1</v>
       </c>
       <c r="H73" s="102">
         <f t="shared" si="4"/>
@@ -14717,11 +14725,11 @@
       </c>
       <c r="F74" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G74" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="H74" s="102">
         <f t="shared" si="4"/>
@@ -14797,11 +14805,11 @@
       </c>
       <c r="F77" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G77" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="H77" s="102">
         <f t="shared" si="4"/>
@@ -14877,11 +14885,11 @@
       </c>
       <c r="F80" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G80" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="H80" s="102">
         <f t="shared" si="4"/>
@@ -14905,7 +14913,7 @@
       </c>
       <c r="F81" s="102">
         <f t="shared" si="4"/>
-        <v>0.70200000000000007</v>
+        <v>1</v>
       </c>
       <c r="G81" s="102">
         <f t="shared" si="4"/>
@@ -14931,7 +14939,7 @@
       </c>
       <c r="F82" s="102">
         <f t="shared" si="4"/>
-        <v>0.70200000000000007</v>
+        <v>1</v>
       </c>
       <c r="G82" s="102">
         <f t="shared" si="4"/>
@@ -14957,11 +14965,11 @@
       </c>
       <c r="F83" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G83" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="H83" s="102">
         <f t="shared" si="4"/>
@@ -14989,7 +14997,7 @@
       </c>
       <c r="G84" s="102">
         <f t="shared" si="4"/>
-        <v>0.70200000000000007</v>
+        <v>1</v>
       </c>
       <c r="H84" s="102">
         <f t="shared" si="4"/>
@@ -15015,7 +15023,7 @@
       </c>
       <c r="G85" s="102">
         <f t="shared" si="4"/>
-        <v>0.70200000000000007</v>
+        <v>1</v>
       </c>
       <c r="H85" s="102">
         <f t="shared" si="4"/>
@@ -15041,7 +15049,7 @@
       </c>
       <c r="G86" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="H86" s="102">
         <f t="shared" si="4"/>
@@ -15065,11 +15073,11 @@
       </c>
       <c r="F87" s="102">
         <f t="shared" si="4"/>
-        <v>0.85499999999999998</v>
+        <v>1</v>
       </c>
       <c r="G87" s="102">
         <f t="shared" si="4"/>
-        <v>0.85499999999999998</v>
+        <v>1</v>
       </c>
       <c r="H87" s="102">
         <f t="shared" si="4"/>
@@ -15094,24 +15102,24 @@
         <v>150</v>
       </c>
       <c r="D89" s="102">
-        <f>D36*0.9</f>
-        <v>0.9</v>
+        <f>IF(D36=1,1,D36*0.9)</f>
+        <v>1</v>
       </c>
       <c r="E89" s="102">
-        <f t="shared" ref="E89:H89" si="5">E36*0.9</f>
-        <v>0.9</v>
+        <f t="shared" ref="E89:H89" si="5">IF(E36=1,1,E36*0.9)</f>
+        <v>1</v>
       </c>
       <c r="F89" s="102">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G89" s="102">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H89" s="102">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -15120,24 +15128,24 @@
         <v>149</v>
       </c>
       <c r="D90" s="102">
-        <f t="shared" ref="D90:D104" si="6">D37*0.9</f>
-        <v>0.9</v>
+        <f t="shared" ref="D90:H104" si="6">IF(D37=1,1,D37*0.9)</f>
+        <v>1</v>
       </c>
       <c r="E90" s="102">
-        <f t="shared" ref="E90:H90" si="7">E37*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F90" s="102">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G90" s="102">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H90" s="102">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -15147,23 +15155,23 @@
       </c>
       <c r="D91" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E91" s="102">
-        <f t="shared" ref="E91:H91" si="8">E38*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F91" s="102">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G91" s="102">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H91" s="102">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -15175,23 +15183,23 @@
       </c>
       <c r="D92" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E92" s="102">
-        <f t="shared" ref="E92:H92" si="9">E39*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F92" s="102">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G92" s="102">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H92" s="102">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -15201,23 +15209,23 @@
       </c>
       <c r="D93" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E93" s="102">
-        <f t="shared" ref="E93:H93" si="10">E40*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F93" s="102">
-        <f t="shared" si="10"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G93" s="102">
-        <f t="shared" si="10"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H93" s="102">
-        <f t="shared" si="10"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -15227,23 +15235,23 @@
       </c>
       <c r="D94" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E94" s="102">
-        <f t="shared" ref="E94:H94" si="11">E41*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F94" s="102">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G94" s="102">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H94" s="102">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -15255,23 +15263,23 @@
       </c>
       <c r="D95" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E95" s="102">
-        <f t="shared" ref="E95:H95" si="12">E42*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F95" s="102">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G95" s="102">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H95" s="102">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -15281,23 +15289,23 @@
       </c>
       <c r="D96" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E96" s="102">
-        <f t="shared" ref="E96:H96" si="13">E43*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F96" s="102">
-        <f t="shared" si="13"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G96" s="102">
-        <f t="shared" si="13"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H96" s="102">
-        <f t="shared" si="13"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -15307,23 +15315,23 @@
       </c>
       <c r="D97" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E97" s="102">
-        <f t="shared" ref="E97:H97" si="14">E44*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F97" s="102">
-        <f t="shared" si="14"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G97" s="102">
-        <f t="shared" si="14"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H97" s="102">
-        <f t="shared" si="14"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -15335,23 +15343,23 @@
       </c>
       <c r="D98" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E98" s="102">
-        <f t="shared" ref="E98:H98" si="15">E45*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F98" s="102">
-        <f t="shared" si="15"/>
-        <v>1.6380000000000001</v>
+        <f>IF(F45=1,1,F45*0.9)</f>
+        <v>1</v>
       </c>
       <c r="G98" s="102">
-        <f t="shared" si="15"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H98" s="102">
-        <f t="shared" si="15"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -15361,23 +15369,23 @@
       </c>
       <c r="D99" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E99" s="102">
-        <f t="shared" ref="E99:H99" si="16">E46*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F99" s="102">
-        <f t="shared" si="16"/>
-        <v>1.6380000000000001</v>
+        <f>IF(F46=1,1,F46*0.9)</f>
+        <v>1</v>
       </c>
       <c r="G99" s="102">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H99" s="102">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -15387,23 +15395,23 @@
       </c>
       <c r="D100" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E100" s="102">
-        <f t="shared" ref="E100:H100" si="17">E47*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F100" s="102">
-        <f t="shared" si="17"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G100" s="102">
-        <f t="shared" si="17"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H100" s="102">
-        <f t="shared" si="17"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -15415,23 +15423,23 @@
       </c>
       <c r="D101" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E101" s="102">
-        <f t="shared" ref="E101:H101" si="18">E48*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F101" s="102">
-        <f t="shared" si="18"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G101" s="102">
-        <f t="shared" si="18"/>
-        <v>1.6380000000000001</v>
+        <f>IF(G48=1,1,G48*0.9)</f>
+        <v>1</v>
       </c>
       <c r="H101" s="102">
-        <f t="shared" si="18"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -15441,23 +15449,23 @@
       </c>
       <c r="D102" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E102" s="102">
-        <f t="shared" ref="E102:H102" si="19">E49*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F102" s="102">
-        <f t="shared" si="19"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G102" s="102">
-        <f t="shared" si="19"/>
-        <v>1.6380000000000001</v>
+        <f>IF(G49=1,1,G49*0.9)</f>
+        <v>1</v>
       </c>
       <c r="H102" s="102">
-        <f t="shared" si="19"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -15467,23 +15475,23 @@
       </c>
       <c r="D103" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E103" s="102">
-        <f t="shared" ref="E103:H103" si="20">E50*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F103" s="102">
-        <f t="shared" si="20"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G103" s="102">
-        <f t="shared" si="20"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H103" s="102">
-        <f t="shared" si="20"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -15495,23 +15503,23 @@
       </c>
       <c r="D104" s="102">
         <f t="shared" si="6"/>
-        <v>0.94500000000000006</v>
+        <v>1</v>
       </c>
       <c r="E104" s="102">
-        <f t="shared" ref="E104:H104" si="21">E51*0.9</f>
-        <v>0.94500000000000006</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F104" s="102">
-        <f t="shared" si="21"/>
-        <v>0.94500000000000006</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G104" s="102">
-        <f t="shared" si="21"/>
-        <v>0.94500000000000006</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H104" s="102">
-        <f t="shared" si="21"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -15567,19 +15575,19 @@
         <v>1</v>
       </c>
       <c r="E108" s="102">
-        <f t="shared" ref="E108:H108" si="22">IF(E2=1,1,E2*1.05)</f>
+        <f t="shared" ref="E108:H108" si="7">IF(E2=1,1,E2*1.05)</f>
         <v>1</v>
       </c>
       <c r="F108" s="102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G108" s="102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H108" s="102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -15589,23 +15597,23 @@
         <v>149</v>
       </c>
       <c r="D109" s="102">
-        <f t="shared" ref="D109:H112" si="23">IF(D3=1,1,D3*1.05)</f>
+        <f t="shared" ref="D109:H112" si="8">IF(D3=1,1,D3*1.05)</f>
         <v>1</v>
       </c>
       <c r="E109" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F109" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G109" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H109" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -15615,23 +15623,23 @@
         <v>155</v>
       </c>
       <c r="D110" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E110" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F110" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G110" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H110" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -15643,23 +15651,24 @@
         <v>150</v>
       </c>
       <c r="D111" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$C$2),1.77,(1.77-'Distribución de lactancia'!$C$2)/(1-'Distribución de lactancia'!$C$2))</f>
-        <v>5.8124999999999991</v>
+        <f>IFERROR((MIN(1,1.77*'Distribución de lactancia'!$C$2)/(1-MIN(1,1.77*'Distribución de lactancia'!$C$2))) /
+('Distribución de lactancia'!$C$2/(1-'Distribución de lactancia'!$C$2)), 1.77)</f>
+        <v>1.77</v>
       </c>
       <c r="E111" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F111" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G111" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H111" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -15669,23 +15678,24 @@
         <v>149</v>
       </c>
       <c r="D112" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$C$2),1.77,(1.77-'Distribución de lactancia'!$C$2)/(1-'Distribución de lactancia'!$C$2))</f>
-        <v>5.8124999999999991</v>
+        <f>IFERROR((MIN(1,1.77*'Distribución de lactancia'!$C$2)/(1-MIN(1,1.77*'Distribución de lactancia'!$C$2))) /
+('Distribución de lactancia'!$C$2/(1-'Distribución de lactancia'!$C$2)), 1.77)</f>
+        <v>1.77</v>
       </c>
       <c r="E112" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F112" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G112" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H112" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -15695,23 +15705,23 @@
         <v>155</v>
       </c>
       <c r="D113" s="102">
-        <f t="shared" ref="D113:H123" si="24">IF(D7=1,1,D7*1.05)</f>
+        <f t="shared" ref="D113:H123" si="9">IF(D7=1,1,D7*1.05)</f>
         <v>1</v>
       </c>
       <c r="E113" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F113" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G113" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H113" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15723,23 +15733,24 @@
         <v>150</v>
       </c>
       <c r="D114" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E114" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$D$2),1.77,(1.77-'Distribución de lactancia'!$D$2)/(1-'Distribución de lactancia'!$D$2))</f>
-        <v>2.3825906322918446</v>
+        <f>IFERROR((MIN(1,1.77*'Distribución de lactancia'!$D$2)/(1-MIN(1,1.77*'Distribución de lactancia'!$D$2))) /
+('Distribución de lactancia'!$D$2/(1-'Distribución de lactancia'!$D$2)), 1.77)</f>
+        <v>4.5688105335991329</v>
       </c>
       <c r="F114" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G114" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H114" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15749,23 +15760,24 @@
         <v>149</v>
       </c>
       <c r="D115" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E115" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$D$2),1.77,(1.77-'Distribución de lactancia'!$D$2)/(1-'Distribución de lactancia'!$D$2))</f>
-        <v>2.3825906322918446</v>
+        <f>IFERROR((MIN(1,1.77*'Distribución de lactancia'!$D$2)/(1-MIN(1,1.77*'Distribución de lactancia'!$D$2))) /
+('Distribución de lactancia'!$D$2/(1-'Distribución de lactancia'!$D$2)), 1.77)</f>
+        <v>4.5688105335991329</v>
       </c>
       <c r="F115" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G115" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H115" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15775,23 +15787,23 @@
         <v>155</v>
       </c>
       <c r="D116" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E116" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F116" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G116" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H116" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15803,22 +15815,22 @@
         <v>150</v>
       </c>
       <c r="D117" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E117" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F117" s="102">
         <v>2.11</v>
       </c>
       <c r="G117" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H117" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15828,22 +15840,22 @@
         <v>149</v>
       </c>
       <c r="D118" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E118" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F118" s="102">
         <v>2.11</v>
       </c>
       <c r="G118" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H118" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15853,23 +15865,23 @@
         <v>155</v>
       </c>
       <c r="D119" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E119" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F119" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G119" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H119" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15881,22 +15893,22 @@
         <v>150</v>
       </c>
       <c r="D120" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E120" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F120" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G120" s="102">
         <v>2.11</v>
       </c>
       <c r="H120" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15906,22 +15918,22 @@
         <v>149</v>
       </c>
       <c r="D121" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E121" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F121" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G121" s="102">
         <v>2.11</v>
       </c>
       <c r="H121" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15931,23 +15943,23 @@
         <v>155</v>
       </c>
       <c r="D122" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E122" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F122" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G122" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H122" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15959,23 +15971,23 @@
         <v>155</v>
       </c>
       <c r="D123" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.1025</v>
       </c>
       <c r="E123" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.1025</v>
       </c>
       <c r="F123" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.1025</v>
       </c>
       <c r="G123" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.1025</v>
       </c>
       <c r="H123" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -16001,19 +16013,19 @@
         <v>1</v>
       </c>
       <c r="E125" s="102">
-        <f t="shared" ref="E125:H125" si="25">IF(E19=1,1,E19*1.05)</f>
+        <f t="shared" ref="E125:H125" si="10">IF(E19=1,1,E19*1.05)</f>
         <v>1</v>
       </c>
       <c r="F125" s="102">
-        <f t="shared" si="25"/>
-        <v>1.0289999999999999</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G125" s="102">
-        <f t="shared" si="25"/>
-        <v>1.0289999999999999</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="H125" s="102">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -16023,23 +16035,23 @@
         <v>149</v>
       </c>
       <c r="D126" s="102">
-        <f t="shared" ref="D126:H140" si="26">IF(D20=1,1,D20*1.05)</f>
+        <f t="shared" ref="D126:H140" si="11">IF(D20=1,1,D20*1.05)</f>
         <v>1</v>
       </c>
       <c r="E126" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F126" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0289999999999999</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G126" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0289999999999999</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H126" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16049,23 +16061,23 @@
         <v>155</v>
       </c>
       <c r="D127" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E127" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F127" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G127" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H127" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16077,23 +16089,23 @@
         <v>150</v>
       </c>
       <c r="D128" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E128" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F128" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G128" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H128" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16103,23 +16115,23 @@
         <v>149</v>
       </c>
       <c r="D129" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E129" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F129" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G129" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H129" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16129,23 +16141,23 @@
         <v>155</v>
       </c>
       <c r="D130" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E130" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F130" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G130" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H130" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16157,23 +16169,23 @@
         <v>150</v>
       </c>
       <c r="D131" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E131" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F131" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G131" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H131" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16183,23 +16195,23 @@
         <v>149</v>
       </c>
       <c r="D132" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E132" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F132" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G132" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H132" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16209,23 +16221,23 @@
         <v>155</v>
       </c>
       <c r="D133" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E133" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F133" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G133" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H133" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16237,23 +16249,23 @@
         <v>150</v>
       </c>
       <c r="D134" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E134" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F134" s="102">
-        <f t="shared" si="26"/>
-        <v>0.81900000000000006</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G134" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H134" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16263,23 +16275,23 @@
         <v>149</v>
       </c>
       <c r="D135" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E135" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F135" s="102">
-        <f t="shared" si="26"/>
-        <v>0.81900000000000006</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G135" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H135" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16289,23 +16301,23 @@
         <v>155</v>
       </c>
       <c r="D136" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E136" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F136" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G136" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H136" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16317,23 +16329,23 @@
         <v>150</v>
       </c>
       <c r="D137" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E137" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F137" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G137" s="102">
-        <f t="shared" si="26"/>
-        <v>0.81900000000000006</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H137" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16343,23 +16355,23 @@
         <v>149</v>
       </c>
       <c r="D138" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E138" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F138" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G138" s="102">
-        <f t="shared" si="26"/>
-        <v>0.81900000000000006</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H138" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16369,23 +16381,23 @@
         <v>155</v>
       </c>
       <c r="D139" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E139" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F139" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G139" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H139" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16397,23 +16409,23 @@
         <v>155</v>
       </c>
       <c r="D140" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E140" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F140" s="102">
-        <f t="shared" si="26"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G140" s="102">
-        <f t="shared" si="26"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H140" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16435,24 +16447,24 @@
         <v>150</v>
       </c>
       <c r="D142" s="102">
-        <f>D36*1.05</f>
-        <v>1.05</v>
+        <f>IF(D36=1,1,D36*1.05)</f>
+        <v>1</v>
       </c>
       <c r="E142" s="102">
-        <f>E36*1.05</f>
-        <v>1.05</v>
+        <f t="shared" ref="E142:H142" si="12">IF(E36=1,1,E36*1.05)</f>
+        <v>1</v>
       </c>
       <c r="F142" s="102">
-        <f t="shared" ref="F142:H142" si="27">F36*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="G142" s="102">
-        <f t="shared" si="27"/>
-        <v>1.05</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="H142" s="102">
-        <f t="shared" si="27"/>
-        <v>1.05</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -16461,24 +16473,24 @@
         <v>149</v>
       </c>
       <c r="D143" s="102">
-        <f t="shared" ref="D143:H143" si="28">D37*1.05</f>
-        <v>1.05</v>
+        <f t="shared" ref="D143:H157" si="13">IF(D37=1,1,D37*1.05)</f>
+        <v>1</v>
       </c>
       <c r="E143" s="102">
-        <f t="shared" si="28"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F143" s="102">
-        <f t="shared" si="28"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G143" s="102">
-        <f t="shared" si="28"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H143" s="102">
-        <f t="shared" si="28"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -16487,24 +16499,24 @@
         <v>155</v>
       </c>
       <c r="D144" s="102">
-        <f t="shared" ref="D144:H144" si="29">D38*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E144" s="102">
-        <f t="shared" si="29"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F144" s="102">
-        <f t="shared" si="29"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G144" s="102">
-        <f t="shared" si="29"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H144" s="102">
-        <f t="shared" si="29"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
@@ -16515,24 +16527,24 @@
         <v>150</v>
       </c>
       <c r="D145" s="102">
-        <f t="shared" ref="D145:H145" si="30">D39*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E145" s="102">
-        <f t="shared" si="30"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F145" s="102">
-        <f t="shared" si="30"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G145" s="102">
-        <f t="shared" si="30"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H145" s="102">
-        <f t="shared" si="30"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
@@ -16541,24 +16553,24 @@
         <v>149</v>
       </c>
       <c r="D146" s="102">
-        <f t="shared" ref="D146:H146" si="31">D40*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E146" s="102">
-        <f t="shared" si="31"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F146" s="102">
-        <f t="shared" si="31"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G146" s="102">
-        <f t="shared" si="31"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H146" s="102">
-        <f t="shared" si="31"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
@@ -16567,24 +16579,24 @@
         <v>155</v>
       </c>
       <c r="D147" s="102">
-        <f t="shared" ref="D147:H147" si="32">D41*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E147" s="102">
-        <f t="shared" si="32"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F147" s="102">
-        <f t="shared" si="32"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G147" s="102">
-        <f t="shared" si="32"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H147" s="102">
-        <f t="shared" si="32"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
@@ -16595,24 +16607,24 @@
         <v>150</v>
       </c>
       <c r="D148" s="102">
-        <f t="shared" ref="D148:H148" si="33">D42*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E148" s="102">
-        <f t="shared" si="33"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F148" s="102">
-        <f t="shared" si="33"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G148" s="102">
-        <f t="shared" si="33"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H148" s="102">
-        <f t="shared" si="33"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
@@ -16621,24 +16633,24 @@
         <v>149</v>
       </c>
       <c r="D149" s="102">
-        <f t="shared" ref="D149:H149" si="34">D43*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E149" s="102">
-        <f t="shared" si="34"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F149" s="102">
-        <f t="shared" si="34"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G149" s="102">
-        <f t="shared" si="34"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H149" s="102">
-        <f t="shared" si="34"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
@@ -16647,24 +16659,24 @@
         <v>155</v>
       </c>
       <c r="D150" s="102">
-        <f t="shared" ref="D150:H150" si="35">D44*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E150" s="102">
-        <f t="shared" si="35"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F150" s="102">
-        <f t="shared" si="35"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G150" s="102">
-        <f t="shared" si="35"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H150" s="102">
-        <f t="shared" si="35"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
@@ -16675,24 +16687,24 @@
         <v>150</v>
       </c>
       <c r="D151" s="102">
-        <f t="shared" ref="D151:H151" si="36">D45*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E151" s="102">
-        <f t="shared" si="36"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F151" s="102">
-        <f t="shared" si="36"/>
-        <v>1.9110000000000003</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G151" s="102">
-        <f t="shared" si="36"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H151" s="102">
-        <f t="shared" si="36"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
@@ -16701,24 +16713,24 @@
         <v>149</v>
       </c>
       <c r="D152" s="102">
-        <f t="shared" ref="D152:H152" si="37">D46*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E152" s="102">
-        <f t="shared" si="37"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F152" s="102">
-        <f t="shared" si="37"/>
-        <v>1.9110000000000003</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G152" s="102">
-        <f t="shared" si="37"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H152" s="102">
-        <f t="shared" si="37"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
@@ -16727,24 +16739,24 @@
         <v>155</v>
       </c>
       <c r="D153" s="102">
-        <f t="shared" ref="D153:H153" si="38">D47*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E153" s="102">
-        <f t="shared" si="38"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F153" s="102">
-        <f t="shared" si="38"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G153" s="102">
-        <f t="shared" si="38"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H153" s="102">
-        <f t="shared" si="38"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
@@ -16755,24 +16767,24 @@
         <v>150</v>
       </c>
       <c r="D154" s="102">
-        <f t="shared" ref="D154:H154" si="39">D48*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E154" s="102">
-        <f t="shared" si="39"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F154" s="102">
-        <f t="shared" si="39"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G154" s="102">
-        <f t="shared" si="39"/>
-        <v>1.9110000000000003</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H154" s="102">
-        <f t="shared" si="39"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
@@ -16781,24 +16793,24 @@
         <v>149</v>
       </c>
       <c r="D155" s="102">
-        <f t="shared" ref="D155:H155" si="40">D49*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E155" s="102">
-        <f t="shared" si="40"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F155" s="102">
-        <f t="shared" si="40"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G155" s="102">
-        <f t="shared" si="40"/>
-        <v>1.9110000000000003</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H155" s="102">
-        <f t="shared" si="40"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
@@ -16807,24 +16819,24 @@
         <v>155</v>
       </c>
       <c r="D156" s="102">
-        <f t="shared" ref="D156:H156" si="41">D50*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E156" s="102">
-        <f t="shared" si="41"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F156" s="102">
-        <f t="shared" si="41"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G156" s="102">
-        <f t="shared" si="41"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H156" s="102">
-        <f t="shared" si="41"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
@@ -16835,29 +16847,65 @@
         <v>155</v>
       </c>
       <c r="D157" s="102">
-        <f t="shared" ref="D157:H157" si="42">D51*1.05</f>
-        <v>1.1025</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E157" s="102">
-        <f t="shared" si="42"/>
-        <v>1.1025</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F157" s="102">
-        <f t="shared" si="42"/>
-        <v>1.1025</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G157" s="102">
-        <f t="shared" si="42"/>
-        <v>1.1025</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H157" s="102">
-        <f t="shared" si="42"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="byBGMqmKF7TpmEXQyXLIyN+qVEg+asxx6kJROMBnknNzZC/lJGoHDxLr72cAfbAWn+wWexQwsd9YopE10ng2Iw==" saltValue="wHyI8XUKDJb/Rbfxhm6K4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cYKBF7aLD7AIvR+cFWYPld56MQ0hDwqyjiVgqK0EOu7TU9NqjvGJOtgnZi/Iv1TCQUoMIRGVSrhfCk+aXxpkow==" saltValue="Yat4MtAmeYx1Y2w8iwcFxA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16867,46 +16915,10 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D158:H158 D89 H104 D90:H103 D104:G104 E89:H89 D142:H157" unlockedFormula="1"/>
+    <ignoredError sqref="D158:H158" unlockedFormula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -16920,7 +16932,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18125,7 +18137,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X6qbK0bWd8Pu/FVYrmTlxmPwNoXKiwBShPMZnFeKJneRU/5m9I322UANEqg5VIgoqEBi7HhetcRF9Ct3Ih1rMQ==" saltValue="nxZlinYInXuT+F8fNndDbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zx80CUr2pp4TPCYHy6LJOWjwbfg1kCJPJB0OyhnYJvBTY3fimO1Ybrkl8WNPWSmYdl/y1qns5FJfkdsGbg+d9Q==" saltValue="WIJMM8fbjKeCx3QIydmcjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18138,8 +18150,8 @@
   </sheetPr>
   <dimension ref="A1:P328"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -19622,7 +19634,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="92" t="s">
         <v>105</v>
       </c>
@@ -26263,7 +26275,7 @@
       <c r="I328" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ugyY+fnwYqfw8QwfE17/ILZ0kCuXDWTC5vY2Lt+IVtHTHDa79/PksVW6O9cn9p0mn7W6a/1u18+6l1801fpaRA==" saltValue="JklO27v32PUxhfWG2GcFSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sDAeTRqEEU4VWYgkG8M8HSD8ZmXpemfHNcPdgsIt0ZBuIwGOOq66qFyGfToEqN0SKYjHeqj3Z/9YB14QYVmOMQ==" saltValue="7zZ7CqGZdnflqBC5jLOSDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26378,12 +26390,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.64, (0.64*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.64*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.64, (0.64*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.64*SUM('Distribución estado nutricional'!$E$4:$E$5)))
+/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
         <v>0.58983967886464039</v>
       </c>
       <c r="F6" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.64, (0.64*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.64*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.58983967886464039</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!$F$4),0.64, (0.64*SUM('Distribución estado nutricional'!$F$4:$F$5)/(1-0.64*SUM('Distribución estado nutricional'!$F$4:$F$5)))/ (SUM('Distribución estado nutricional'!$F$4:$F$5)/(1-SUM('Distribución estado nutricional'!$F$4:$F$5))))</f>
+        <v>0.52474827695613546</v>
       </c>
       <c r="G6" s="104">
         <v>1</v>
@@ -26404,8 +26417,8 @@
         <v>0.85574238427686589</v>
       </c>
       <c r="F7" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.88, (0.88*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.88*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.85574238427686589</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!$F$4),0.88, (0.88*SUM('Distribución estado nutricional'!$F$4:$F$5)/(1-0.88*SUM('Distribución estado nutricional'!$F$4:$F$5)))/ (SUM('Distribución estado nutricional'!$F$4:$F$5)/(1-SUM('Distribución estado nutricional'!$F$4:$F$5))))</f>
+        <v>0.81996938552863874</v>
       </c>
       <c r="G7" s="104">
         <v>1</v>
@@ -26426,8 +26439,8 @@
         <v>0.85574238427686589</v>
       </c>
       <c r="F8" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.88, (0.88*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.88*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.85574238427686589</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!$F$4),0.88, (0.88*SUM('Distribución estado nutricional'!$F$4:$F$5)/(1-0.88*SUM('Distribución estado nutricional'!$F$4:$F$5)))/ (SUM('Distribución estado nutricional'!$F$4:$F$5)/(1-SUM('Distribución estado nutricional'!$F$4:$F$5))))</f>
+        <v>0.81996938552863874</v>
       </c>
       <c r="G8" s="104">
         <v>1</v>
@@ -26705,12 +26718,12 @@
         <v>1</v>
       </c>
       <c r="E29" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.44, (0.44*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.44*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$4),0.44, (0.44*SUM('Distribución estado nutricional'!E$4:E$5)/(1-0.44*SUM('Distribución estado nutricional'!E$4:E$5)))/ (SUM('Distribución estado nutricional'!E$4:E$5)/(1-SUM('Distribución estado nutricional'!E$4:E$5))))</f>
         <v>0.38859461375301474</v>
       </c>
       <c r="F29" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.44, (0.44*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.44*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.38859461375301474</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$4),0.44, (0.44*SUM('Distribución estado nutricional'!F$4:F$5)/(1-0.44*SUM('Distribución estado nutricional'!F$4:F$5)))/ (SUM('Distribución estado nutricional'!F$4:F$5)/(1-SUM('Distribución estado nutricional'!F$4:F$5))))</f>
+        <v>0.32795428705435947</v>
       </c>
       <c r="G29" s="104">
         <f t="shared" si="2"/>
@@ -26730,12 +26743,12 @@
         <v>1</v>
       </c>
       <c r="E30" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.85, (0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$4),0.85, (0.85*SUM('Distribución estado nutricional'!E$4:E$5)/(1-0.85*SUM('Distribución estado nutricional'!E$4:E$5)))/ (SUM('Distribución estado nutricional'!E$4:E$5)/(1-SUM('Distribución estado nutricional'!E$4:E$5))))</f>
         <v>0.82091214070727592</v>
       </c>
       <c r="F30" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.85, (0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.82091214070727592</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$4),0.85, (0.85*SUM('Distribución estado nutricional'!F$4:F$5)/(1-0.85*SUM('Distribución estado nutricional'!F$4:F$5)))/ (SUM('Distribución estado nutricional'!F$4:F$5)/(1-SUM('Distribución estado nutricional'!F$4:F$5))))</f>
+        <v>0.77873521514816446</v>
       </c>
       <c r="G30" s="104">
         <f t="shared" si="3"/>
@@ -26755,12 +26768,12 @@
         <v>1</v>
       </c>
       <c r="E31" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.85, (0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$4),0.85, (0.85*SUM('Distribución estado nutricional'!E$4:E$5)/(1-0.85*SUM('Distribución estado nutricional'!E$4:E$5)))/ (SUM('Distribución estado nutricional'!E$4:E$5)/(1-SUM('Distribución estado nutricional'!E$4:E$5))))</f>
         <v>0.82091214070727592</v>
       </c>
       <c r="F31" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.85, (0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.82091214070727592</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$4),0.85, (0.85*SUM('Distribución estado nutricional'!F$4:F$5)/(1-0.85*SUM('Distribución estado nutricional'!F$4:F$5)))/ (SUM('Distribución estado nutricional'!F$4:F$5)/(1-SUM('Distribución estado nutricional'!F$4:F$5))))</f>
+        <v>0.77873521514816446</v>
       </c>
       <c r="G31" s="104">
         <f t="shared" si="3"/>
@@ -27082,12 +27095,12 @@
         <v>1</v>
       </c>
       <c r="E52" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.92, (0.92*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.92*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$4),0.92, (0.92*SUM('Distribución estado nutricional'!E$4:E$5)/(1-0.92*SUM('Distribución estado nutricional'!E$4:E$5)))/ (SUM('Distribución estado nutricional'!E$4:E$5)/(1-SUM('Distribución estado nutricional'!E$4:E$5))))</f>
         <v>0.90293638807901733</v>
       </c>
       <c r="F52" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.92, (0.92*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.92*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.90293638807901733</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$4),0.92, (0.92*SUM('Distribución estado nutricional'!F$4:F$5)/(1-0.92*SUM('Distribución estado nutricional'!F$4:F$5)))/ (SUM('Distribución estado nutricional'!F$4:F$5)/(1-SUM('Distribución estado nutricional'!F$4:F$5))))</f>
+        <v>0.87718696072640712</v>
       </c>
       <c r="G52" s="104">
         <f t="shared" si="8"/>
@@ -27107,12 +27120,12 @@
         <v>1</v>
       </c>
       <c r="E53" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.91, (0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$4),0.91, (0.91*SUM('Distribución estado nutricional'!E$4:E$5)/(1-0.91*SUM('Distribución estado nutricional'!E$4:E$5)))/ (SUM('Distribución estado nutricional'!E$4:E$5)/(1-SUM('Distribución estado nutricional'!E$4:E$5))))</f>
         <v>0.89105601510511334</v>
       </c>
       <c r="F53" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.91, (0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.89105601510511334</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$4),0.91, (0.91*SUM('Distribución estado nutricional'!F$4:F$5)/(1-0.91*SUM('Distribución estado nutricional'!F$4:F$5)))/ (SUM('Distribución estado nutricional'!F$4:F$5)/(1-SUM('Distribución estado nutricional'!F$4:F$5))))</f>
+        <v>0.86263438509246337</v>
       </c>
       <c r="G53" s="104">
         <f t="shared" si="9"/>
@@ -27132,12 +27145,12 @@
         <v>1</v>
       </c>
       <c r="E54" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.91, (0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$4),0.91, (0.91*SUM('Distribución estado nutricional'!E$4:E$5)/(1-0.91*SUM('Distribución estado nutricional'!E$4:E$5)))/ (SUM('Distribución estado nutricional'!E$4:E$5)/(1-SUM('Distribución estado nutricional'!E$4:E$5))))</f>
         <v>0.89105601510511334</v>
       </c>
       <c r="F54" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.91, (0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.89105601510511334</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$4),0.91, (0.91*SUM('Distribución estado nutricional'!F$4:F$5)/(1-0.91*SUM('Distribución estado nutricional'!F$4:F$5)))/ (SUM('Distribución estado nutricional'!F$4:F$5)/(1-SUM('Distribución estado nutricional'!F$4:F$5))))</f>
+        <v>0.86263438509246337</v>
       </c>
       <c r="G54" s="104">
         <f t="shared" si="9"/>
@@ -27355,7 +27368,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9a3DCRYHf6QHbFWsSFtNL9gvjzq2IAFPhXVRan2EGC1r30WaQInxo/UYxJOJtD9rPmP8XNa3r0+gcf5Ur9HZ/g==" saltValue="coHPLGaPAz53XhrmIMyyPw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d8kilnbvOS9d1vnYaCT0yDIjStVJ25Zy+d5nyqqEIFEf/iBCjJ679UCuF0J7gWTm9dL6cwQ2R1aVzTHdcqfPgg==" saltValue="wW6acnT66vIokowq/0z1tg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -27369,8 +27382,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27408,10 +27421,10 @@
         <v>322</v>
       </c>
       <c r="C2" s="104">
-        <v>0.71</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D2" s="104">
-        <v>0.71</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E2" s="104">
         <v>0</v>
@@ -27446,10 +27459,10 @@
         <v>322</v>
       </c>
       <c r="C4" s="104">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="D4" s="104">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="E4" s="104">
         <v>0</v>
@@ -27484,10 +27497,10 @@
         <v>322</v>
       </c>
       <c r="C6" s="104">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="D6" s="104">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="E6" s="104">
         <v>0</v>
@@ -27598,12 +27611,12 @@
         <v>322</v>
       </c>
       <c r="C12" s="104">
-        <f>0.93*C4</f>
-        <v>0.36270000000000002</v>
+        <f>1-0.93*0.39</f>
+        <v>0.63729999999999998</v>
       </c>
       <c r="D12" s="104">
-        <f>0.93*D4</f>
-        <v>0.36270000000000002</v>
+        <f>1-0.93*0.39</f>
+        <v>0.63729999999999998</v>
       </c>
       <c r="E12" s="104">
         <v>0</v>
@@ -27661,10 +27674,12 @@
         <v>322</v>
       </c>
       <c r="C17" s="104">
-        <v>0.54</v>
+        <f>1-0.94</f>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="D17" s="104">
-        <v>0.54</v>
+        <f>1-0.94</f>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="E17" s="104">
         <f t="shared" ref="E17:F17" si="0">E2*0.9</f>
@@ -27701,10 +27716,12 @@
         <v>322</v>
       </c>
       <c r="C19" s="104">
-        <v>0.17</v>
+        <f>1-0.86</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D19" s="104">
-        <v>0.17</v>
+        <f>1-0.86</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E19" s="104">
         <f t="shared" ref="E19:F19" si="1">E4*0.9</f>
@@ -27741,10 +27758,12 @@
         <v>322</v>
       </c>
       <c r="C21" s="104">
-        <v>0.17</v>
+        <f>1-0.86</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D21" s="104">
-        <v>0.17</v>
+        <f>1-0.86</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E21" s="104">
         <f t="shared" ref="E21:F21" si="2">E6*0.9</f>
@@ -27781,15 +27800,15 @@
         <v>322</v>
       </c>
       <c r="C23" s="104">
-        <f>C10*0.9</f>
-        <v>0.315</v>
+        <f>1-0.77</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="D23" s="104">
-        <f t="shared" ref="D23:F23" si="3">D10*0.9</f>
-        <v>0.315</v>
+        <f>1-0.77</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="E23" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E23:F23" si="3">E10*0.9</f>
         <v>0</v>
       </c>
       <c r="F23" s="104">
@@ -27823,15 +27842,15 @@
         <v>322</v>
       </c>
       <c r="C25" s="104">
-        <f>C10*0.9</f>
-        <v>0.315</v>
+        <f>1-0.77</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="D25" s="104">
-        <f t="shared" ref="D25:F25" si="4">D10*0.9</f>
-        <v>0.315</v>
+        <f>1-0.77</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="E25" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E25:F25" si="4">E10*0.9</f>
         <v>0</v>
       </c>
       <c r="F25" s="104">
@@ -27865,12 +27884,12 @@
         <v>322</v>
       </c>
       <c r="C27" s="104">
-        <f>0.93*C19</f>
-        <v>0.15810000000000002</v>
+        <f>1-0.98*0.86</f>
+        <v>0.15720000000000001</v>
       </c>
       <c r="D27" s="104">
-        <f>0.93*D19</f>
-        <v>0.15810000000000002</v>
+        <f>1-0.98*0.86</f>
+        <v>0.15720000000000001</v>
       </c>
       <c r="E27" s="104">
         <f t="shared" ref="E27:F27" si="5">E12*0.9</f>
@@ -27930,10 +27949,12 @@
         <v>322</v>
       </c>
       <c r="C32" s="104">
-        <v>0.94</v>
+        <f>1-0.54</f>
+        <v>0.45999999999999996</v>
       </c>
       <c r="D32" s="104">
-        <v>0.94</v>
+        <f>1-0.54</f>
+        <v>0.45999999999999996</v>
       </c>
       <c r="E32" s="104">
         <f t="shared" ref="E32:F32" si="6">E2*1.1</f>
@@ -27970,10 +27991,12 @@
         <v>322</v>
       </c>
       <c r="C34" s="104">
-        <v>0.86</v>
+        <f>1-0.17</f>
+        <v>0.83</v>
       </c>
       <c r="D34" s="104">
-        <v>0.86</v>
+        <f>1-0.17</f>
+        <v>0.83</v>
       </c>
       <c r="E34" s="104">
         <f t="shared" ref="E34:F34" si="7">E4*1.1</f>
@@ -28010,15 +28033,15 @@
         <v>322</v>
       </c>
       <c r="C36" s="104">
-        <f>C6*1.1</f>
-        <v>0.42900000000000005</v>
+        <f>1-0.17</f>
+        <v>0.83</v>
       </c>
       <c r="D36" s="104">
-        <f t="shared" ref="D36:F36" si="8">D6*1.1</f>
-        <v>0.42900000000000005</v>
+        <f>1-0.17</f>
+        <v>0.83</v>
       </c>
       <c r="E36" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E36:F36" si="8">E6*1.1</f>
         <v>0</v>
       </c>
       <c r="F36" s="104">
@@ -28052,15 +28075,15 @@
         <v>322</v>
       </c>
       <c r="C38" s="104">
-        <f>C8*1.1</f>
-        <v>0.38500000000000001</v>
+        <f>1-0.55</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="D38" s="104">
-        <f t="shared" ref="D38:F38" si="9">D8*1.1</f>
-        <v>0.38500000000000001</v>
+        <f>1-0.55</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E38" s="104">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E38:F38" si="9">E8*1.1</f>
         <v>0</v>
       </c>
       <c r="F38" s="104">
@@ -28094,15 +28117,15 @@
         <v>322</v>
       </c>
       <c r="C40" s="104">
-        <f>C10*1.1</f>
-        <v>0.38500000000000001</v>
+        <f>1-0.55</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="D40" s="104">
-        <f t="shared" ref="D40:F40" si="10">D10*1.1</f>
-        <v>0.38500000000000001</v>
+        <f>1-0.55</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E40" s="104">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="E40:F40" si="10">E10*1.1</f>
         <v>0</v>
       </c>
       <c r="F40" s="104">
@@ -28136,12 +28159,12 @@
         <v>322</v>
       </c>
       <c r="C42" s="104">
-        <f>0.93*C34</f>
-        <v>0.79980000000000007</v>
+        <f>1-0.88*0.17</f>
+        <v>0.85040000000000004</v>
       </c>
       <c r="D42" s="104">
-        <f>0.93*D34</f>
-        <v>0.79980000000000007</v>
+        <f>1-0.88*0.17</f>
+        <v>0.85040000000000004</v>
       </c>
       <c r="E42" s="104">
         <f t="shared" ref="E42:F42" si="11">E12*1.1</f>
@@ -28171,7 +28194,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wHNPVRoqHU9o/S2px1yRf7IJ2zMfJzcpgX6v/mDh1g7UjzeK7VaOyNGBNhG6TNCyme3cwvdrB9ZjklqqFVpWEA==" saltValue="yCqzujwkDbue+JUWFk8PGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KxtzRS6QqhPOhWK/WMcwFLXlV5uHZJscm21kP1C9adjAHi8RZwO6LQJycpW2LYrapRkSQkZAEy/EeGjDS6CpCQ==" saltValue="2nNktUN6tbp5P3WJhV9Aqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -28185,7 +28208,7 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -28496,16 +28519,16 @@
         <v>1</v>
       </c>
       <c r="L8" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="M8" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="N8" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="O8" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -28540,16 +28563,16 @@
         <v>1</v>
       </c>
       <c r="L9" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="M9" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="N9" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="O9" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -28760,16 +28783,16 @@
         <v>1</v>
       </c>
       <c r="L14" s="104">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="M14" s="104">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="N14" s="104">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="O14" s="104">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -28783,10 +28806,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="104">
-        <v>0.84</v>
+        <v>0.36</v>
       </c>
       <c r="F15" s="104">
-        <v>0.84</v>
+        <v>0.36</v>
       </c>
       <c r="G15" s="104">
         <v>1</v>
@@ -29100,15 +29123,13 @@
         <v>169</v>
       </c>
       <c r="C26" s="104">
-        <f>IF(C3=1,1,C3*0.9)</f>
-        <v>0.47700000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="D26" s="104">
-        <f t="shared" ref="D26:O26" si="0">IF(D3=1,1,D3*0.9)</f>
-        <v>0.47700000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="E26" s="104">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E26:O26" si="0">IF(E3=1,1,E3*0.9)</f>
         <v>1</v>
       </c>
       <c r="F26" s="104">
@@ -29157,7 +29178,7 @@
         <v>174</v>
       </c>
       <c r="C27" s="104">
-        <f t="shared" ref="C27:O38" si="1">IF(C4=1,1,C4*0.9)</f>
+        <f t="shared" ref="C27:O34" si="1">IF(C4=1,1,C4*0.9)</f>
         <v>1</v>
       </c>
       <c r="D27" s="104">
@@ -29177,20 +29198,16 @@
         <v>1</v>
       </c>
       <c r="H27" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I27" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J27" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K27" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L27" s="104">
         <f t="shared" si="1"/>
@@ -29234,20 +29251,16 @@
         <v>1</v>
       </c>
       <c r="H28" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I28" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J28" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K28" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L28" s="104">
         <f t="shared" si="1"/>
@@ -29291,20 +29304,16 @@
         <v>1</v>
       </c>
       <c r="H29" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I29" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J29" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K29" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L29" s="104">
         <f t="shared" si="1"/>
@@ -29348,20 +29357,16 @@
         <v>1</v>
       </c>
       <c r="H30" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I30" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J30" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K30" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L30" s="104">
         <f t="shared" si="1"/>
@@ -29421,20 +29426,16 @@
         <v>1</v>
       </c>
       <c r="L31" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="M31" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="N31" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="O31" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -29478,20 +29479,16 @@
         <v>1</v>
       </c>
       <c r="L32" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="M32" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="N32" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="O32" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -29535,20 +29532,16 @@
         <v>1</v>
       </c>
       <c r="L33" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="M33" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="N33" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="O33" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -29564,15 +29557,12 @@
         <v>1</v>
       </c>
       <c r="E34" s="104">
-        <f t="shared" si="1"/>
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="F34" s="104">
-        <f t="shared" si="1"/>
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="G34" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H34" s="104">
@@ -29613,56 +29603,43 @@
         <v>185</v>
       </c>
       <c r="C35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="D35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="E35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="F35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="G35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="H35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="I35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="J35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="K35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="L35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="M35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="N35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="O35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -29670,55 +29647,52 @@
         <v>190</v>
       </c>
       <c r="C36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C36:O38" si="2">IF(C13=1,1,C13*0.9)</f>
         <v>1</v>
       </c>
       <c r="D36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E36" s="104">
-        <f t="shared" si="1"/>
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="F36" s="104">
-        <f t="shared" si="1"/>
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="G36" s="104">
-        <f t="shared" si="1"/>
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="H36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -29727,56 +29701,56 @@
         <v>191</v>
       </c>
       <c r="C37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L37" s="104">
-        <f t="shared" si="1"/>
-        <v>0.29700000000000004</v>
+        <f>L32</f>
+        <v>0.38</v>
       </c>
       <c r="M37" s="104">
-        <f t="shared" si="1"/>
-        <v>0.29700000000000004</v>
+        <f t="shared" ref="M37:O37" si="3">M32</f>
+        <v>0.38</v>
       </c>
       <c r="N37" s="104">
-        <f t="shared" si="1"/>
-        <v>0.29700000000000004</v>
+        <f t="shared" si="3"/>
+        <v>0.38</v>
       </c>
       <c r="O37" s="104">
-        <f t="shared" si="1"/>
-        <v>0.29700000000000004</v>
+        <f t="shared" si="3"/>
+        <v>0.38</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -29784,55 +29758,53 @@
         <v>204</v>
       </c>
       <c r="C38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E38" s="104">
-        <f t="shared" si="1"/>
-        <v>0.75600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="F38" s="104">
-        <f t="shared" si="1"/>
-        <v>0.75600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="G38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -29847,55 +29819,55 @@
         <v>171</v>
       </c>
       <c r="C41" s="104">
-        <f>IF(C18=1,1,C18*0.9)</f>
+        <f t="shared" ref="C41:O44" si="4">IF(C18=1,1,C18*0.9)</f>
         <v>1</v>
       </c>
       <c r="D41" s="104">
-        <f t="shared" ref="D41:O41" si="2">IF(D18=1,1,D18*0.9)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -29904,11 +29876,11 @@
         <v>172</v>
       </c>
       <c r="C42" s="104">
-        <f t="shared" ref="C42:O44" si="3">IF(C19=1,1,C19*0.9)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D42" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E42" s="104">
@@ -29972,55 +29944,55 @@
         <v>173</v>
       </c>
       <c r="C43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -30029,11 +30001,11 @@
         <v>181</v>
       </c>
       <c r="C44" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D44" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E44" s="104">
@@ -30150,55 +30122,53 @@
         <v>169</v>
       </c>
       <c r="C49" s="104">
-        <f>IF(C3=1,1,C3*1.05)</f>
-        <v>0.55650000000000011</v>
+        <v>0.7</v>
       </c>
       <c r="D49" s="104">
-        <f t="shared" ref="D49:O49" si="4">IF(D3=1,1,D3*1.05)</f>
-        <v>0.55650000000000011</v>
+        <v>0.7</v>
       </c>
       <c r="E49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E49:O49" si="5">IF(E3=1,1,E3*1.05)</f>
         <v>1</v>
       </c>
       <c r="F49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30207,55 +30177,51 @@
         <v>174</v>
       </c>
       <c r="C50" s="104">
-        <f t="shared" ref="C50:O61" si="5">IF(C4=1,1,C4*1.05)</f>
+        <f t="shared" ref="C50:O57" si="6">IF(C4=1,1,C4*1.05)</f>
         <v>1</v>
       </c>
       <c r="D50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H50" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="I50" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="J50" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="K50" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="L50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30264,55 +30230,51 @@
         <v>175</v>
       </c>
       <c r="C51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H51" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="I51" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="J51" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="K51" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="L51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30321,55 +30283,51 @@
         <v>176</v>
       </c>
       <c r="C52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H52" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="I52" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="J52" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="K52" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="L52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30378,55 +30336,51 @@
         <v>177</v>
       </c>
       <c r="C53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H53" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="I53" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="J53" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="K53" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="L53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30435,56 +30389,52 @@
         <v>178</v>
       </c>
       <c r="C54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L54" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="M54" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="N54" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="O54" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -30492,56 +30442,52 @@
         <v>179</v>
       </c>
       <c r="C55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L55" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="M55" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="N55" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="O55" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -30549,56 +30495,52 @@
         <v>180</v>
       </c>
       <c r="C56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L56" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="M56" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="N56" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="O56" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -30606,55 +30548,53 @@
         <v>184</v>
       </c>
       <c r="C57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E57" s="104">
-        <f t="shared" si="5"/>
-        <v>0.72449999999999992</v>
+        <v>0.77</v>
       </c>
       <c r="F57" s="104">
-        <f t="shared" si="5"/>
-        <v>0.72449999999999992</v>
+        <v>0.77</v>
       </c>
       <c r="G57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30663,56 +30603,43 @@
         <v>185</v>
       </c>
       <c r="C58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="D58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="E58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="F58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="G58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="H58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="I58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="J58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="K58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="L58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="M58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="N58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="O58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -30720,55 +30647,52 @@
         <v>190</v>
       </c>
       <c r="C59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C59:O61" si="7">IF(C13=1,1,C13*1.05)</f>
         <v>1</v>
       </c>
       <c r="D59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E59" s="104">
-        <f t="shared" si="5"/>
-        <v>0.72449999999999992</v>
+        <v>0.77</v>
       </c>
       <c r="F59" s="104">
-        <f t="shared" si="5"/>
-        <v>0.72449999999999992</v>
+        <v>0.77</v>
       </c>
       <c r="G59" s="104">
-        <f t="shared" si="5"/>
-        <v>0.72449999999999992</v>
+        <v>0.77</v>
       </c>
       <c r="H59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -30777,56 +30701,56 @@
         <v>191</v>
       </c>
       <c r="C60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L60" s="104">
-        <f t="shared" si="5"/>
-        <v>0.34650000000000003</v>
+        <f>L54</f>
+        <v>0.7</v>
       </c>
       <c r="M60" s="104">
-        <f t="shared" si="5"/>
-        <v>0.34650000000000003</v>
+        <f t="shared" ref="M60:O60" si="8">M54</f>
+        <v>0.7</v>
       </c>
       <c r="N60" s="104">
-        <f t="shared" si="5"/>
-        <v>0.34650000000000003</v>
+        <f t="shared" si="8"/>
+        <v>0.7</v>
       </c>
       <c r="O60" s="104">
-        <f t="shared" si="5"/>
-        <v>0.34650000000000003</v>
+        <f t="shared" si="8"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -30834,55 +30758,53 @@
         <v>204</v>
       </c>
       <c r="C61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E61" s="104">
-        <f t="shared" si="5"/>
-        <v>0.88200000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="F61" s="104">
-        <f t="shared" si="5"/>
-        <v>0.88200000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="G61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -30897,55 +30819,55 @@
         <v>171</v>
       </c>
       <c r="C64" s="104">
-        <f>IF(C18=1,1,C18*1.05)</f>
+        <f t="shared" ref="C64:O67" si="9">IF(C18=1,1,C18*1.05)</f>
         <v>1</v>
       </c>
       <c r="D64" s="104">
-        <f t="shared" ref="D64:O64" si="6">IF(D18=1,1,D18*1.05)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -30954,11 +30876,11 @@
         <v>172</v>
       </c>
       <c r="C65" s="104">
-        <f t="shared" ref="C65:O67" si="7">IF(C19=1,1,C19*1.05)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D65" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E65" s="104">
@@ -31022,55 +30944,55 @@
         <v>173</v>
       </c>
       <c r="C66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -31079,11 +31001,11 @@
         <v>181</v>
       </c>
       <c r="C67" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D67" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E67" s="104">
@@ -31143,7 +31065,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mxCYYocPJk2956h9Z+Q5EYBOmHECb12krCdK/vGAiJ45dI5Ko2WRsPeyiKEgf2CbvO5lbrta0A0PBTUdwqhkEA==" saltValue="/KjqerfMUCrKbsura+zfgg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mg6odhZ98LiPwpBjN3aLLxh/y4OX994ztQ2ugPZg4mQcLNMeiCJygWTXAj1LQnkx5jEvBJLTupJJHWnU85HjxA==" saltValue="lHxMlCL/YCwbCjEFSuqgEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -31200,24 +31122,24 @@
         <v>1</v>
       </c>
       <c r="D3" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!D$11),0.86,(0.86*'Distribución estado nutricional'!D$11/(1-0.86*'Distribución estado nutricional'!D$11))
+        <f>IF(ISBLANK('Distribución estado nutricional'!D$11),(1/1.33),((1/1.33)*'Distribución estado nutricional'!D$11/(1-(1/1.33)*'Distribución estado nutricional'!D$11))
 / ('Distribución estado nutricional'!D$11/(1-'Distribución estado nutricional'!D$11)))</f>
-        <v>0.85501242750621365</v>
+        <v>0.74418604651162779</v>
       </c>
       <c r="E3" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!E$11),0.86,(0.86*'Distribución estado nutricional'!E$11/(1-0.86*'Distribución estado nutricional'!E$11))
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$11),(1/1.33),((1/1.33)*'Distribución estado nutricional'!E$11/(1-(1/1.33)*'Distribución estado nutricional'!E$11))
 / ('Distribución estado nutricional'!E$11/(1-'Distribución estado nutricional'!E$11)))</f>
-        <v>0.85808073922946126</v>
+        <v>0.74891097206376045</v>
       </c>
       <c r="F3" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!F$11),0.86,(0.86*'Distribución estado nutricional'!F$11/(1-0.86*'Distribución estado nutricional'!F$11))
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$11),(1/1.33),((1/1.33)*'Distribución estado nutricional'!F$11/(1-(1/1.33)*'Distribución estado nutricional'!F$11))
 / ('Distribución estado nutricional'!F$11/(1-'Distribución estado nutricional'!F$11)))</f>
-        <v>0.85877386651825993</v>
+        <v>0.74998192742905989</v>
       </c>
       <c r="G3" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!G$11),0.86,(0.86*'Distribución estado nutricional'!G$11/(1-0.86*'Distribución estado nutricional'!G$11))
+        <f>IF(ISBLANK('Distribución estado nutricional'!G$11),(1/1.33),((1/1.33)*'Distribución estado nutricional'!G$11/(1-(1/1.33)*'Distribución estado nutricional'!G$11))
 / ('Distribución estado nutricional'!G$11/(1-'Distribución estado nutricional'!G$11)))</f>
-        <v>0.85911132126749401</v>
+        <v>0.75050381305965674</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
@@ -31239,24 +31161,24 @@
         <v>1</v>
       </c>
       <c r="D5" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!D$10),0.86,(0.86*'Distribución estado nutricional'!D$10/(1-0.86*'Distribución estado nutricional'!D$10))
+        <f>IF(ISBLANK('Distribución estado nutricional'!D$10),(1/1.33),((1/1.33)*'Distribución estado nutricional'!D$10/(1-(1/1.33)*'Distribución estado nutricional'!D$10))
 / ('Distribución estado nutricional'!D$10/(1-'Distribución estado nutricional'!D$10)))</f>
-        <v>0.85318176097990694</v>
+        <v>0.74137931034482751</v>
       </c>
       <c r="E5" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!E$10),0.86,(0.86*'Distribución estado nutricional'!E$10/(1-0.86*'Distribución estado nutricional'!E$10))
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$10),(1/1.33),((1/1.33)*'Distribución estado nutricional'!E$10/(1-(1/1.33)*'Distribución estado nutricional'!E$10))
 / ('Distribución estado nutricional'!E$10/(1-'Distribución estado nutricional'!E$10)))</f>
-        <v>0.85317877313988577</v>
+        <v>0.74137473695379219</v>
       </c>
       <c r="F5" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!F$10),0.86,(0.86*'Distribución estado nutricional'!F$10/(1-0.86*'Distribución estado nutricional'!F$10))
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$10),(1/1.33),((1/1.33)*'Distribución estado nutricional'!F$10/(1-(1/1.33)*'Distribución estado nutricional'!F$10))
 / ('Distribución estado nutricional'!F$10/(1-'Distribución estado nutricional'!F$10)))</f>
-        <v>0.8546826900993596</v>
+        <v>0.74367982247882258</v>
       </c>
       <c r="G5" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!G$10),0.86,(0.86*'Distribución estado nutricional'!G$10/(1-0.86*'Distribución estado nutricional'!G$10))
+        <f>IF(ISBLANK('Distribución estado nutricional'!G$10),(1/1.33),((1/1.33)*'Distribución estado nutricional'!G$10/(1-(1/1.33)*'Distribución estado nutricional'!G$10))
 / ('Distribución estado nutricional'!G$10/(1-'Distribución estado nutricional'!G$10)))</f>
-        <v>0.85725874437876104</v>
+        <v>0.74764262641695323</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -31293,24 +31215,27 @@
         <v>164</v>
       </c>
       <c r="C10" s="104">
-        <f>C3*0.9</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D10" s="104">
-        <f t="shared" ref="D10:G10" si="0">D3*0.9</f>
-        <v>0.76951118475559233</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!D$11),(1/1.54),((1/1.54)*'Distribución estado nutricional'!D$11/(1-(1/1.54)*'Distribución estado nutricional'!D$11))
+/ ('Distribución estado nutricional'!D$11/(1-'Distribución estado nutricional'!D$11)))</f>
+        <v>0.64</v>
       </c>
       <c r="E10" s="104">
-        <f t="shared" si="0"/>
-        <v>0.77227266530651517</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$11),(1/1.54),((1/1.54)*'Distribución estado nutricional'!E$11/(1-(1/1.54)*'Distribución estado nutricional'!E$11))
+/ ('Distribución estado nutricional'!E$11/(1-'Distribución estado nutricional'!E$11)))</f>
+        <v>0.64573318763423793</v>
       </c>
       <c r="F10" s="104">
-        <f t="shared" si="0"/>
-        <v>0.77289647986643395</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$11),(1/1.54),((1/1.54)*'Distribución estado nutricional'!F$11/(1-(1/1.54)*'Distribución estado nutricional'!F$11))
+/ ('Distribución estado nutricional'!F$11/(1-'Distribución estado nutricional'!F$11)))</f>
+        <v>0.64703681148148418</v>
       </c>
       <c r="G10" s="104">
-        <f t="shared" si="0"/>
-        <v>0.77320018914074462</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!G$11),(1/1.54),((1/1.54)*'Distribución estado nutricional'!G$11/(1-(1/1.54)*'Distribución estado nutricional'!G$11))
+/ ('Distribución estado nutricional'!G$11/(1-'Distribución estado nutricional'!G$11)))</f>
+        <v>0.64767263413148468</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
@@ -31329,24 +31254,27 @@
         <v>162</v>
       </c>
       <c r="C12" s="104">
-        <f>C5*0.9</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D12" s="104">
-        <f t="shared" ref="D12:G12" si="1">D5*0.9</f>
-        <v>0.76786358488191631</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!D$10),(1/1.54),((1/1.54)*'Distribución estado nutricional'!D$10/(1-(1/1.54)*'Distribución estado nutricional'!D$10))
+/ ('Distribución estado nutricional'!D$10/(1-'Distribución estado nutricional'!D$10)))</f>
+        <v>0.63660834454912518</v>
       </c>
       <c r="E12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.76786089582589723</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$10),(1/1.54),((1/1.54)*'Distribución estado nutricional'!E$10/(1-(1/1.54)*'Distribución estado nutricional'!E$10))
+/ ('Distribución estado nutricional'!E$10/(1-'Distribución estado nutricional'!E$10)))</f>
+        <v>0.63660282656050271</v>
       </c>
       <c r="F12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.76921442108942362</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$10),(1/1.54),((1/1.54)*'Distribución estado nutricional'!F$10/(1-(1/1.54)*'Distribución estado nutricional'!F$10))
+/ ('Distribución estado nutricional'!F$10/(1-'Distribución estado nutricional'!F$10)))</f>
+        <v>0.6393875097491748</v>
       </c>
       <c r="G12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.77153286994088499</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!G$10),(1/1.54),((1/1.54)*'Distribución estado nutricional'!G$10/(1-(1/1.54)*'Distribución estado nutricional'!G$10))
+/ ('Distribución estado nutricional'!G$10/(1-'Distribución estado nutricional'!G$10)))</f>
+        <v>0.64419127013395971</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -31383,24 +31311,27 @@
         <v>164</v>
       </c>
       <c r="C17" s="104">
-        <f>C3*1.05</f>
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="D17" s="104">
-        <f t="shared" ref="D17:G17" si="2">D3*1.05</f>
-        <v>0.89776304888152436</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!D$11),(1/1.16),((1/1.16)*'Distribución estado nutricional'!D$11/(1-(1/1.16)*'Distribución estado nutricional'!D$11))
+/ ('Distribución estado nutricional'!D$11/(1-'Distribución estado nutricional'!D$11)))</f>
+        <v>0.85714285714285721</v>
       </c>
       <c r="E17" s="104">
-        <f t="shared" si="2"/>
-        <v>0.90098477619093431</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$11),(1/1.16),((1/1.16)*'Distribución estado nutricional'!E$11/(1-(1/1.16)*'Distribución estado nutricional'!E$11))
+/ ('Distribución estado nutricional'!E$11/(1-'Distribución estado nutricional'!E$11)))</f>
+        <v>0.86017345661971134</v>
       </c>
       <c r="F17" s="104">
-        <f t="shared" si="2"/>
-        <v>0.90171255984417298</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$11),(1/1.16),((1/1.16)*'Distribución estado nutricional'!F$11/(1-(1/1.16)*'Distribución estado nutricional'!F$11))
+/ ('Distribución estado nutricional'!F$11/(1-'Distribución estado nutricional'!F$11)))</f>
+        <v>0.86085802051335469</v>
       </c>
       <c r="G17" s="104">
-        <f t="shared" si="2"/>
-        <v>0.90206688733086871</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!G$11),(1/1.16),((1/1.16)*'Distribución estado nutricional'!G$11/(1-(1/1.16)*'Distribución estado nutricional'!G$11))
+/ ('Distribución estado nutricional'!G$11/(1-'Distribución estado nutricional'!G$11)))</f>
+        <v>0.86119130020042822</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
@@ -31419,28 +31350,31 @@
         <v>162</v>
       </c>
       <c r="C19" s="104">
-        <f>C5*1.05</f>
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="D19" s="104">
-        <f t="shared" ref="D19:G19" si="3">D5*1.05</f>
-        <v>0.89584084902890238</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!D$10),(1/1.16),((1/1.16)*'Distribución estado nutricional'!D$10/(1-(1/1.16)*'Distribución estado nutricional'!D$10))
+/ ('Distribución estado nutricional'!D$10/(1-'Distribución estado nutricional'!D$10)))</f>
+        <v>0.85533453887884281</v>
       </c>
       <c r="E19" s="104">
-        <f t="shared" si="3"/>
-        <v>0.8958377117968801</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$10),(1/1.16),((1/1.16)*'Distribución estado nutricional'!E$10/(1-(1/1.16)*'Distribución estado nutricional'!E$10))
+/ ('Distribución estado nutricional'!E$10/(1-'Distribución estado nutricional'!E$10)))</f>
+        <v>0.85533158742052517</v>
       </c>
       <c r="F19" s="104">
-        <f t="shared" si="3"/>
-        <v>0.89741682460432759</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$10),(1/1.16),((1/1.16)*'Distribución estado nutricional'!F$10/(1-(1/1.16)*'Distribución estado nutricional'!F$10))
+/ ('Distribución estado nutricional'!F$10/(1-'Distribución estado nutricional'!F$10)))</f>
+        <v>0.85681715347913645</v>
       </c>
       <c r="G19" s="104">
-        <f t="shared" si="3"/>
-        <v>0.90012168159769912</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!G$10),(1/1.16),((1/1.16)*'Distribución estado nutricional'!G$10/(1-(1/1.16)*'Distribución estado nutricional'!G$10))
+/ ('Distribución estado nutricional'!G$10/(1-'Distribución estado nutricional'!G$10)))</f>
+        <v>0.8593615961490525</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x1fvlnexdFNV9SZdEdJgpv70kUQuHCDQSsFKHE8aPJ7cO9GPahQYJWAoDPoH8fJAWMggXclg7PI8mk7sOifTfg==" saltValue="9GnFkUG7R0vZwgcpB1uF+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RMwdj6eh50PZQHDKo8cG9kc0cuBgwdGYbrUgsZ7xBF/rd1m2WAmFILB8FzEx063Y+WAVzAJEe+EKRmx45Qwa0Q==" saltValue="rCV0b6jSAOB5IZnS7F+yuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -31453,8 +31387,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -31533,13 +31467,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="104">
-        <v>0.88</v>
+        <v>0.12</v>
       </c>
       <c r="G3" s="104">
-        <v>0.88</v>
+        <v>0.12</v>
       </c>
       <c r="H3" s="104">
-        <v>0.88</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31553,13 +31487,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="104">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
       <c r="G4" s="104">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
       <c r="H4" s="104">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -31777,10 +31711,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="104">
-        <v>0.69</v>
+        <v>0.31</v>
       </c>
       <c r="G14" s="104">
-        <v>0.69</v>
+        <v>0.31</v>
       </c>
       <c r="H14" s="104">
         <v>0</v>
@@ -31820,10 +31754,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="104">
-        <v>0.86</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G16" s="104">
-        <v>0.86</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H16" s="104">
         <v>0</v>
@@ -31866,13 +31800,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="104">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="G18" s="104">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="H18" s="104">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -31909,13 +31843,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="104">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G20" s="104">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H20" s="104">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -32417,19 +32351,19 @@
         <v>339</v>
       </c>
       <c r="D43" s="104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="E43" s="104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F43" s="104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="G43" s="104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H43" s="104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -32437,19 +32371,19 @@
         <v>338</v>
       </c>
       <c r="D44" s="104">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E44" s="104">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="F44" s="104">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="G44" s="104">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="H44" s="104">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -32460,19 +32394,19 @@
         <v>337</v>
       </c>
       <c r="D45" s="104">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E45" s="104">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F45" s="104">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G45" s="104">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H45" s="104">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -32526,19 +32460,19 @@
         <v>337</v>
       </c>
       <c r="D48" s="104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="E48" s="104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F48" s="104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G48" s="104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="H48" s="104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -32546,19 +32480,19 @@
         <v>339</v>
       </c>
       <c r="D49" s="104">
-        <v>0.78409090909090906</v>
+        <v>0.69</v>
       </c>
       <c r="E49" s="104">
-        <v>0.78409090909090906</v>
+        <v>0.69</v>
       </c>
       <c r="F49" s="104">
-        <v>0.78409090909090906</v>
+        <v>0.69</v>
       </c>
       <c r="G49" s="104">
-        <v>0.78409090909090906</v>
+        <v>0.69</v>
       </c>
       <c r="H49" s="104">
-        <v>0.78409090909090906</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32618,10 +32552,10 @@
         <v>337</v>
       </c>
       <c r="D52" s="104">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E52" s="104">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F52" s="104">
         <v>0</v>
@@ -32641,7 +32575,7 @@
         <v>0.51</v>
       </c>
       <c r="E53" s="104">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="F53" s="104">
         <v>0</v>
@@ -32722,7 +32656,7 @@
         <v>339</v>
       </c>
       <c r="D58" s="104">
-        <f t="shared" ref="D58:H73" si="1">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*0.9))</f>
+        <f t="shared" ref="D58:E59" si="1">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*0.9))</f>
         <v>0</v>
       </c>
       <c r="E58" s="104">
@@ -32730,13 +32664,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="104">
-        <v>0.79</v>
+        <v>0.02</v>
       </c>
       <c r="G58" s="104">
-        <v>0.79</v>
+        <v>0.02</v>
       </c>
       <c r="H58" s="104">
-        <v>0.79</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32752,13 +32686,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="104">
-        <v>0.82</v>
+        <v>0.13</v>
       </c>
       <c r="G59" s="104">
-        <v>0.82</v>
+        <v>0.13</v>
       </c>
       <c r="H59" s="104">
-        <v>0.82</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -32772,23 +32706,18 @@
         <v>337</v>
       </c>
       <c r="D60" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E60" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F60" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G60" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H60" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32797,23 +32726,18 @@
         <v>338</v>
       </c>
       <c r="D61" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E61" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F61" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G61" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H61" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32825,23 +32749,18 @@
         <v>337</v>
       </c>
       <c r="D62" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E62" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F62" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G62" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H62" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32850,23 +32769,18 @@
         <v>338</v>
       </c>
       <c r="D63" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E63" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F63" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G63" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H63" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32881,23 +32795,18 @@
         <v>337</v>
       </c>
       <c r="D64" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E64" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F64" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G64" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H64" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32906,23 +32815,18 @@
         <v>338</v>
       </c>
       <c r="D65" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E65" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F65" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G65" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H65" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32934,23 +32838,18 @@
         <v>337</v>
       </c>
       <c r="D66" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E66" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F66" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G66" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H66" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32959,23 +32858,18 @@
         <v>338</v>
       </c>
       <c r="D67" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E67" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F67" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G67" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H67" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32990,23 +32884,18 @@
         <v>337</v>
       </c>
       <c r="D68" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F68" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G68" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H68" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -33015,7 +32904,7 @@
         <v>338</v>
       </c>
       <c r="D69" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D69:H77" si="2">IF($C14="Affected fraction",D14,IF(D14=1,1,D14*0.9))</f>
         <v>0</v>
       </c>
       <c r="E69" s="104">
@@ -33023,13 +32912,13 @@
         <v>0</v>
       </c>
       <c r="F69" s="104">
-        <v>0.55000000000000004</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G69" s="104">
-        <v>0.55000000000000004</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H69" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33041,23 +32930,23 @@
         <v>337</v>
       </c>
       <c r="D70" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E70" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F70" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G70" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H70" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33066,21 +32955,21 @@
         <v>338</v>
       </c>
       <c r="D71" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E71" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F71" s="104">
-        <v>0.8</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G71" s="104">
-        <v>0.8</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H71" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33095,23 +32984,23 @@
         <v>337</v>
       </c>
       <c r="D72" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E72" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F72" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G72" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H72" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -33120,24 +33009,21 @@
         <v>338</v>
       </c>
       <c r="D73" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E73" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F73" s="104">
-        <f t="shared" si="1"/>
-        <v>0.28800000000000003</v>
+        <v>0.39</v>
       </c>
       <c r="G73" s="104">
-        <f t="shared" si="1"/>
-        <v>0.28800000000000003</v>
+        <v>0.39</v>
       </c>
       <c r="H73" s="104">
-        <f t="shared" si="1"/>
-        <v>0.28800000000000003</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -33148,7 +33034,7 @@
         <v>337</v>
       </c>
       <c r="D74" s="104">
-        <f t="shared" ref="D74:H89" si="2">IF($C19="Affected fraction",D19,IF(D19=1,1,D19*0.9))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E74" s="104">
@@ -33181,16 +33067,13 @@
         <v>0</v>
       </c>
       <c r="F75" s="104">
-        <f t="shared" si="2"/>
-        <v>0.36000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="G75" s="104">
-        <f t="shared" si="2"/>
-        <v>0.36000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="H75" s="104">
-        <f t="shared" si="2"/>
-        <v>0.36000000000000004</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -33229,8 +33112,7 @@
         <v>339</v>
       </c>
       <c r="D77" s="104">
-        <f t="shared" si="2"/>
-        <v>0.11700000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E77" s="104">
         <f t="shared" si="2"/>
@@ -33260,23 +33142,23 @@
         <v>337</v>
       </c>
       <c r="D78" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D78:H79" si="3">IF($C23="Affected fraction",D23,IF(D23=1,1,D23*0.9))</f>
         <v>1</v>
       </c>
       <c r="E78" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F78" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G78" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H78" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33285,23 +33167,22 @@
         <v>339</v>
       </c>
       <c r="D79" s="104">
-        <f t="shared" si="2"/>
-        <v>0.11700000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E79" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F79" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G79" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H79" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33316,23 +33197,23 @@
         <v>337</v>
       </c>
       <c r="D80" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D80:H81" si="4">IF($C25="Affected fraction",D25,IF(D25=1,1,D25*0.9))</f>
         <v>1</v>
       </c>
       <c r="E80" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F80" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G80" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H80" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -33341,23 +33222,22 @@
         <v>339</v>
       </c>
       <c r="D81" s="104">
-        <f t="shared" si="2"/>
-        <v>0.11700000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E81" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F81" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G81" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H81" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -33372,23 +33252,18 @@
         <v>337</v>
       </c>
       <c r="D82" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E82" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F82" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G82" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H82" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -33397,23 +33272,18 @@
         <v>339</v>
       </c>
       <c r="D83" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E83" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F83" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H83" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33422,23 +33292,18 @@
         <v>338</v>
       </c>
       <c r="D84" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E84" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F84" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G84" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H84" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33453,23 +33318,18 @@
         <v>337</v>
       </c>
       <c r="D85" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E85" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F85" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G85" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H85" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -33478,23 +33338,18 @@
         <v>339</v>
       </c>
       <c r="D86" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E86" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F86" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G86" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H86" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33503,23 +33358,18 @@
         <v>338</v>
       </c>
       <c r="D87" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E87" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F87" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G87" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H87" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33534,23 +33384,18 @@
         <v>337</v>
       </c>
       <c r="D88" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E88" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F88" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G88" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H88" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -33559,23 +33404,18 @@
         <v>339</v>
       </c>
       <c r="D89" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E89" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F89" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H89" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33584,23 +33424,18 @@
         <v>338</v>
       </c>
       <c r="D90" s="104">
-        <f t="shared" ref="D90:H105" si="3">IF($C35="Affected fraction",D35,IF(D35=1,1,D35*0.9))</f>
         <v>0</v>
       </c>
       <c r="E90" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F90" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G90" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H90" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33615,23 +33450,18 @@
         <v>337</v>
       </c>
       <c r="D91" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E91" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F91" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G91" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H91" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -33640,23 +33470,18 @@
         <v>339</v>
       </c>
       <c r="D92" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E92" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F92" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H92" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33665,23 +33490,18 @@
         <v>338</v>
       </c>
       <c r="D93" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E93" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F93" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G93" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H93" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33696,23 +33516,18 @@
         <v>337</v>
       </c>
       <c r="D94" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E94" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F94" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G94" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H94" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -33721,23 +33536,18 @@
         <v>339</v>
       </c>
       <c r="D95" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E95" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F95" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G95" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H95" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33746,23 +33556,18 @@
         <v>338</v>
       </c>
       <c r="D96" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E96" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F96" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G96" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H96" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33777,23 +33582,23 @@
         <v>337</v>
       </c>
       <c r="D97" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D97:H97" si="5">IF($C42="Affected fraction",D42,IF(D42=1,1,D42*0.9))</f>
         <v>0</v>
       </c>
       <c r="E97" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F97" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G97" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H97" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -33802,24 +33607,19 @@
         <v>339</v>
       </c>
       <c r="D98" s="104">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999998</v>
+        <v>0</v>
       </c>
       <c r="E98" s="104">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999998</v>
+        <v>0</v>
       </c>
       <c r="F98" s="104">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999998</v>
+        <v>0</v>
       </c>
       <c r="G98" s="104">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999998</v>
+        <v>0</v>
       </c>
       <c r="H98" s="104">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -33827,24 +33627,19 @@
         <v>338</v>
       </c>
       <c r="D99" s="104">
-        <f t="shared" si="3"/>
-        <v>0.81900000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E99" s="104">
-        <f t="shared" si="3"/>
-        <v>0.81900000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F99" s="104">
-        <f t="shared" si="3"/>
-        <v>0.81900000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G99" s="104">
-        <f t="shared" si="3"/>
-        <v>0.81900000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H99" s="104">
-        <f t="shared" si="3"/>
-        <v>0.81900000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -33855,24 +33650,19 @@
         <v>337</v>
       </c>
       <c r="D100" s="104">
-        <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="E100" s="104">
-        <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="F100" s="104">
-        <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="G100" s="104">
-        <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="H100" s="104">
-        <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -33880,23 +33670,18 @@
         <v>339</v>
       </c>
       <c r="D101" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E101" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F101" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G101" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H101" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33905,23 +33690,18 @@
         <v>338</v>
       </c>
       <c r="D102" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E102" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F102" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G102" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H102" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33936,24 +33716,19 @@
         <v>337</v>
       </c>
       <c r="D103" s="104">
-        <f t="shared" si="3"/>
-        <v>0.79200000000000004</v>
+        <v>1</v>
       </c>
       <c r="E103" s="104">
-        <f t="shared" si="3"/>
-        <v>0.79200000000000004</v>
+        <v>1</v>
       </c>
       <c r="F103" s="104">
-        <f t="shared" si="3"/>
-        <v>0.79200000000000004</v>
+        <v>1</v>
       </c>
       <c r="G103" s="104">
-        <f t="shared" si="3"/>
-        <v>0.79200000000000004</v>
+        <v>1</v>
       </c>
       <c r="H103" s="104">
-        <f t="shared" si="3"/>
-        <v>0.79200000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -33961,24 +33736,19 @@
         <v>339</v>
       </c>
       <c r="D104" s="104">
-        <f t="shared" si="3"/>
-        <v>0.70568181818181819</v>
+        <v>0.51</v>
       </c>
       <c r="E104" s="104">
-        <f t="shared" si="3"/>
-        <v>0.70568181818181819</v>
+        <v>0.51</v>
       </c>
       <c r="F104" s="104">
-        <f t="shared" si="3"/>
-        <v>0.70568181818181819</v>
+        <v>0.51</v>
       </c>
       <c r="G104" s="104">
-        <f t="shared" si="3"/>
-        <v>0.70568181818181819</v>
+        <v>0.51</v>
       </c>
       <c r="H104" s="104">
-        <f t="shared" si="3"/>
-        <v>0.70568181818181819</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33992,23 +33762,18 @@
         <v>337</v>
       </c>
       <c r="D105" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E105" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F105" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G105" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H105" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -34017,24 +33782,19 @@
         <v>339</v>
       </c>
       <c r="D106" s="104">
-        <f t="shared" ref="D106:H108" si="4">IF($C51="Affected fraction",D51,IF(D51=1,1,D51*0.9))</f>
-        <v>0.68400000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="E106" s="104">
-        <f t="shared" si="4"/>
-        <v>0.68400000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="F106" s="104">
-        <f t="shared" si="4"/>
-        <v>0.68400000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="G106" s="104">
-        <f t="shared" si="4"/>
-        <v>0.68400000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="H106" s="104">
-        <f t="shared" si="4"/>
-        <v>0.68400000000000005</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -34048,23 +33808,18 @@
         <v>337</v>
       </c>
       <c r="D107" s="104">
-        <f t="shared" si="4"/>
-        <v>0.52200000000000002</v>
+        <v>1</v>
       </c>
       <c r="E107" s="104">
-        <f t="shared" si="4"/>
-        <v>0.52200000000000002</v>
+        <v>0</v>
       </c>
       <c r="F107" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G107" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H107" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -34073,23 +33828,18 @@
         <v>339</v>
       </c>
       <c r="D108" s="104">
-        <f t="shared" si="4"/>
-        <v>0.45900000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="E108" s="104">
-        <f t="shared" si="4"/>
-        <v>0.45900000000000002</v>
+        <v>0</v>
       </c>
       <c r="F108" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G108" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H108" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -34141,19 +33891,19 @@
         <v>0</v>
       </c>
       <c r="E112" s="104">
-        <f t="shared" ref="E112:H112" si="5">IF($C2="Affected fraction",E2,IF(E2=1,1,E2*1.05))</f>
+        <f t="shared" ref="E112" si="6">IF($C2="Affected fraction",E2,IF(E2=1,1,E2*1.05))</f>
         <v>0</v>
       </c>
       <c r="F112" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F112:H112" si="7">IF($C57="Affected fraction",F57,IF(F57=1,1,F57*0.9))</f>
         <v>1</v>
       </c>
       <c r="G112" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H112" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -34162,21 +33912,21 @@
         <v>339</v>
       </c>
       <c r="D113" s="104">
-        <f t="shared" ref="D113:H128" si="6">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*1.05))</f>
+        <f t="shared" ref="D113:E114" si="8">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*1.05))</f>
         <v>0</v>
       </c>
       <c r="E113" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F113" s="104">
-        <v>0.98</v>
+        <v>0.21</v>
       </c>
       <c r="G113" s="104">
-        <v>0.98</v>
+        <v>0.21</v>
       </c>
       <c r="H113" s="104">
-        <v>0.98</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34184,21 +33934,21 @@
         <v>338</v>
       </c>
       <c r="D114" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E114" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F114" s="104">
-        <v>0.87</v>
+        <v>0.18</v>
       </c>
       <c r="G114" s="104">
-        <v>0.87</v>
+        <v>0.18</v>
       </c>
       <c r="H114" s="104">
-        <v>0.87</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -34212,23 +33962,18 @@
         <v>337</v>
       </c>
       <c r="D115" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E115" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F115" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G115" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H115" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34237,23 +33982,18 @@
         <v>338</v>
       </c>
       <c r="D116" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E116" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F116" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G116" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H116" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34265,23 +34005,18 @@
         <v>337</v>
       </c>
       <c r="D117" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E117" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F117" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G117" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H117" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34290,23 +34025,18 @@
         <v>338</v>
       </c>
       <c r="D118" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E118" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F118" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G118" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H118" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34321,23 +34051,18 @@
         <v>337</v>
       </c>
       <c r="D119" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E119" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F119" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G119" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H119" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34346,23 +34071,18 @@
         <v>338</v>
       </c>
       <c r="D120" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E120" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F120" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G120" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H120" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34374,23 +34094,18 @@
         <v>337</v>
       </c>
       <c r="D121" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E121" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F121" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G121" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H121" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34399,23 +34114,18 @@
         <v>338</v>
       </c>
       <c r="D122" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E122" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F122" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G122" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H122" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34430,23 +34140,18 @@
         <v>337</v>
       </c>
       <c r="D123" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E123" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F123" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G123" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H123" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34455,21 +34160,21 @@
         <v>338</v>
       </c>
       <c r="D124" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D124:H136" si="9">IF($C14="Affected fraction",D14,IF(D14=1,1,D14*1.05))</f>
         <v>0</v>
       </c>
       <c r="E124" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F124" s="104">
-        <v>0.86</v>
+        <v>0.45</v>
       </c>
       <c r="G124" s="104">
-        <v>0.86</v>
+        <v>0.45</v>
       </c>
       <c r="H124" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34481,23 +34186,23 @@
         <v>337</v>
       </c>
       <c r="D125" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E125" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F125" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G125" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H125" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34506,21 +34211,21 @@
         <v>338</v>
       </c>
       <c r="D126" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E126" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F126" s="104">
-        <v>0.93</v>
+        <v>0.2</v>
       </c>
       <c r="G126" s="104">
-        <v>0.93</v>
+        <v>0.2</v>
       </c>
       <c r="H126" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34535,23 +34240,23 @@
         <v>337</v>
       </c>
       <c r="D127" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E127" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F127" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G127" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H127" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -34560,24 +34265,21 @@
         <v>338</v>
       </c>
       <c r="D128" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E128" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F128" s="104">
-        <f t="shared" si="6"/>
-        <v>0.33600000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G128" s="104">
-        <f t="shared" si="6"/>
-        <v>0.33600000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="H128" s="104">
-        <f t="shared" si="6"/>
-        <v>0.33600000000000002</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -34588,23 +34290,23 @@
         <v>337</v>
       </c>
       <c r="D129" s="104">
-        <f t="shared" ref="D129:H144" si="7">IF($C19="Affected fraction",D19,IF(D19=1,1,D19*1.05))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E129" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F129" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F129:H129" si="10">IF($C74="Affected fraction",F74,IF(F74=1,1,F74*0.9))</f>
         <v>1</v>
       </c>
       <c r="G129" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H129" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -34613,24 +34315,21 @@
         <v>338</v>
       </c>
       <c r="D130" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E130" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F130" s="104">
-        <f t="shared" si="7"/>
-        <v>0.42000000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="G130" s="104">
-        <f t="shared" si="7"/>
-        <v>0.42000000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="H130" s="104">
-        <f t="shared" si="7"/>
-        <v>0.42000000000000004</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -34644,23 +34343,23 @@
         <v>337</v>
       </c>
       <c r="D131" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D131" si="11">IF($C76="Affected fraction",D76,IF(D76=1,1,D76*0.9))</f>
         <v>1</v>
       </c>
       <c r="E131" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F131" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G131" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H131" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34669,23 +34368,22 @@
         <v>339</v>
       </c>
       <c r="D132" s="104">
-        <f t="shared" si="7"/>
-        <v>0.13650000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E132" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F132" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G132" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H132" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34700,23 +34398,23 @@
         <v>337</v>
       </c>
       <c r="D133" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D133" si="12">IF($C78="Affected fraction",D78,IF(D78=1,1,D78*0.9))</f>
         <v>1</v>
       </c>
       <c r="E133" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F133" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G133" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H133" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34725,23 +34423,22 @@
         <v>339</v>
       </c>
       <c r="D134" s="104">
-        <f t="shared" si="7"/>
-        <v>0.13650000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E134" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F134" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G134" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H134" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34756,23 +34453,23 @@
         <v>337</v>
       </c>
       <c r="D135" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D135" si="13">IF($C80="Affected fraction",D80,IF(D80=1,1,D80*0.9))</f>
         <v>1</v>
       </c>
       <c r="E135" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F135" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G135" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H135" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34781,23 +34478,22 @@
         <v>339</v>
       </c>
       <c r="D136" s="104">
-        <f t="shared" si="7"/>
-        <v>0.13650000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E136" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F136" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G136" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H136" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34812,23 +34508,18 @@
         <v>337</v>
       </c>
       <c r="D137" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E137" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F137" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G137" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H137" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -34837,23 +34528,18 @@
         <v>339</v>
       </c>
       <c r="D138" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E138" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F138" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G138" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H138" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -34862,23 +34548,18 @@
         <v>338</v>
       </c>
       <c r="D139" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E139" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F139" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G139" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H139" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -34893,23 +34574,18 @@
         <v>337</v>
       </c>
       <c r="D140" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E140" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F140" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G140" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H140" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -34918,23 +34594,18 @@
         <v>339</v>
       </c>
       <c r="D141" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E141" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F141" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G141" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H141" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -34943,23 +34614,18 @@
         <v>338</v>
       </c>
       <c r="D142" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E142" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F142" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G142" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H142" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -34974,23 +34640,18 @@
         <v>337</v>
       </c>
       <c r="D143" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E143" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F143" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G143" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H143" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -34999,23 +34660,18 @@
         <v>339</v>
       </c>
       <c r="D144" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E144" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F144" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G144" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H144" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -35024,23 +34680,18 @@
         <v>338</v>
       </c>
       <c r="D145" s="104">
-        <f t="shared" ref="D145:H160" si="8">IF($C35="Affected fraction",D35,IF(D35=1,1,D35*1.05))</f>
         <v>0</v>
       </c>
       <c r="E145" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F145" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G145" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H145" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35055,23 +34706,18 @@
         <v>337</v>
       </c>
       <c r="D146" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E146" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F146" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G146" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H146" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -35080,23 +34726,18 @@
         <v>339</v>
       </c>
       <c r="D147" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E147" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F147" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G147" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H147" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35105,23 +34746,18 @@
         <v>338</v>
       </c>
       <c r="D148" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E148" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F148" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G148" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H148" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35136,23 +34772,18 @@
         <v>337</v>
       </c>
       <c r="D149" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E149" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F149" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G149" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H149" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -35161,23 +34792,18 @@
         <v>339</v>
       </c>
       <c r="D150" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E150" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F150" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G150" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H150" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35186,23 +34812,18 @@
         <v>338</v>
       </c>
       <c r="D151" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E151" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F151" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G151" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H151" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35217,23 +34838,23 @@
         <v>337</v>
       </c>
       <c r="D152" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D152:H153" si="14">IF($C97="Affected fraction",D97,IF(D97=1,1,D97*0.9))</f>
         <v>0</v>
       </c>
       <c r="E152" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F152" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="G152" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H152" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -35242,24 +34863,24 @@
         <v>339</v>
       </c>
       <c r="D153" s="104">
-        <f t="shared" si="8"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="E153" s="104">
-        <f t="shared" si="8"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="F153" s="104">
-        <f t="shared" si="8"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="G153" s="104">
-        <f t="shared" si="8"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="H153" s="104">
-        <f t="shared" si="8"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -35267,24 +34888,19 @@
         <v>338</v>
       </c>
       <c r="D154" s="104">
-        <f t="shared" si="8"/>
-        <v>0.95550000000000013</v>
+        <v>0.1</v>
       </c>
       <c r="E154" s="104">
-        <f t="shared" si="8"/>
-        <v>0.95550000000000013</v>
+        <v>0.1</v>
       </c>
       <c r="F154" s="104">
-        <f t="shared" si="8"/>
-        <v>0.95550000000000013</v>
+        <v>0.1</v>
       </c>
       <c r="G154" s="104">
-        <f t="shared" si="8"/>
-        <v>0.95550000000000013</v>
+        <v>0.1</v>
       </c>
       <c r="H154" s="104">
-        <f t="shared" si="8"/>
-        <v>0.95550000000000013</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -35295,24 +34911,19 @@
         <v>337</v>
       </c>
       <c r="D155" s="104">
-        <f t="shared" si="8"/>
-        <v>0.315</v>
+        <v>0</v>
       </c>
       <c r="E155" s="104">
-        <f t="shared" si="8"/>
-        <v>0.315</v>
+        <v>1</v>
       </c>
       <c r="F155" s="104">
-        <f t="shared" si="8"/>
-        <v>0.315</v>
+        <v>1</v>
       </c>
       <c r="G155" s="104">
-        <f t="shared" si="8"/>
-        <v>0.315</v>
+        <v>1</v>
       </c>
       <c r="H155" s="104">
-        <f t="shared" si="8"/>
-        <v>0.315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -35320,23 +34931,18 @@
         <v>339</v>
       </c>
       <c r="D156" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E156" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F156" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G156" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H156" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35345,23 +34951,18 @@
         <v>338</v>
       </c>
       <c r="D157" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E157" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F157" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G157" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H157" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35376,24 +34977,19 @@
         <v>337</v>
       </c>
       <c r="D158" s="104">
-        <f t="shared" si="8"/>
-        <v>0.92400000000000004</v>
+        <v>1</v>
       </c>
       <c r="E158" s="104">
-        <f t="shared" si="8"/>
-        <v>0.92400000000000004</v>
+        <v>1</v>
       </c>
       <c r="F158" s="104">
-        <f t="shared" si="8"/>
-        <v>0.92400000000000004</v>
+        <v>1</v>
       </c>
       <c r="G158" s="104">
-        <f t="shared" si="8"/>
-        <v>0.92400000000000004</v>
+        <v>1</v>
       </c>
       <c r="H158" s="104">
-        <f t="shared" si="8"/>
-        <v>0.92400000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -35401,24 +34997,19 @@
         <v>339</v>
       </c>
       <c r="D159" s="104">
-        <f t="shared" si="8"/>
-        <v>0.8232954545454545</v>
+        <v>0.8</v>
       </c>
       <c r="E159" s="104">
-        <f t="shared" si="8"/>
-        <v>0.8232954545454545</v>
+        <v>0.8</v>
       </c>
       <c r="F159" s="104">
-        <f t="shared" si="8"/>
-        <v>0.8232954545454545</v>
+        <v>0.8</v>
       </c>
       <c r="G159" s="104">
-        <f t="shared" si="8"/>
-        <v>0.8232954545454545</v>
+        <v>0.8</v>
       </c>
       <c r="H159" s="104">
-        <f t="shared" si="8"/>
-        <v>0.8232954545454545</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35432,23 +35023,18 @@
         <v>337</v>
       </c>
       <c r="D160" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E160" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F160" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G160" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H160" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -35457,24 +35043,19 @@
         <v>339</v>
       </c>
       <c r="D161" s="104">
-        <f t="shared" ref="D161:H163" si="9">IF($C51="Affected fraction",D51,IF(D51=1,1,D51*1.05))</f>
-        <v>0.79800000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="E161" s="104">
-        <f t="shared" si="9"/>
-        <v>0.79800000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="F161" s="104">
-        <f t="shared" si="9"/>
-        <v>0.79800000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="G161" s="104">
-        <f t="shared" si="9"/>
-        <v>0.79800000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="H161" s="104">
-        <f t="shared" si="9"/>
-        <v>0.79800000000000004</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -35488,23 +35069,18 @@
         <v>337</v>
       </c>
       <c r="D162" s="104">
-        <f t="shared" si="9"/>
-        <v>0.60899999999999999</v>
+        <v>1</v>
       </c>
       <c r="E162" s="104">
-        <f t="shared" si="9"/>
-        <v>0.60899999999999999</v>
+        <v>0</v>
       </c>
       <c r="F162" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G162" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H162" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -35513,28 +35089,23 @@
         <v>339</v>
       </c>
       <c r="D163" s="104">
-        <f t="shared" si="9"/>
-        <v>0.53550000000000009</v>
+        <v>0.71</v>
       </c>
       <c r="E163" s="104">
-        <f t="shared" si="9"/>
-        <v>0.53550000000000009</v>
+        <v>0</v>
       </c>
       <c r="F163" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G163" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H163" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gCkLliSMqwXMi+QZD5lys1a/gJNMxR1bvCeJ/DQHnqDCQ4gKSjwDJ6Qd1KHg++GT7b24aCNmRYMzj8B07zlLTg==" saltValue="P3YOPxiPTi3lzex7SXH9iw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SVwngcrUyZrqJxBy5uYp53P6Bitvn69o76RUMgGhd01NZwLdY2djTAF1ZJ0w7cuqcfg017pHmLjQm1TR+AfN/w==" saltValue="j+O9iFS8gh93w1pg0ySy7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -35548,7 +35119,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -35611,16 +35182,16 @@
         <v>339</v>
       </c>
       <c r="D3" s="104">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="E3" s="104">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="F3" s="104">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="G3" s="104">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="H3" s="31"/>
     </row>
@@ -35695,16 +35266,16 @@
         <v>339</v>
       </c>
       <c r="D7" s="104">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E7" s="104">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F7" s="104">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="G7" s="104">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H7" s="31"/>
     </row>
@@ -35766,20 +35337,16 @@
         <v>339</v>
       </c>
       <c r="D12" s="104">
-        <f t="shared" ref="D12:G16" si="1">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*0.9))</f>
-        <v>0.15300000000000002</v>
+        <v>0</v>
       </c>
       <c r="E12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.15300000000000002</v>
+        <v>0</v>
       </c>
       <c r="F12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.15300000000000002</v>
+        <v>0</v>
       </c>
       <c r="G12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.15300000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -35793,7 +35360,7 @@
         <v>337</v>
       </c>
       <c r="D13" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D13:G16" si="1">IF($C4="Affected fraction",D4,IF(D4=1,1,D4*0.9))</f>
         <v>1</v>
       </c>
       <c r="E13" s="104">
@@ -35863,19 +35430,19 @@
       </c>
       <c r="D16" s="104">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="E16" s="104">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="F16" s="104">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="G16" s="104">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -35936,20 +35503,16 @@
         <v>339</v>
       </c>
       <c r="D21" s="104">
-        <f t="shared" ref="D21:G25" si="3">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*1.05))</f>
-        <v>0.17850000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="E21" s="104">
-        <f t="shared" si="3"/>
-        <v>0.17850000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="F21" s="104">
-        <f t="shared" si="3"/>
-        <v>0.17850000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="G21" s="104">
-        <f t="shared" si="3"/>
-        <v>0.17850000000000002</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -35963,7 +35526,7 @@
         <v>337</v>
       </c>
       <c r="D22" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D22:G22" si="3">IF($C4="Affected fraction",D4,IF(D4=1,1,D4*1.05))</f>
         <v>1</v>
       </c>
       <c r="E22" s="104">
@@ -35984,20 +35547,20 @@
         <v>339</v>
       </c>
       <c r="D23" s="104">
-        <f t="shared" si="3"/>
-        <v>0.61949999999999994</v>
+        <f>IF($C5="Affected fraction",D5,IF(D5=1,1,D5*1.1))</f>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E23" s="104">
-        <f t="shared" si="3"/>
-        <v>0.61949999999999994</v>
+        <f t="shared" ref="E23:G23" si="4">IF($C5="Affected fraction",E5,IF(E5=1,1,E5*1.1))</f>
+        <v>0.64900000000000002</v>
       </c>
       <c r="F23" s="104">
-        <f t="shared" si="3"/>
-        <v>0.61949999999999994</v>
+        <f t="shared" si="4"/>
+        <v>0.64900000000000002</v>
       </c>
       <c r="G23" s="104">
-        <f t="shared" si="3"/>
-        <v>0.61949999999999994</v>
+        <f t="shared" si="4"/>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -36011,19 +35574,19 @@
         <v>337</v>
       </c>
       <c r="D24" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D24:G24" si="5">IF($C6="Affected fraction",D6,IF(D6=1,1,D6*1.05))</f>
         <v>1</v>
       </c>
       <c r="E24" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F24" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G24" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -36032,24 +35595,24 @@
         <v>339</v>
       </c>
       <c r="D25" s="104">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
+        <f>IF($C7="Affected fraction",D7,IF(D7=1,1,D7*1.1))</f>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E25" s="104">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
+        <f t="shared" ref="E25:G25" si="6">IF($C7="Affected fraction",E7,IF(E7=1,1,E7*1.1))</f>
+        <v>0.64900000000000002</v>
       </c>
       <c r="F25" s="104">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
+        <f t="shared" si="6"/>
+        <v>0.64900000000000002</v>
       </c>
       <c r="G25" s="104">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
+        <f t="shared" si="6"/>
+        <v>0.64900000000000002</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y1ShcUIi80YINZCV2Smlm3MmCkkXl+jFBNpz06HJ0vGHXGFdy+/NtZlX2idnunrLuPSnTNuSBIpdtuT9b+dUDg==" saltValue="ySHgUt8h7T/jDDwNMEX3ww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XeELs79j7uCO1ehZzlof63aK9RvTn/jG7cMV4Kvxmd381o9CZfBwpxTkU9UALS35S4MUNW1R9p2TLa2kupvymQ==" saltValue="jEB6vDhLbN2x30ESq3W7+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -36486,7 +36049,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ExQXq61hpBMUZWNtm4Kdyz2Q/+lei5Z2PHf88blf1SKN7kBjvkshp23QOF3Y+775GmHxOVxI1+a5Go+l0wcOkw==" saltValue="O949EhzzI80ILsurhpvsLA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yTOVqQe/Llb8U9KdDWI54s08R22aN6nktV6twXCkjZIzg5q9i0trNF55UvaYTx1p9gbwGI+VYkst45CW/ZFc3A==" saltValue="kZ34gjCsPtub8Tk/45vGPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36910,7 +36473,7 @@
       <c r="G17" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1UtYQ+MZQXvrmxsGHNtwEhOgg+YnCV6/5EzbnyAf/MdW1hcY5upmzG9tiRWxg1V8E+hNTQff7DR7Io/A972CQg==" saltValue="aZmJhL3fs5jSAhAzh4PQog==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wcxWSNcSmAbt3nLvGmxNigIzfJ52QxzZrDewKtryGpZIpixblADWQj2qcgYNQDYThlTZ02DWFvUKof/xBmYyjw==" saltValue="NOQxk9zV+PHgSV8gb9WPfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37047,7 +36610,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g3o91eI4fPzXcRXDPZm+W+mQLutX0RCgqrr1hyhHcG+o8EsEeoP29VRnLFSinRCndWcHM9FUR+ZefPDaXVFMtQ==" saltValue="EcNbmwmhml4E0HxEzo+f8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cXPNDCIygRnTfnq+KVyk3/sh3Mi4Fig4ReF4OkdKXiCysQuiww0MkE2nbp5nPNkwm2mKi9ZFhRQLIqNtZtQgZg==" saltValue="pRXMvwRzCRCOTKsK8AY0jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37254,7 +36817,7 @@
       <c r="K14" s="115"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aWRkeXqFUMETgr79fZC51fmX1HbmaYnlrynDj7TMQMz7nFyXbNIWy9PaOJv1qRGu6YANHNdwCxX6DqZmBjXyiw==" saltValue="isYJXy+d0Jw1s0rkalplQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qBh3ZtAoUaFH2UVlyao73AeR8w6umcdC+SOGYIzcapF+Wlk+pugPpzkAsl5X4oeP502xlHS1emt8nWZQY28h2A==" saltValue="qDgDMaHKcZeGohOEfGU8WQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37335,7 +36898,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="M3kHWPFDJjB8C6imnJGNwEFrf93AZDyu5A/i4jc2gE8HghofEF1sKX4KUhYBG6LgYTufvhVcyV3s25qX3l5vmQ==" saltValue="AezLlhSVL6CYuQXbOc3VOA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5EqnpxUKcycEiK2MipgDbYIXp53dEOgCsl8GNJWXZ4eKe+d5iLJLIXbugSpn0hrMZMOy5oi3ykaK3enKb5xZiA==" saltValue="IJ4WOY/dVMbM6kgEE4IgpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37595,7 +37158,7 @@
       <c r="E21" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ztbHCuVv5pFtGtdHYg5YEskuEch2e/J3IYZlqomXDOWmmowqkJV7Y0V3snAjkSGZhKxodqmlGzB20oJHjXhlXQ==" saltValue="+ijJE2zn/LFVyyiFS7MPtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZUmGvwa3XWQ7rvf0Rb6CFHgc0EdegVDy8LQYCmVmIlJMmaUIYsfJgOO3XKUCuXClAbsdhCGV01E+6VNZS5Xp5A==" saltValue="+O0Y70hcpQjhfpt/jNF/hg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37659,7 +37222,7 @@
       <c r="D3" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aK1MWyAtCDmg4DMrKEXcV87Z+sdo0J+DxB1mC2FUpuxMfsllw1Jm8vcg/9AvVTAKJhZFAusEu9F3PtO0DuArag==" saltValue="uLOHYOgG/nBLLKPn0vjDTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uocKzqNDzrttTl6Uiw41ecMlCjeTSU6a9diujkh4EZ9z7FANwf08o2YxH+Aywe1+14t2BuIwq79JQVuDxJJDDA==" saltValue="eFpBjql2GcKawZw9Qh76uA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>